--- a/umit_files/umit_him.xlsx
+++ b/umit_files/umit_him.xlsx
@@ -21,10 +21,12 @@
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -260,11 +262,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/113CgbJ0sr-mWntEoOqJOh6yxEMX_rzdRju7NO8yN1Fk/edit?usp=sharing"",""УМИТЫ!A:Z"")"),"Общая химия")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/1UPx6B44t1Te-3g2YDT3uRFD6HuoA0lXICoT63V7huQQ/edit"",""УМИТЫ!A:Z"")"),"Общая химия")</f>
         <v>Общая химия</v>
       </c>
       <c r="B1" s="1"/>

--- a/umit_files/umit_him.xlsx
+++ b/umit_files/umit_him.xlsx
@@ -1742,8 +1742,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),115.0)</f>
         <v>115</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="E16" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Общие химические свойства кислот")</f>
+        <v>Общие химические свойства кислот</v>
+      </c>
+      <c r="F16" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),215.0)</f>
+        <v>215</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1812,8 +1818,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),116.0)</f>
         <v>116</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="E17" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Качественные реакции на многоатомные спирты")</f>
+        <v>Качественные реакции на многоатомные спирты</v>
+      </c>
+      <c r="F17" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),216.0)</f>
+        <v>216</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1882,8 +1894,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),117.0)</f>
         <v>117</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="E18" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Качественные реакции на фенол")</f>
+        <v>Качественные реакции на фенол</v>
+      </c>
+      <c r="F18" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),217.0)</f>
+        <v>217</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1952,8 +1970,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),118.0)</f>
         <v>118</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="E19" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Изменение основных свойств в ряду аминов")</f>
+        <v>Изменение основных свойств в ряду аминов</v>
+      </c>
+      <c r="F19" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),218.0)</f>
+        <v>218</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -2022,8 +2046,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),119.0)</f>
         <v>119</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="E20" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Особенности строения и свойств анилина")</f>
+        <v>Особенности строения и свойств анилина</v>
+      </c>
+      <c r="F20" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),219.0)</f>
+        <v>219</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -2092,8 +2122,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),120.0)</f>
         <v>120</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="E21" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Волокна")</f>
+        <v>Волокна</v>
+      </c>
+      <c r="F21" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),220.0)</f>
+        <v>220</v>
+      </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -2162,8 +2198,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),121.0)</f>
         <v>121</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="E22" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Механизмы образования связи: обменный и донорно-акцепторный")</f>
+        <v>Механизмы образования связи: обменный и донорно-акцепторный</v>
+      </c>
+      <c r="F22" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),221.0)</f>
+        <v>221</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -2232,8 +2274,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),122.0)</f>
         <v>122</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="E23" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение составлять реакции ионного обмена на основе заданных условий")</f>
+        <v>Умение составлять реакции ионного обмена на основе заданных условий</v>
+      </c>
+      <c r="F23" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),222.0)</f>
+        <v>222</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -2296,8 +2344,14 @@
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="E24" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Взаимосвязь неорганических соединений (для неорганических цепочек)")</f>
+        <v>Взаимосвязь неорганических соединений (для неорганических цепочек)</v>
+      </c>
+      <c r="F24" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),223.0)</f>
+        <v>223</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -2360,8 +2414,14 @@
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="E25" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Взаимосвязь органических соединений (для органических цепочек)")</f>
+        <v>Взаимосвязь органических соединений (для органических цепочек)</v>
+      </c>
+      <c r="F25" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),224.0)</f>
+        <v>224</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -2424,8 +2484,14 @@
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="E26" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение сопоставлять мономеры и полимеры")</f>
+        <v>Умение сопоставлять мономеры и полимеры</v>
+      </c>
+      <c r="F26" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),225.0)</f>
+        <v>225</v>
+      </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -2476,8 +2542,14 @@
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="E27" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вещества и область их применения")</f>
+        <v>Вещества и область их применения</v>
+      </c>
+      <c r="F27" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),226.0)</f>
+        <v>226</v>
+      </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -2528,8 +2600,14 @@
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="E28" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Источники получения веществ")</f>
+        <v>Источники получения веществ</v>
+      </c>
+      <c r="F28" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),227.0)</f>
+        <v>227</v>
+      </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -2580,8 +2658,14 @@
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="E29" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Получение ангидридов карбоновых кислот")</f>
+        <v>Получение ангидридов карбоновых кислот</v>
+      </c>
+      <c r="F29" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),228.0)</f>
+        <v>228</v>
+      </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>

--- a/umit_files/umit_him.xlsx
+++ b/umit_files/umit_him.xlsx
@@ -281,8 +281,8 @@
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Оксиды")</f>
-        <v>Оксиды</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бинарные кислородсодержащие соединения")</f>
+        <v>Бинарные кислородсодержащие соединения</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1" t="str">
@@ -326,8 +326,8 @@
       </c>
       <c r="X1" s="1"/>
       <c r="Y1" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Расчеты по химическим формулам. Уравнения реакций. Химия и жизнь")</f>
-        <v>Расчеты по химическим формулам. Уравнения реакций. Химия и жизнь</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химия и жизнь")</f>
+        <v>Химия и жизнь</v>
       </c>
       <c r="Z1" s="1"/>
     </row>
@@ -429,12 +429,12 @@
         <v>1101</v>
       </c>
       <c r="Y2" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Составление уравнений реакций")</f>
-        <v>Составление уравнений реакций</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Качественные реакции на неорганические ионы")</f>
+        <v>Качественные реакции на неорганические ионы</v>
       </c>
       <c r="Z2" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1201.0)</f>
-        <v>1201</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1208.0)</f>
+        <v>1208</v>
       </c>
     </row>
     <row r="3">
@@ -503,8 +503,8 @@
         <v>702</v>
       </c>
       <c r="Q3" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химические свойства алканов (реакции замещения и др.)")</f>
-        <v>Химические свойства алканов (реакции замещения и др.)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химические свойства алканов (реакции замещения)")</f>
+        <v>Химические свойства алканов (реакции замещения)</v>
       </c>
       <c r="R3" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),802.0)</f>
@@ -527,30 +527,30 @@
         <v>1002</v>
       </c>
       <c r="W3" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Органические полимеры")</f>
-        <v>Органические полимеры</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Неорганические волокна")</f>
+        <v>Неорганические волокна</v>
       </c>
       <c r="X3" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1102.0)</f>
-        <v>1102</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1103.0)</f>
+        <v>1103</v>
       </c>
       <c r="Y3" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Установление логических связей")</f>
-        <v>Установление логических связей</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правила работы в лаборатории")</f>
+        <v>Правила работы в лаборатории</v>
       </c>
       <c r="Z3" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1202.0)</f>
-        <v>1202</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1232.0)</f>
+        <v>1232</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Квантовые числа")</f>
-        <v>Квантовые числа</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Строение электронных оболочек атомов. Порядок заполнения орбиталей электронами")</f>
+        <v>Строение электронных оболочек атомов. Порядок заполнения орбиталей электронами</v>
       </c>
       <c r="B4" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
-        <v>3</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химические и физические свойства углерода")</f>
@@ -633,30 +633,30 @@
         <v>1003</v>
       </c>
       <c r="W4" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Неорганические полимеры")</f>
-        <v>Неорганические полимеры</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Природные волокна")</f>
+        <v>Природные волокна</v>
       </c>
       <c r="X4" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1103.0)</f>
-        <v>1103</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1104.0)</f>
+        <v>1104</v>
       </c>
       <c r="Y4" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Способы выражения концентрации вещества")</f>
-        <v>Способы выражения концентрации вещества</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Лабораторная посуда и оборудование")</f>
+        <v>Лабораторная посуда и оборудование</v>
       </c>
       <c r="Z4" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1203.0)</f>
-        <v>1203</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1233.0)</f>
+        <v>1233</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Порядок заполнения электронных орбиталей электронами и их строение")</f>
-        <v>Порядок заполнения электронных орбиталей электронами и их строение</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение описывать свойства химического элемента на основе его положения в Периодической системе Д.И. Менделеева")</f>
+        <v>Умение описывать свойства химического элемента на основе его положения в Периодической системе Д.И. Менделеева</v>
       </c>
       <c r="B5" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
-        <v>4</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.0)</f>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химические и физические свойства кислорода и озона")</f>
@@ -707,8 +707,8 @@
         <v>604</v>
       </c>
       <c r="O5" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Основы номенклатуры органических соединений")</f>
-        <v>Основы номенклатуры органических соединений</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Номенклатура органических соединений")</f>
+        <v>Номенклатура органических соединений</v>
       </c>
       <c r="P5" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),704.0)</f>
@@ -739,30 +739,30 @@
         <v>1004</v>
       </c>
       <c r="W5" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Природные полимеры")</f>
-        <v>Природные полимеры</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Синтетические волокна")</f>
+        <v>Синтетические волокна</v>
       </c>
       <c r="X5" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1104.0)</f>
-        <v>1104</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1105.0)</f>
+        <v>1105</v>
       </c>
       <c r="Y5" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Классификация химических реакций. Реакции соединения, обмена, замещения, разложения")</f>
-        <v>Классификация химических реакций. Реакции соединения, обмена, замещения, разложения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правила безопасности при работе с веществами")</f>
+        <v>Правила безопасности при работе с веществами</v>
       </c>
       <c r="Z5" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1204.0)</f>
-        <v>1204</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1234.0)</f>
+        <v>1234</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение описывать свойства химического элемента на основе его положения в Периодической системе Д.И. Менделеева")</f>
-        <v>Умение описывать свойства химического элемента на основе его положения в Периодической системе Д.И. Менделеева</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие валентности и валентные возможности атомов химических элементов")</f>
+        <v>Понятие валентности и валентные возможности атомов химических элементов</v>
       </c>
       <c r="B6" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.0)</f>
-        <v>5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.0)</f>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химические и физические свойства кремния")</f>
@@ -845,30 +845,30 @@
         <v>1005</v>
       </c>
       <c r="W6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Синтетические полимеры")</f>
-        <v>Синтетические полимеры</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Искусственные волокна")</f>
+        <v>Искусственные волокна</v>
       </c>
       <c r="X6" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1105.0)</f>
-        <v>1105</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1106.0)</f>
+        <v>1106</v>
       </c>
       <c r="Y6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Обратимые и необратимые химические реакции")</f>
-        <v>Обратимые и необратимые химические реакции</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Методы разделения смесей ")</f>
+        <v>Методы разделения смесей </v>
       </c>
       <c r="Z6" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1205.0)</f>
-        <v>1205</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1235.0)</f>
+        <v>1235</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие валентности и валентные возможности атомов химических элементов")</f>
-        <v>Понятие валентности и валентные возможности атомов химических элементов</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятия электроотрицательности и энергии ионизации атомов химических элементов")</f>
+        <v>Понятия электроотрицательности и энергии ионизации атомов химических элементов</v>
       </c>
       <c r="B7" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.0)</f>
-        <v>6</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.0)</f>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химические и физические свойства фосфора")</f>
@@ -951,30 +951,30 @@
         <v>1006</v>
       </c>
       <c r="W7" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Искусственные полимеры")</f>
-        <v>Искусственные полимеры</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пространственное строение молекул полимеров. Получение гомо- и сополимеров")</f>
+        <v>Пространственное строение молекул полимеров. Получение гомо- и сополимеров</v>
       </c>
       <c r="X7" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1106.0)</f>
-        <v>1106</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1107.0)</f>
+        <v>1107</v>
       </c>
       <c r="Y7" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие теплового эффекта реакции. Экзотермические и эндотермические реакции")</f>
-        <v>Понятие теплового эффекта реакции. Экзотермические и эндотермические реакции</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Распознавание ионов и веществ по цвету пламени")</f>
+        <v>Распознавание ионов и веществ по цвету пламени</v>
       </c>
       <c r="Z7" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1206.0)</f>
-        <v>1206</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1238.0)</f>
+        <v>1238</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятия электроотрицательности и ионизации химических элементов")</f>
-        <v>Понятия электроотрицательности и ионизации химических элементов</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие окислительно-восстановительных свойств")</f>
+        <v>Понятие окислительно-восстановительных свойств</v>
       </c>
       <c r="B8" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.0)</f>
-        <v>7</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.0)</f>
+        <v>8</v>
       </c>
       <c r="C8" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химические и физические свойства серы")</f>
@@ -1041,8 +1041,8 @@
         <v>807</v>
       </c>
       <c r="S8" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Общие химические свойства предельных одноатомных спиртов")</f>
-        <v>Общие химические свойства предельных одноатомных спиртов</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химические свойства одноатомных спиртов - реакции с разрывом связи О-Н")</f>
+        <v>Химические свойства одноатомных спиртов - реакции с разрывом связи О-Н</v>
       </c>
       <c r="T8" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),907.0)</f>
@@ -1057,30 +1057,30 @@
         <v>1007</v>
       </c>
       <c r="W8" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пространственное строение молекул полимеров. Получение гомо- и сополимеров")</f>
-        <v>Пространственное строение молекул полимеров. Получение гомо- и сополимеров</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Физические свойства полимеров")</f>
+        <v>Физические свойства полимеров</v>
       </c>
       <c r="X8" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1107.0)</f>
-        <v>1107</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1108.0)</f>
+        <v>1108</v>
       </c>
       <c r="Y8" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гомогенные и гетерогенные химические реакции")</f>
-        <v>Гомогенные и гетерогенные химические реакции</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химическое загрязнение окружающей среды и его последствия")</f>
+        <v>Химическое загрязнение окружающей среды и его последствия</v>
       </c>
       <c r="Z8" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1207.0)</f>
-        <v>1207</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1242.0)</f>
+        <v>1242</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие окислительно-восстановительных свойств")</f>
-        <v>Понятие окислительно-восстановительных свойств</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Обменный и донорно-акцепторный механизмы образования химической связи")</f>
+        <v>Обменный и донорно-акцепторный механизмы образования химической связи</v>
       </c>
       <c r="B9" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.0)</f>
-        <v>8</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.0)</f>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химические и физические свойства азота")</f>
@@ -1163,30 +1163,30 @@
         <v>1008</v>
       </c>
       <c r="W9" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Физические свойства полимеров")</f>
-        <v>Физические свойства полимеров</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Свойства полимеров")</f>
+        <v>Свойства полимеров</v>
       </c>
       <c r="X9" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1108.0)</f>
-        <v>1108</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1109.0)</f>
+        <v>1109</v>
       </c>
       <c r="Y9" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Качественные реакции на неорганические ионы")</f>
-        <v>Качественные реакции на неорганические ионы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение различать химические и физические явления")</f>
+        <v>Умение различать химические и физические явления</v>
       </c>
       <c r="Z9" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1208.0)</f>
-        <v>1208</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1246.0)</f>
+        <v>1246</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Обменный и донорно-акцепторный механизмы образования химической связи")</f>
-        <v>Обменный и донорно-акцепторный механизмы образования химической связи</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Полярная и неполярная ковалентные связи")</f>
+        <v>Полярная и неполярная ковалентные связи</v>
       </c>
       <c r="B10" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.0)</f>
-        <v>9</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),10.0)</f>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химические и физические свойства галогенов")</f>
@@ -1269,30 +1269,24 @@
         <v>1009</v>
       </c>
       <c r="W10" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Свойства полимеров")</f>
-        <v>Свойства полимеров</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Получение резины. Вулканизация каучука")</f>
+        <v>Получение резины. Вулканизация каучука</v>
       </c>
       <c r="X10" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1109.0)</f>
-        <v>1109</v>
-      </c>
-      <c r="Y10" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Качественные реакции на органические соединения")</f>
-        <v>Качественные реакции на органические соединения</v>
-      </c>
-      <c r="Z10" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1209.0)</f>
-        <v>1209</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1110.0)</f>
+        <v>1110</v>
+      </c>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Полярная и неполярная ковалентные связи")</f>
-        <v>Полярная и неполярная ковалентные связи</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ионная связь")</f>
+        <v>Ионная связь</v>
       </c>
       <c r="B11" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),10.0)</f>
-        <v>10</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),11.0)</f>
+        <v>11</v>
       </c>
       <c r="C11" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химические и физические свойства фтора")</f>
@@ -1375,30 +1369,24 @@
         <v>1010</v>
       </c>
       <c r="W11" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Получение резины. Вулканизация каучука")</f>
-        <v>Получение резины. Вулканизация каучука</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение сопоставлять мономеры и полимеры")</f>
+        <v>Умение сопоставлять мономеры и полимеры</v>
       </c>
       <c r="X11" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1110.0)</f>
-        <v>1110</v>
-      </c>
-      <c r="Y11" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие растворимости")</f>
-        <v>Понятие растворимости</v>
-      </c>
-      <c r="Z11" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1210.0)</f>
-        <v>1210</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1111.0)</f>
+        <v>1111</v>
+      </c>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ионная связь")</f>
-        <v>Ионная связь</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Металлическая связь")</f>
+        <v>Металлическая связь</v>
       </c>
       <c r="B12" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),11.0)</f>
-        <v>11</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12.0)</f>
+        <v>12</v>
       </c>
       <c r="C12" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Основные соединения водорода. Вода и пероксид водорода, их физические и химические свойства, их получение")</f>
@@ -1416,8 +1404,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),211.0)</f>
         <v>211</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="G12" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Физические и химические свойства надпероксидов активных металлов, их получение")</f>
+        <v>Физические и химические свойства надпероксидов активных металлов, их получение</v>
+      </c>
+      <c r="H12" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),311.0)</f>
+        <v>311</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="str">
@@ -1445,8 +1439,8 @@
         <v>711</v>
       </c>
       <c r="Q12" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химические свойства алкенов (реакции замещения, присоединения, полимеризации и др.)")</f>
-        <v>Химические свойства алкенов (реакции замещения, присоединения, полимеризации и др.)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химические свойства алкенов - реакции присоединения")</f>
+        <v>Химические свойства алкенов - реакции присоединения</v>
       </c>
       <c r="R12" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),811.0)</f>
@@ -1468,25 +1462,25 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1011.0)</f>
         <v>1011</v>
       </c>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие количества вещества")</f>
-        <v>Понятие количества вещества</v>
-      </c>
-      <c r="Z12" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1211.0)</f>
-        <v>1211</v>
-      </c>
+      <c r="W12" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пластмассы")</f>
+        <v>Пластмассы</v>
+      </c>
+      <c r="X12" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1112.0)</f>
+        <v>1112</v>
+      </c>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Металлическая связь")</f>
-        <v>Металлическая связь</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Водородная связь")</f>
+        <v>Водородная связь</v>
       </c>
       <c r="B13" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12.0)</f>
-        <v>12</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13.0)</f>
+        <v>13</v>
       </c>
       <c r="C13" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Основные соединения углерода. Оксиды углерода и их физические и химические свойства")</f>
@@ -1558,23 +1552,17 @@
       </c>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
-      <c r="Y13" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие массовой доли вещества / элемента")</f>
-        <v>Понятие массовой доли вещества / элемента</v>
-      </c>
-      <c r="Z13" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1212.0)</f>
-        <v>1212</v>
-      </c>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Водородная связь")</f>
-        <v>Водородная связь</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Атомная решетка")</f>
+        <v>Атомная решетка</v>
       </c>
       <c r="B14" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13.0)</f>
-        <v>13</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),14.0)</f>
+        <v>14</v>
       </c>
       <c r="C14" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Основные соединения кремния. Оксиды кремния и их физические и химические свойства")</f>
@@ -1606,14 +1594,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),613.0)</f>
         <v>613</v>
       </c>
-      <c r="O14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Именные реакции в органической химии")</f>
-        <v>Именные реакции в органической химии</v>
-      </c>
-      <c r="P14" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),713.0)</f>
-        <v>713</v>
-      </c>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
       <c r="Q14" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тип гибридизации атомов углерода в молекулах алкенов")</f>
         <v>Тип гибридизации атомов углерода в молекулах алкенов</v>
@@ -1640,23 +1622,17 @@
       </c>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
-      <c r="Y14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение составлять и решать пропорции ")</f>
-        <v>Умение составлять и решать пропорции </v>
-      </c>
-      <c r="Z14" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1213.0)</f>
-        <v>1213</v>
-      </c>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Атомная решетка")</f>
-        <v>Атомная решетка</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Молекулярная решетка")</f>
+        <v>Молекулярная решетка</v>
       </c>
       <c r="B15" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),14.0)</f>
-        <v>14</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),15.0)</f>
+        <v>15</v>
       </c>
       <c r="C15" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Основные соединения фосфора. Оксиды и кислоты фосфора, фосфин и их физические и химические свойства")</f>
@@ -1681,8 +1657,8 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химические свойства солей")</f>
-        <v>Химические свойства солей</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химические свойства средних солей")</f>
+        <v>Химические свойства средних солей</v>
       </c>
       <c r="N15" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),614.0)</f>
@@ -1716,23 +1692,17 @@
       </c>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
-      <c r="Y15" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие объема вещества")</f>
-        <v>Понятие объема вещества</v>
-      </c>
-      <c r="Z15" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1214.0)</f>
-        <v>1214</v>
-      </c>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Молекулярная решетка")</f>
-        <v>Молекулярная решетка</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ионная решетка")</f>
+        <v>Ионная решетка</v>
       </c>
       <c r="B16" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),15.0)</f>
-        <v>15</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
+        <v>16</v>
       </c>
       <c r="C16" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Основные соединения азота. Оксиды и кислоты азота, аммиак и их физические и химические свойства")</f>
@@ -1792,23 +1762,17 @@
       </c>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
-      <c r="Y16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие массы вещества")</f>
-        <v>Понятие массы вещества</v>
-      </c>
-      <c r="Z16" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1215.0)</f>
-        <v>1215</v>
-      </c>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ионная решетка")</f>
-        <v>Ионная решетка</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Металлическая решетка")</f>
+        <v>Металлическая решетка</v>
       </c>
       <c r="B17" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
-        <v>16</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),17.0)</f>
+        <v>17</v>
       </c>
       <c r="C17" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Основные соединения серы. Оксиды и кислоты серы и их физические и химические свойства")</f>
@@ -1868,23 +1832,17 @@
       </c>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
-      <c r="Y17" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Определение находится ли вещество, участвующее в реакции, в избытке или недостатке")</f>
-        <v>Определение находится ли вещество, участвующее в реакции, в избытке или недостатке</v>
-      </c>
-      <c r="Z17" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1216.0)</f>
-        <v>1216</v>
-      </c>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Металлическая решетка")</f>
-        <v>Металлическая решетка</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Простые и сложные вещества. Аллотропные модификации веществ")</f>
+        <v>Простые и сложные вещества. Аллотропные модификации веществ</v>
       </c>
       <c r="B18" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),17.0)</f>
-        <v>17</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),18.0)</f>
+        <v>18</v>
       </c>
       <c r="C18" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Основные соединения фтора. Плавиковая кислота, её физические и химические свойства, а также получение")</f>
@@ -1944,23 +1902,17 @@
       </c>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
-      <c r="Y18" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение анализировать молекулярную формулу и химические свойства вещества для определения его класса и построения структурной формулы")</f>
-        <v>Умение анализировать молекулярную формулу и химические свойства вещества для определения его класса и построения структурной формулы</v>
-      </c>
-      <c r="Z18" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1217.0)</f>
-        <v>1217</v>
-      </c>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Простые и сложные вещества. Аллотропные модификации веществ")</f>
-        <v>Простые и сложные вещества. Аллотропные модификации веществ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Факторы, влияющие на скорость химической реакции")</f>
+        <v>Факторы, влияющие на скорость химической реакции</v>
       </c>
       <c r="B19" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),18.0)</f>
-        <v>18</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),23.0)</f>
+        <v>23</v>
       </c>
       <c r="C19" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Основные соединения галогенов. Оксиды и кислоты галогенов и их физические и химические свойства")</f>
@@ -2020,23 +1972,17 @@
       </c>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
-      <c r="Y19" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие теоретически возможного и практического выхода продукта реакции")</f>
-        <v>Понятие теоретически возможного и практического выхода продукта реакции</v>
-      </c>
-      <c r="Z19" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1218.0)</f>
-        <v>1218</v>
-      </c>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Закон постоянства состава вещества. Закон Авогадро")</f>
-        <v>Закон постоянства состава вещества. Закон Авогадро</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие химического равновесия. Принцип Ле Шателье")</f>
+        <v>Понятие химического равновесия. Принцип Ле Шателье</v>
       </c>
       <c r="B20" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),19.0)</f>
-        <v>19</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),26.0)</f>
+        <v>26</v>
       </c>
       <c r="C20" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Применение неметаллов и их соединений")</f>
@@ -2096,23 +2042,17 @@
       </c>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
-      <c r="Y20" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие примесей")</f>
-        <v>Понятие примесей</v>
-      </c>
-      <c r="Z20" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1219.0)</f>
-        <v>1219</v>
-      </c>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие количества вещества. Постоянная Авогадро")</f>
-        <v>Понятие количества вещества. Постоянная Авогадро</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теория электролитической диссоциации. Сильные и слабые электролиты")</f>
+        <v>Теория электролитической диссоциации. Сильные и слабые электролиты</v>
       </c>
       <c r="B21" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),20.0)</f>
-        <v>20</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),27.0)</f>
+        <v>27</v>
       </c>
       <c r="C21" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Получение неметаллов")</f>
@@ -2147,8 +2087,8 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химические свойства алкинов (реакции присоединения, замещения, полимеризации и др.)")</f>
-        <v>Химические свойства алкинов (реакции присоединения, замещения, полимеризации и др.)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химические свойства алкинов - реакции присоединения")</f>
+        <v>Химические свойства алкинов - реакции присоединения</v>
       </c>
       <c r="R21" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),820.0)</f>
@@ -2172,23 +2112,17 @@
       </c>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
-      <c r="Y21" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие плотности вещества")</f>
-        <v>Понятие плотности вещества</v>
-      </c>
-      <c r="Z21" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1220.0)</f>
-        <v>1220</v>
-      </c>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Закон сохранения массы")</f>
-        <v>Закон сохранения массы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Кислотность среды. Понятие рН")</f>
+        <v>Кислотность среды. Понятие рН</v>
       </c>
       <c r="B22" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),21.0)</f>
-        <v>21</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),28.0)</f>
+        <v>28</v>
       </c>
       <c r="C22" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Систематическая номенклатура простых веществ неметаллов")</f>
@@ -2248,23 +2182,17 @@
       </c>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
-      <c r="Y22" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нахождение массовой или объемной доли практического выхода продукта реакции")</f>
-        <v>Нахождение массовой или объемной доли практического выхода продукта реакции</v>
-      </c>
-      <c r="Z22" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1221.0)</f>
-        <v>1221</v>
-      </c>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Закон объёмных отношений")</f>
-        <v>Закон объёмных отношений</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятия электронной конфигурации, энергетических уровня и подуровня. Умение писать электронные конфигурации атомов ")</f>
+        <v>Понятия электронной конфигурации, энергетических уровня и подуровня. Умение писать электронные конфигурации атомов </v>
       </c>
       <c r="B23" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),22.0)</f>
-        <v>22</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),29.0)</f>
+        <v>29</v>
       </c>
       <c r="C23" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тривиальная номенклатура простых веществ неметаллов")</f>
@@ -2324,23 +2252,17 @@
       </c>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
-      <c r="Y23" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нахождение массы чистого вещества в образце с примесями")</f>
-        <v>Нахождение массы чистого вещества в образце с примесями</v>
-      </c>
-      <c r="Z23" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1222.0)</f>
-        <v>1222</v>
-      </c>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Факторы, влияющие на скорость химической реакции")</f>
-        <v>Факторы, влияющие на скорость химической реакции</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие проскока электрона")</f>
+        <v>Понятие проскока электрона</v>
       </c>
       <c r="B24" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),23.0)</f>
-        <v>23</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30.0)</f>
+        <v>30</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -2385,32 +2307,26 @@
         <v>923</v>
       </c>
       <c r="U24" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Применение аминов в фармацевтической промышленности")</f>
-        <v>Применение аминов в фармацевтической промышленности</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химические свойства и способы получения анилина")</f>
+        <v>Химические свойства и способы получения анилина</v>
       </c>
       <c r="V24" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1023.0)</f>
-        <v>1023</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1024.0)</f>
+        <v>1024</v>
       </c>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
-      <c r="Y24" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нахождение массовой доли вещества / элемента")</f>
-        <v>Нахождение массовой доли вещества / элемента</v>
-      </c>
-      <c r="Z24" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1223.0)</f>
-        <v>1223</v>
-      </c>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие атомной массы")</f>
-        <v>Понятие атомной массы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Основное состояние атома")</f>
+        <v>Основное состояние атома</v>
       </c>
       <c r="B25" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),24.0)</f>
-        <v>24</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),31.0)</f>
+        <v>31</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -2455,32 +2371,26 @@
         <v>924</v>
       </c>
       <c r="U25" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Анилин как сырье для производства анилиновых красителей")</f>
-        <v>Анилин как сырье для производства анилиновых красителей</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Взаимосвязь органических соединений (для органических цепочек)")</f>
+        <v>Взаимосвязь органических соединений (для органических цепочек)</v>
       </c>
       <c r="V25" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1024.0)</f>
-        <v>1024</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1025.0)</f>
+        <v>1025</v>
       </c>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
-      <c r="Y25" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нахождение объёма вещества")</f>
-        <v>Нахождение объёма вещества</v>
-      </c>
-      <c r="Z25" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1224.0)</f>
-        <v>1224</v>
-      </c>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Объединенный газовый закон")</f>
-        <v>Объединенный газовый закон</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Возбужденное состояние атома")</f>
+        <v>Возбужденное состояние атома</v>
       </c>
       <c r="B26" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),25.0)</f>
-        <v>25</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),32.0)</f>
+        <v>32</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -2498,8 +2408,14 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
+      <c r="M26" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Взаимосвязь неорганических соединений (для неорганических цепочек)")</f>
+        <v>Взаимосвязь неорганических соединений (для неорганических цепочек)</v>
+      </c>
+      <c r="N26" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),625.0)</f>
+        <v>625</v>
+      </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1" t="str">
@@ -2518,27 +2434,27 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),925.0)</f>
         <v>925</v>
       </c>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
+      <c r="U26" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Изменение основных свойств в ряду аминов")</f>
+        <v>Изменение основных свойств в ряду аминов</v>
+      </c>
+      <c r="V26" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1026.0)</f>
+        <v>1026</v>
+      </c>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
-      <c r="Y26" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нахождение массы вещества")</f>
-        <v>Нахождение массы вещества</v>
-      </c>
-      <c r="Z26" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1225.0)</f>
-        <v>1225</v>
-      </c>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие химического равновесия. Принцип Ле Шателье")</f>
-        <v>Понятие химического равновесия. Принцип Ле Шателье</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Изменение радиуса атомов в зависимости от положения химического элемента в Периодической системе Д.И. Менделеева")</f>
+        <v>Изменение радиуса атомов в зависимости от положения химического элемента в Периодической системе Д.И. Менделеева</v>
       </c>
       <c r="B27" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),26.0)</f>
-        <v>26</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),33.0)</f>
+        <v>33</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -2556,8 +2472,14 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
+      <c r="M27" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химические свойства кислых солей")</f>
+        <v>Химические свойства кислых солей</v>
+      </c>
+      <c r="N27" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),626.0)</f>
+        <v>626</v>
+      </c>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1" t="str">
@@ -2580,23 +2502,17 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
-      <c r="Y27" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие относительной плотности вещества по некоторому другому веществу")</f>
-        <v>Понятие относительной плотности вещества по некоторому другому веществу</v>
-      </c>
-      <c r="Z27" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1226.0)</f>
-        <v>1226</v>
-      </c>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теория электролитической диссоциации и ее основные положения")</f>
-        <v>Теория электролитической диссоциации и ее основные положения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Изменение электроотрицательности атомов в зависимости от положения химического элемента в Периодической системе Д.И. Менделеева")</f>
+        <v>Изменение электроотрицательности атомов в зависимости от положения химического элемента в Периодической системе Д.И. Менделеева</v>
       </c>
       <c r="B28" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),27.0)</f>
-        <v>27</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
+        <v>34</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -2614,8 +2530,14 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
+      <c r="M28" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химические свойства основных солей")</f>
+        <v>Химические свойства основных солей</v>
+      </c>
+      <c r="N28" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),627.0)</f>
+        <v>627</v>
+      </c>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1" t="str">
@@ -2638,23 +2560,17 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
-      <c r="Y28" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нахождение молекулярной формулы вещества по соотношению количеств атомов, входящих в его состав")</f>
-        <v>Нахождение молекулярной формулы вещества по соотношению количеств атомов, входящих в его состав</v>
-      </c>
-      <c r="Z28" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1227.0)</f>
-        <v>1227</v>
-      </c>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Кислотность среды. Понятие рН")</f>
-        <v>Кислотность среды. Понятие рН</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Изменение окислительных и восстановительных свойств атомов в зависимости от положения химического элемента в Периодической системе Д.И. Менделеева")</f>
+        <v>Изменение окислительных и восстановительных свойств атомов в зависимости от положения химического элемента в Периодической системе Д.И. Менделеева</v>
       </c>
       <c r="B29" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),28.0)</f>
-        <v>28</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),35.0)</f>
+        <v>35</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -2672,8 +2588,14 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
+      <c r="M29" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химические свойства комплексных солей")</f>
+        <v>Химические свойства комплексных солей</v>
+      </c>
+      <c r="N29" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),628.0)</f>
+        <v>628</v>
+      </c>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1" t="str">
@@ -2696,23 +2618,17 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
-      <c r="Y29" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение выстраивать последовательность химических реакций на основе условия задачи")</f>
-        <v>Умение выстраивать последовательность химических реакций на основе условия задачи</v>
-      </c>
-      <c r="Z29" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1228.0)</f>
-        <v>1228</v>
-      </c>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятия электронной конфигурации, энергетических уровня и подуровня. Умение писать электронные конфигурации атомов ")</f>
-        <v>Понятия электронной конфигурации, энергетических уровня и подуровня. Умение писать электронные конфигурации атомов </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Случаи несовпадения валентности и степени окисления")</f>
+        <v>Случаи несовпадения валентности и степени окисления</v>
       </c>
       <c r="B30" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),29.0)</f>
-        <v>29</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),36.0)</f>
+        <v>36</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -2748,23 +2664,17 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
-      <c r="Y30" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение выстраивать алгоритм действий на основе условия задачи")</f>
-        <v>Умение выстраивать алгоритм действий на основе условия задачи</v>
-      </c>
-      <c r="Z30" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1229.0)</f>
-        <v>1229</v>
-      </c>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие проскока электрона")</f>
-        <v>Понятие проскока электрона</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятия полярности и кратности связи. Понятия длины связи и ее прочности (энергии)")</f>
+        <v>Понятия полярности и кратности связи. Понятия длины связи и ее прочности (энергии)</v>
       </c>
       <c r="B31" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30.0)</f>
-        <v>30</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),37.0)</f>
+        <v>37</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -2800,23 +2710,17 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
-      <c r="Y31" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение составлять и решать уравнения для определения искомых величин")</f>
-        <v>Умение составлять и решать уравнения для определения искомых величин</v>
-      </c>
-      <c r="Z31" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1230.0)</f>
-        <v>1230</v>
-      </c>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Основное состояние атома")</f>
-        <v>Основное состояние атома</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Факторы, влияющие на смещение химического равновесия")</f>
+        <v>Факторы, влияющие на смещение химического равновесия</v>
       </c>
       <c r="B32" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),31.0)</f>
-        <v>31</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
+        <v>38</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -2841,8 +2745,8 @@
         <v>831</v>
       </c>
       <c r="S32" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химические свойства альдегидов ")</f>
-        <v>Химические свойства альдегидов </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химические свойства альдегидов - реакции присоединения")</f>
+        <v>Химические свойства альдегидов - реакции присоединения</v>
       </c>
       <c r="T32" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),931.0)</f>
@@ -2852,23 +2756,17 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
-      <c r="Y32" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие объемной доли газа")</f>
-        <v>Понятие объемной доли газа</v>
-      </c>
-      <c r="Z32" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1231.0)</f>
-        <v>1231</v>
-      </c>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Возбужденное состояние атома")</f>
-        <v>Возбужденное состояние атома</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сигма- и пи-связи")</f>
+        <v>Сигма- и пи-связи</v>
       </c>
       <c r="B33" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),32.0)</f>
-        <v>32</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),39.0)</f>
+        <v>39</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -2904,23 +2802,17 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
-      <c r="Y33" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правила работы в лаборатории")</f>
-        <v>Правила работы в лаборатории</v>
-      </c>
-      <c r="Z33" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1232.0)</f>
-        <v>1232</v>
-      </c>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Изменение радиуса атомов в зависимости от положения химического элемента в Периодической системе Д.И. Менделеева")</f>
-        <v>Изменение радиуса атомов в зависимости от положения химического элемента в Периодической системе Д.И. Менделеева</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Реакции ионного обмена. Правило Бертолле")</f>
+        <v>Реакции ионного обмена. Правило Бертолле</v>
       </c>
       <c r="B34" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),33.0)</f>
-        <v>33</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
+        <v>40</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -2956,23 +2848,17 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
-      <c r="Y34" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Лабораторная посуда и оборудование")</f>
-        <v>Лабораторная посуда и оборудование</v>
-      </c>
-      <c r="Z34" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1233.0)</f>
-        <v>1233</v>
-      </c>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Изменение электроотрицательности атомов в зависимости от положения химического элемента в Периодической системе Д.И. Менделеева")</f>
-        <v>Изменение электроотрицательности атомов в зависимости от положения химического элемента в Периодической системе Д.И. Менделеева</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Окислительно-восстановительные реакции и принципы их протекания")</f>
+        <v>Окислительно-восстановительные реакции и принципы их протекания</v>
       </c>
       <c r="B35" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
-        <v>34</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),41.0)</f>
+        <v>41</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -3008,23 +2894,17 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
-      <c r="Y35" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правила безопасности при работе с веществами")</f>
-        <v>Правила безопасности при работе с веществами</v>
-      </c>
-      <c r="Z35" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1234.0)</f>
-        <v>1234</v>
-      </c>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Изменение окислительных и восстановительных свойств атомов в зависимости от положения химического элемента в Периодической системе Д.И. Менделеева")</f>
-        <v>Изменение окислительных и восстановительных свойств атомов в зависимости от положения химического элемента в Периодической системе Д.И. Менделеева</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Изменение металлических и неметаллических свойств атомов в зависимости от положения химического элемента в Периодической системе Д.И. Менделеева")</f>
+        <v>Изменение металлических и неметаллических свойств атомов в зависимости от положения химического элемента в Периодической системе Д.И. Менделеева</v>
       </c>
       <c r="B36" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),35.0)</f>
-        <v>35</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
+        <v>42</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -3060,23 +2940,17 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
-      <c r="Y36" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Методы разделения смесей ")</f>
-        <v>Методы разделения смесей </v>
-      </c>
-      <c r="Z36" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1235.0)</f>
-        <v>1235</v>
-      </c>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Случаи несовпадения валентности и степени окисления")</f>
-        <v>Случаи несовпадения валентности и степени окисления</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Водородные соединения неметаллов и металлов и закономерности изменения их свойств исходя из их положения в Периодической системе Д.И. Менделеева")</f>
+        <v>Водородные соединения неметаллов и металлов и закономерности изменения их свойств исходя из их положения в Периодической системе Д.И. Менделеева</v>
       </c>
       <c r="B37" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),36.0)</f>
-        <v>36</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43.0)</f>
+        <v>43</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -3112,23 +2986,17 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
-      <c r="Y37" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Методы очистки веществ")</f>
-        <v>Методы очистки веществ</v>
-      </c>
-      <c r="Z37" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1236.0)</f>
-        <v>1236</v>
-      </c>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятия полярности и кратности связи. Понятия длины связи и ее прочности (энергии)")</f>
-        <v>Понятия полярности и кратности связи. Понятия длины связи и ее прочности (энергии)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Закономерности изменения свойств высших оксидов и гидроксидов в зависимости от положения элемента в Периодической системе Д.И. Менделеева")</f>
+        <v>Закономерности изменения свойств высших оксидов и гидроксидов в зависимости от положения элемента в Периодической системе Д.И. Менделеева</v>
       </c>
       <c r="B38" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),37.0)</f>
-        <v>37</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44.0)</f>
+        <v>44</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -3164,23 +3032,17 @@
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
-      <c r="Y38" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Коллоидные и дисперсные системы")</f>
-        <v>Коллоидные и дисперсные системы</v>
-      </c>
-      <c r="Z38" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1237.0)</f>
-        <v>1237</v>
-      </c>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Факторы, влияющие на смещение химического равновесия")</f>
-        <v>Факторы, влияющие на смещение химического равновесия</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Степень окисления элементов. Окислитель и восстановитель. Окисление и восстановление")</f>
+        <v>Степень окисления элементов. Окислитель и восстановитель. Окисление и восстановление</v>
       </c>
       <c r="B39" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
-        <v>38</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45.0)</f>
+        <v>45</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -3216,23 +3078,17 @@
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
-      <c r="Y39" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Распознавание катионов металлов по цвету пламени")</f>
-        <v>Распознавание катионов металлов по цвету пламени</v>
-      </c>
-      <c r="Z39" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1238.0)</f>
-        <v>1238</v>
-      </c>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сигма- и пи-связи")</f>
-        <v>Сигма- и пи-связи</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение определять местоположение химического элемента в Периодической системе Д.И. Менделеева по его свойствам")</f>
+        <v>Умение определять местоположение химического элемента в Периодической системе Д.И. Менделеева по его свойствам</v>
       </c>
       <c r="B40" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),39.0)</f>
-        <v>39</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),46.0)</f>
+        <v>46</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -3268,23 +3124,17 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
-      <c r="Y40" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Идентификация неорганических веществ и ионов")</f>
-        <v>Идентификация неорганических веществ и ионов</v>
-      </c>
-      <c r="Z40" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1239.0)</f>
-        <v>1239</v>
-      </c>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Реакции ионного обмена. Правило Бертолле")</f>
-        <v>Реакции ионного обмена. Правило Бертолле</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение определять степень окисления элемента в сложном веществе")</f>
+        <v>Умение определять степень окисления элемента в сложном веществе</v>
       </c>
       <c r="B41" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
-        <v>40</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),47.0)</f>
+        <v>47</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -3320,23 +3170,17 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
-      <c r="Y41" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Идентификация органических веществ")</f>
-        <v>Идентификация органических веществ</v>
-      </c>
-      <c r="Z41" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1240.0)</f>
-        <v>1240</v>
-      </c>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Окислительно-восстановительные реакции и принципы их протекания")</f>
-        <v>Окислительно-восстановительные реакции и принципы их протекания</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие химического элемента. Свойства химического элемента")</f>
+        <v>Понятие химического элемента. Свойства химического элемента</v>
       </c>
       <c r="B42" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),41.0)</f>
-        <v>41</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
+        <v>48</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -3372,23 +3216,17 @@
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
-      <c r="Y42" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Основные способы получения в лаборатории конкретных неорганических соединений")</f>
-        <v>Основные способы получения в лаборатории конкретных неорганических соединений</v>
-      </c>
-      <c r="Z42" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1241.0)</f>
-        <v>1241</v>
-      </c>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Изменение металлических и неметаллических свойств атомов в зависимости от положения химического элемента в Периодической системе Д.И. Менделеева")</f>
-        <v>Изменение металлических и неметаллических свойств атомов в зависимости от положения химического элемента в Периодической системе Д.И. Менделеева</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие простого вещества. Свойства простого вещества")</f>
+        <v>Понятие простого вещества. Свойства простого вещества</v>
       </c>
       <c r="B43" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
-        <v>42</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),49.0)</f>
+        <v>49</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -3424,23 +3262,17 @@
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
-      <c r="Y43" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химическое загрязнение окружающей среды и его последствия")</f>
-        <v>Химическое загрязнение окружающей среды и его последствия</v>
-      </c>
-      <c r="Z43" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1242.0)</f>
-        <v>1242</v>
-      </c>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Водородные соединения неметаллов и металлов и закономерности изменения их свойств исходя из их положения в Периодической системе Д.И. Менделеева")</f>
-        <v>Водородные соединения неметаллов и металлов и закономерности изменения их свойств исходя из их положения в Периодической системе Д.И. Менделеева</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение определять период и группу, в которых находится химический элемент в Периодической системе Д.И. Менделеева")</f>
+        <v>Умение определять период и группу, в которых находится химический элемент в Периодической системе Д.И. Менделеева</v>
       </c>
       <c r="B44" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43.0)</f>
-        <v>43</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),50.0)</f>
+        <v>50</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -3465,8 +3297,8 @@
         <v>843</v>
       </c>
       <c r="S44" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химические свойства карбоновых кислот")</f>
-        <v>Химические свойства карбоновых кислот</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Общие с неорганическими кислотами химические свойства карбоновых кислот")</f>
+        <v>Общие с неорганическими кислотами химические свойства карбоновых кислот</v>
       </c>
       <c r="T44" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),943.0)</f>
@@ -3476,23 +3308,17 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
-      <c r="Y44" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение определять признак(-и) реакции")</f>
-        <v>Умение определять признак(-и) реакции</v>
-      </c>
-      <c r="Z44" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1243.0)</f>
-        <v>1243</v>
-      </c>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Закономерности изменения свойств высших оксидов и гидроксидов в зависимости от положения элемента в Периодической системе Д.И. Менделеева")</f>
-        <v>Закономерности изменения свойств высших оксидов и гидроксидов в зависимости от положения элемента в Периодической системе Д.И. Менделеева</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение определять тип связи между атомами химических элементов")</f>
+        <v>Умение определять тип связи между атомами химических элементов</v>
       </c>
       <c r="B45" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44.0)</f>
-        <v>44</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),52.0)</f>
+        <v>52</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -3528,23 +3354,17 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
-      <c r="Y45" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение восстанавливать возможное уравнение реакции по ее сокращенному ионному уравнению")</f>
-        <v>Умение восстанавливать возможное уравнение реакции по ее сокращенному ионному уравнению</v>
-      </c>
-      <c r="Z45" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1244.0)</f>
-        <v>1244</v>
-      </c>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Степень окисления элементов. Окислитель и восстановитель. Окисление и восстановление")</f>
-        <v>Степень окисления элементов. Окислитель и восстановитель. Окисление и восстановление</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Изменение сродства к электрону атомов в зависимости от положения химического элемента в Периодической системе Д.И. Менделеева")</f>
+        <v>Изменение сродства к электрону атомов в зависимости от положения химического элемента в Периодической системе Д.И. Менделеева</v>
       </c>
       <c r="B46" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45.0)</f>
-        <v>45</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),53.0)</f>
+        <v>53</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -3580,23 +3400,17 @@
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
-      <c r="Y46" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Составление химических формул на основе названий веществ")</f>
-        <v>Составление химических формул на основе названий веществ</v>
-      </c>
-      <c r="Z46" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1245.0)</f>
-        <v>1245</v>
-      </c>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение определять местоположение химического элемента в Периодической системе Д.И. Менделеева по его свойствам")</f>
-        <v>Умение определять местоположение химического элемента в Периодической системе Д.И. Менделеева по его свойствам</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Валентные электроны")</f>
+        <v>Валентные электроны</v>
       </c>
       <c r="B47" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),46.0)</f>
-        <v>46</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),54.0)</f>
+        <v>54</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -3632,23 +3446,17 @@
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
-      <c r="Y47" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение различать химические и физические явления")</f>
-        <v>Умение различать химические и физические явления</v>
-      </c>
-      <c r="Z47" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1246.0)</f>
-        <v>1246</v>
-      </c>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение определять степень окисления элемента в сложном веществе")</f>
-        <v>Умение определять степень окисления элемента в сложном веществе</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Неспаренные электроны")</f>
+        <v>Неспаренные электроны</v>
       </c>
       <c r="B48" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),47.0)</f>
-        <v>47</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),55.0)</f>
+        <v>55</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -3665,8 +3473,8 @@
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химические свойства алкадиенов (реакции замещения, присоединения, полимеризации и др.)")</f>
-        <v>Химические свойства алкадиенов (реакции замещения, присоединения, полимеризации и др.)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химические свойства алкадиенов - реакции присоединения")</f>
+        <v>Химические свойства алкадиенов - реакции присоединения</v>
       </c>
       <c r="R48" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),847.0)</f>
@@ -3684,23 +3492,17 @@
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
-      <c r="Y48" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Межмолекулярные и внутримолекулярные ОВР. Реакции диспропорционирования и конпропорционирования")</f>
-        <v>Межмолекулярные и внутримолекулярные ОВР. Реакции диспропорционирования и конпропорционирования</v>
-      </c>
-      <c r="Z48" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1247.0)</f>
-        <v>1247</v>
-      </c>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие химического элемента. Свойства химического элемента")</f>
-        <v>Понятие химического элемента. Свойства химического элемента</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Электронная конфигурация ионов")</f>
+        <v>Электронная конфигурация ионов</v>
       </c>
       <c r="B49" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
-        <v>48</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),56.0)</f>
+        <v>56</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -3736,23 +3538,17 @@
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
-      <c r="Y49" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Составление электронного баланса реакции")</f>
-        <v>Составление электронного баланса реакции</v>
-      </c>
-      <c r="Z49" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1248.0)</f>
-        <v>1248</v>
-      </c>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие простого вещества. Свойства простого вещества")</f>
-        <v>Понятие простого вещества. Свойства простого вещества</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение определять возможные степени окисления и валентности элемента по положению химического элемента в Периодической системе Д.И. Менделеева")</f>
+        <v>Умение определять возможные степени окисления и валентности элемента по положению химического элемента в Периодической системе Д.И. Менделеева</v>
       </c>
       <c r="B50" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),49.0)</f>
-        <v>49</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),57.0)</f>
+        <v>57</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -3788,23 +3584,17 @@
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
-      <c r="Y50" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Полное и сокращенное ионные уравнения")</f>
-        <v>Полное и сокращенное ионные уравнения</v>
-      </c>
-      <c r="Z50" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1249.0)</f>
-        <v>1249</v>
-      </c>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение определять период и группу, в которых находится химический элемент в Периодической системе Д.И. Менделеева")</f>
-        <v>Умение определять период и группу, в которых находится химический элемент в Периодической системе Д.И. Менделеева</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение определять тип кристаллической решетки соединения")</f>
+        <v>Умение определять тип кристаллической решетки соединения</v>
       </c>
       <c r="B51" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),50.0)</f>
-        <v>50</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),58.0)</f>
+        <v>58</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -3840,23 +3630,17 @@
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
       <c r="X51" s="1"/>
-      <c r="Y51" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие молярной массы")</f>
-        <v>Понятие молярной массы</v>
-      </c>
-      <c r="Z51" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1250.0)</f>
-        <v>1250</v>
-      </c>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение различать металлы и неметаллы в Периодической системе Д.И. Менделеева")</f>
-        <v>Умение различать металлы и неметаллы в Периодической системе Д.И. Менделеева</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Связь между строением вещества и его физическими свойствами")</f>
+        <v>Связь между строением вещества и его физическими свойствами</v>
       </c>
       <c r="B52" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),51.0)</f>
-        <v>51</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),59.0)</f>
+        <v>59</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -3892,23 +3676,17 @@
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
       <c r="X52" s="1"/>
-      <c r="Y52" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Влияние катализаторов и ингибиторов на скорость реакции")</f>
-        <v>Влияние катализаторов и ингибиторов на скорость реакции</v>
-      </c>
-      <c r="Z52" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1251.0)</f>
-        <v>1251</v>
-      </c>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение определять тип связи между атомами химических элементов")</f>
-        <v>Умение определять тип связи между атомами химических элементов</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Изменение энергии ионизации атомов в зависимости от положения химического элемента в Периодической системе Д.И. Менделеева")</f>
+        <v>Изменение энергии ионизации атомов в зависимости от положения химического элемента в Периодической системе Д.И. Менделеева</v>
       </c>
       <c r="B53" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),52.0)</f>
-        <v>52</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),60.0)</f>
+        <v>60</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -3944,23 +3722,17 @@
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
       <c r="X53" s="1"/>
-      <c r="Y53" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие растворимости. Растворенное вещество и растворитель")</f>
-        <v>Понятие растворимости. Растворенное вещество и растворитель</v>
-      </c>
-      <c r="Z53" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1252.0)</f>
-        <v>1252</v>
-      </c>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Изменение сродства к электрону атомов в зависимости от положения химического элемента в Периодической системе Д.И. Менделеева")</f>
-        <v>Изменение сродства к электрону атомов в зависимости от положения химического элемента в Периодической системе Д.И. Менделеева</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Высшая и низшая степени окисления. Случаи несовпадения валентности со степенью окисления")</f>
+        <v>Высшая и низшая степени окисления. Случаи несовпадения валентности со степенью окисления</v>
       </c>
       <c r="B54" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),53.0)</f>
-        <v>53</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),61.0)</f>
+        <v>61</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -3996,23 +3768,17 @@
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
       <c r="X54" s="1"/>
-      <c r="Y54" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Классификация электролитов")</f>
-        <v>Классификация электролитов</v>
-      </c>
-      <c r="Z54" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1253.0)</f>
-        <v>1253</v>
-      </c>
+      <c r="Y54" s="1"/>
+      <c r="Z54" s="1"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Валентные электроны")</f>
-        <v>Валентные электроны</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение составлять реакции ионного обмена на основе заданных условий")</f>
+        <v>Умение составлять реакции ионного обмена на основе заданных условий</v>
       </c>
       <c r="B55" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),54.0)</f>
-        <v>54</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),62.0)</f>
+        <v>62</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -4048,23 +3814,17 @@
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
       <c r="X55" s="1"/>
-      <c r="Y55" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Классы неорганических соединений")</f>
-        <v>Классы неорганических соединений</v>
-      </c>
-      <c r="Z55" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1254.0)</f>
-        <v>1254</v>
-      </c>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="1"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Неспаренные электроны")</f>
-        <v>Неспаренные электроны</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Классификация химических реакций. Реакции соединения, обмена, замещения, разложения")</f>
+        <v>Классификация химических реакций. Реакции соединения, обмена, замещения, разложения</v>
       </c>
       <c r="B56" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),55.0)</f>
-        <v>55</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),63.0)</f>
+        <v>63</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -4100,23 +3860,17 @@
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
       <c r="X56" s="1"/>
-      <c r="Y56" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гидролиз веществ и определение среды раствора. Индикаторы")</f>
-        <v>Гидролиз веществ и определение среды раствора. Индикаторы</v>
-      </c>
-      <c r="Z56" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1255.0)</f>
-        <v>1255</v>
-      </c>
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="1"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Электронная конфигурация ионов")</f>
-        <v>Электронная конфигурация ионов</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Обратимые и необратимые химические реакции")</f>
+        <v>Обратимые и необратимые химические реакции</v>
       </c>
       <c r="B57" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),56.0)</f>
-        <v>56</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),64.0)</f>
+        <v>64</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -4152,23 +3906,17 @@
       <c r="V57" s="1"/>
       <c r="W57" s="1"/>
       <c r="X57" s="1"/>
-      <c r="Y57" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Электролиз расплавов и растворов веществ")</f>
-        <v>Электролиз расплавов и растворов веществ</v>
-      </c>
-      <c r="Z57" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1256.0)</f>
-        <v>1256</v>
-      </c>
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="1"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение определять возможные степени окисления и валентности элемента по положению химического элемента в Периодической системе Д.И. Менделеева")</f>
-        <v>Умение определять возможные степени окисления и валентности элемента по положению химического элемента в Периодической системе Д.И. Менделеева</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие теплового эффекта реакции. Экзотермические и эндотермические реакции")</f>
+        <v>Понятие теплового эффекта реакции. Экзотермические и эндотермические реакции</v>
       </c>
       <c r="B58" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),57.0)</f>
-        <v>57</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),65.0)</f>
+        <v>65</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -4204,23 +3952,17 @@
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
       <c r="X58" s="1"/>
-      <c r="Y58" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Основно-кислотные взаимодействия и их принципы")</f>
-        <v>Основно-кислотные взаимодействия и их принципы</v>
-      </c>
-      <c r="Z58" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1257.0)</f>
-        <v>1257</v>
-      </c>
+      <c r="Y58" s="1"/>
+      <c r="Z58" s="1"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение определять тип кристаллической решетки соединения")</f>
-        <v>Умение определять тип кристаллической решетки соединения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гомогенные и гетерогенные химические реакции")</f>
+        <v>Гомогенные и гетерогенные химические реакции</v>
       </c>
       <c r="B59" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),58.0)</f>
-        <v>58</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),66.0)</f>
+        <v>66</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -4237,8 +3979,8 @@
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химические свойства ароматических углеводородов (реакции замещения, присоединения, полимеризации и др.)")</f>
-        <v>Химические свойства ароматических углеводородов (реакции замещения, присоединения, полимеризации и др.)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химические свойства аренов - реакции присоединения")</f>
+        <v>Химические свойства аренов - реакции присоединения</v>
       </c>
       <c r="R59" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),858.0)</f>
@@ -4256,23 +3998,17 @@
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
-      <c r="Y59" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Катализаторы и условия протекания химических реакций")</f>
-        <v>Катализаторы и условия протекания химических реакций</v>
-      </c>
-      <c r="Z59" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1258.0)</f>
-        <v>1258</v>
-      </c>
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="1"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Связь между строением вещества и его физическими свойствами")</f>
-        <v>Связь между строением вещества и его физическими свойствами</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение восстанавливать возможное уравнение реакции по ее сокращенному ионному уравнению")</f>
+        <v>Умение восстанавливать возможное уравнение реакции по ее сокращенному ионному уравнению</v>
       </c>
       <c r="B60" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),59.0)</f>
-        <v>59</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),67.0)</f>
+        <v>67</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -4308,23 +4044,17 @@
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
       <c r="X60" s="1"/>
-      <c r="Y60" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение использовать заданное соотношение атомов химических элементов в веществе или смеси веществ для нахождения искомых величин")</f>
-        <v>Умение использовать заданное соотношение атомов химических элементов в веществе или смеси веществ для нахождения искомых величин</v>
-      </c>
-      <c r="Z60" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1259.0)</f>
-        <v>1259</v>
-      </c>
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="1"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Изменение энергии ионизации атомов в зависимости от положения химического элемента в Периодической системе Д.И. Менделеева")</f>
-        <v>Изменение энергии ионизации атомов в зависимости от положения химического элемента в Периодической системе Д.И. Менделеева</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Межмолекулярные и внутримолекулярные ОВР. Реакции диспропорционирования и конпропорционирования")</f>
+        <v>Межмолекулярные и внутримолекулярные ОВР. Реакции диспропорционирования и конпропорционирования</v>
       </c>
       <c r="B61" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),60.0)</f>
-        <v>60</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),68.0)</f>
+        <v>68</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -4364,8 +4094,14 @@
       <c r="Z61" s="1"/>
     </row>
     <row r="62">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
+      <c r="A62" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Составление электронного баланса реакции")</f>
+        <v>Составление электронного баланса реакции</v>
+      </c>
+      <c r="B62" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),69.0)</f>
+        <v>69</v>
+      </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -4404,8 +4140,14 @@
       <c r="Z62" s="1"/>
     </row>
     <row r="63">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
+      <c r="A63" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Полное и сокращенное ионные уравнения")</f>
+        <v>Полное и сокращенное ионные уравнения</v>
+      </c>
+      <c r="B63" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),70.0)</f>
+        <v>70</v>
+      </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -4444,8 +4186,14 @@
       <c r="Z63" s="1"/>
     </row>
     <row r="64">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
+      <c r="A64" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Влияние катализаторов и ингибиторов на скорость реакции")</f>
+        <v>Влияние катализаторов и ингибиторов на скорость реакции</v>
+      </c>
+      <c r="B64" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),71.0)</f>
+        <v>71</v>
+      </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -4484,8 +4232,14 @@
       <c r="Z64" s="1"/>
     </row>
     <row r="65">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
+      <c r="A65" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Классификация электролитов")</f>
+        <v>Классификация электролитов</v>
+      </c>
+      <c r="B65" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),72.0)</f>
+        <v>72</v>
+      </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -4524,8 +4278,14 @@
       <c r="Z65" s="1"/>
     </row>
     <row r="66">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
+      <c r="A66" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гидролиз веществ и определение среды раствора. Индикаторы")</f>
+        <v>Гидролиз веществ и определение среды раствора. Индикаторы</v>
+      </c>
+      <c r="B66" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),73.0)</f>
+        <v>73</v>
+      </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -4564,8 +4324,14 @@
       <c r="Z66" s="1"/>
     </row>
     <row r="67">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
+      <c r="A67" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Электролиз расплавов и растворов веществ")</f>
+        <v>Электролиз расплавов и растворов веществ</v>
+      </c>
+      <c r="B67" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),74.0)</f>
+        <v>74</v>
+      </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -4604,8 +4370,14 @@
       <c r="Z67" s="1"/>
     </row>
     <row r="68">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
+      <c r="A68" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Основно-кислотные взаимодействия и их принципы")</f>
+        <v>Основно-кислотные взаимодействия и их принципы</v>
+      </c>
+      <c r="B68" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),75.0)</f>
+        <v>75</v>
+      </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -4660,8 +4432,14 @@
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
-      <c r="Q69" s="1"/>
-      <c r="R69" s="1"/>
+      <c r="Q69" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химические свойства аренов - реакции замещения")</f>
+        <v>Химические свойства аренов - реакции замещения</v>
+      </c>
+      <c r="R69" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),868.0)</f>
+        <v>868</v>
+      </c>
       <c r="S69" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Применение сложных эфиров")</f>
         <v>Применение сложных эфиров</v>
@@ -4694,8 +4472,14 @@
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
-      <c r="Q70" s="1"/>
-      <c r="R70" s="1"/>
+      <c r="Q70" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Окисление аренов")</f>
+        <v>Окисление аренов</v>
+      </c>
+      <c r="R70" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),869.0)</f>
+        <v>869</v>
+      </c>
       <c r="S70" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Физические свойства жиров")</f>
         <v>Физические свойства жиров</v>
@@ -4728,8 +4512,14 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
-      <c r="Q71" s="1"/>
-      <c r="R71" s="1"/>
+      <c r="Q71" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Полимеризация алкадиенов")</f>
+        <v>Полимеризация алкадиенов</v>
+      </c>
+      <c r="R71" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),870.0)</f>
+        <v>870</v>
+      </c>
       <c r="S71" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химические свойства жиров")</f>
         <v>Химические свойства жиров</v>
@@ -4762,8 +4552,14 @@
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
-      <c r="Q72" s="1"/>
-      <c r="R72" s="1"/>
+      <c r="Q72" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Окисление алкадиенов")</f>
+        <v>Окисление алкадиенов</v>
+      </c>
+      <c r="R72" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),871.0)</f>
+        <v>871</v>
+      </c>
       <c r="S72" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Применение жиров")</f>
         <v>Применение жиров</v>
@@ -4796,8 +4592,14 @@
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
-      <c r="Q73" s="1"/>
-      <c r="R73" s="1"/>
+      <c r="Q73" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Полимеризация алкинов")</f>
+        <v>Полимеризация алкинов</v>
+      </c>
+      <c r="R73" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),872.0)</f>
+        <v>872</v>
+      </c>
       <c r="S73" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение различать моносахариды, дисахариды, олиго- и полисахариды")</f>
         <v>Умение различать моносахариды, дисахариды, олиго- и полисахариды</v>
@@ -4830,8 +4632,14 @@
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
-      <c r="Q74" s="1"/>
-      <c r="R74" s="1"/>
+      <c r="Q74" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химические свойства алкинов - реакции замещения")</f>
+        <v>Химические свойства алкинов - реакции замещения</v>
+      </c>
+      <c r="R74" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),873.0)</f>
+        <v>873</v>
+      </c>
       <c r="S74" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Глюкоза, ее строение и свойства")</f>
         <v>Глюкоза, ее строение и свойства</v>
@@ -4864,8 +4672,14 @@
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
-      <c r="Q75" s="1"/>
-      <c r="R75" s="1"/>
+      <c r="Q75" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Окисление алкенов")</f>
+        <v>Окисление алкенов</v>
+      </c>
+      <c r="R75" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),874.0)</f>
+        <v>874</v>
+      </c>
       <c r="S75" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Фруктоза, её строение и свойства")</f>
         <v>Фруктоза, её строение и свойства</v>
@@ -4898,8 +4712,14 @@
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
-      <c r="Q76" s="1"/>
-      <c r="R76" s="1"/>
+      <c r="Q76" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Полимеризация алкенов")</f>
+        <v>Полимеризация алкенов</v>
+      </c>
+      <c r="R76" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),875.0)</f>
+        <v>875</v>
+      </c>
       <c r="S76" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сахароза, мальтоза и лактоза")</f>
         <v>Сахароза, мальтоза и лактоза</v>
@@ -4932,8 +4752,14 @@
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
-      <c r="Q77" s="1"/>
-      <c r="R77" s="1"/>
+      <c r="Q77" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химические свойства алкенов - реакции замещения")</f>
+        <v>Химические свойства алкенов - реакции замещения</v>
+      </c>
+      <c r="R77" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),876.0)</f>
+        <v>876</v>
+      </c>
       <c r="S77" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химические свойства дисахаридов")</f>
         <v>Химические свойства дисахаридов</v>
@@ -4966,8 +4792,14 @@
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
-      <c r="Q78" s="1"/>
-      <c r="R78" s="1"/>
+      <c r="Q78" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Окисление алкенов")</f>
+        <v>Окисление алкенов</v>
+      </c>
+      <c r="R78" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),877.0)</f>
+        <v>877</v>
+      </c>
       <c r="S78" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Целлюлоза, ее строение и свойства")</f>
         <v>Целлюлоза, ее строение и свойства</v>
@@ -5000,8 +4832,14 @@
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
-      <c r="Q79" s="1"/>
-      <c r="R79" s="1"/>
+      <c r="Q79" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Реакции окисления алканов")</f>
+        <v>Реакции окисления алканов</v>
+      </c>
+      <c r="R79" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),878.0)</f>
+        <v>878</v>
+      </c>
       <c r="S79" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Крахмал, его строение и свойства")</f>
         <v>Крахмал, его строение и свойства</v>
@@ -5034,8 +4872,14 @@
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
-      <c r="Q80" s="1"/>
-      <c r="R80" s="1"/>
+      <c r="Q80" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Термические превращения алканов")</f>
+        <v>Термические превращения алканов</v>
+      </c>
+      <c r="R80" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),879.0)</f>
+        <v>879</v>
+      </c>
       <c r="S80" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Применение этиленгликоля и глицерина")</f>
         <v>Применение этиленгликоля и глицерина</v>
@@ -5410,8 +5254,14 @@
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
       <c r="R91" s="1"/>
-      <c r="S91" s="1"/>
-      <c r="T91" s="1"/>
+      <c r="S91" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Получение ангидридов карбоновых кислот.")</f>
+        <v>Получение ангидридов карбоновых кислот.</v>
+      </c>
+      <c r="T91" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),990.0)</f>
+        <v>990</v>
+      </c>
       <c r="U91" s="1"/>
       <c r="V91" s="1"/>
       <c r="W91" s="1"/>
@@ -5438,8 +5288,14 @@
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
       <c r="R92" s="1"/>
-      <c r="S92" s="1"/>
-      <c r="T92" s="1"/>
+      <c r="S92" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Получение галогенангидридов карбоновых кислот.")</f>
+        <v>Получение галогенангидридов карбоновых кислот.</v>
+      </c>
+      <c r="T92" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),991.0)</f>
+        <v>991</v>
+      </c>
       <c r="U92" s="1"/>
       <c r="V92" s="1"/>
       <c r="W92" s="1"/>
@@ -5466,8 +5322,14 @@
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
       <c r="R93" s="1"/>
-      <c r="S93" s="1"/>
-      <c r="T93" s="1"/>
+      <c r="S93" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химические свойства галогенангидридов карбоновых кислот")</f>
+        <v>Химические свойства галогенангидридов карбоновых кислот</v>
+      </c>
+      <c r="T93" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),992.0)</f>
+        <v>992</v>
+      </c>
       <c r="U93" s="1"/>
       <c r="V93" s="1"/>
       <c r="W93" s="1"/>
@@ -5494,8 +5356,14 @@
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
       <c r="R94" s="1"/>
-      <c r="S94" s="1"/>
-      <c r="T94" s="1"/>
+      <c r="S94" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение определять галогенангидриды карбоновых кислот")</f>
+        <v>Умение определять галогенангидриды карбоновых кислот</v>
+      </c>
+      <c r="T94" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),993.0)</f>
+        <v>993</v>
+      </c>
       <c r="U94" s="1"/>
       <c r="V94" s="1"/>
       <c r="W94" s="1"/>
@@ -5522,8 +5390,14 @@
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
       <c r="R95" s="1"/>
-      <c r="S95" s="1"/>
-      <c r="T95" s="1"/>
+      <c r="S95" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Специфические химические свойства карбоновых кислот")</f>
+        <v>Специфические химические свойства карбоновых кислот</v>
+      </c>
+      <c r="T95" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),994.0)</f>
+        <v>994</v>
+      </c>
       <c r="U95" s="1"/>
       <c r="V95" s="1"/>
       <c r="W95" s="1"/>
@@ -5550,8 +5424,14 @@
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
       <c r="R96" s="1"/>
-      <c r="S96" s="1"/>
-      <c r="T96" s="1"/>
+      <c r="S96" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химические свойства солей карбоновых кислот")</f>
+        <v>Химические свойства солей карбоновых кислот</v>
+      </c>
+      <c r="T96" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),995.0)</f>
+        <v>995</v>
+      </c>
       <c r="U96" s="1"/>
       <c r="V96" s="1"/>
       <c r="W96" s="1"/>
@@ -5578,8 +5458,14 @@
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
-      <c r="S97" s="1"/>
-      <c r="T97" s="1"/>
+      <c r="S97" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химические свойства альдегидов - реакции полимеризации и поликонденсации")</f>
+        <v>Химические свойства альдегидов - реакции полимеризации и поликонденсации</v>
+      </c>
+      <c r="T97" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),996.0)</f>
+        <v>996</v>
+      </c>
       <c r="U97" s="1"/>
       <c r="V97" s="1"/>
       <c r="W97" s="1"/>
@@ -5606,8 +5492,14 @@
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
       <c r="R98" s="1"/>
-      <c r="S98" s="1"/>
-      <c r="T98" s="1"/>
+      <c r="S98" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Окисление альдегидов")</f>
+        <v>Окисление альдегидов</v>
+      </c>
+      <c r="T98" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),997.0)</f>
+        <v>997</v>
+      </c>
       <c r="U98" s="1"/>
       <c r="V98" s="1"/>
       <c r="W98" s="1"/>
@@ -5634,8 +5526,14 @@
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
       <c r="R99" s="1"/>
-      <c r="S99" s="1"/>
-      <c r="T99" s="1"/>
+      <c r="S99" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Качественные реакции на альдегиды")</f>
+        <v>Качественные реакции на альдегиды</v>
+      </c>
+      <c r="T99" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),998.0)</f>
+        <v>998</v>
+      </c>
       <c r="U99" s="1"/>
       <c r="V99" s="1"/>
       <c r="W99" s="1"/>
@@ -5662,8 +5560,14 @@
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
       <c r="R100" s="1"/>
-      <c r="S100" s="1"/>
-      <c r="T100" s="1"/>
+      <c r="S100" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Качественные реакции на фенол")</f>
+        <v>Качественные реакции на фенол</v>
+      </c>
+      <c r="T100" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),999.0)</f>
+        <v>999</v>
+      </c>
       <c r="U100" s="1"/>
       <c r="V100" s="1"/>
       <c r="W100" s="1"/>
@@ -5690,8 +5594,14 @@
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
       <c r="R101" s="1"/>
-      <c r="S101" s="1"/>
-      <c r="T101" s="1"/>
+      <c r="S101" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Качественные реакции на многоатомные спирты")</f>
+        <v>Качественные реакции на многоатомные спирты</v>
+      </c>
+      <c r="T101" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1301.0)</f>
+        <v>1301</v>
+      </c>
       <c r="U101" s="1"/>
       <c r="V101" s="1"/>
       <c r="W101" s="1"/>
@@ -5718,8 +5628,14 @@
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
-      <c r="S102" s="1"/>
-      <c r="T102" s="1"/>
+      <c r="S102" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химические свойства одноатомных спиртов - реакции с разрывом связи С-О")</f>
+        <v>Химические свойства одноатомных спиртов - реакции с разрывом связи С-О</v>
+      </c>
+      <c r="T102" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1302.0)</f>
+        <v>1302</v>
+      </c>
       <c r="U102" s="1"/>
       <c r="V102" s="1"/>
       <c r="W102" s="1"/>
@@ -5746,8 +5662,14 @@
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
       <c r="R103" s="1"/>
-      <c r="S103" s="1"/>
-      <c r="T103" s="1"/>
+      <c r="S103" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Окисление одноатомных спиртов")</f>
+        <v>Окисление одноатомных спиртов</v>
+      </c>
+      <c r="T103" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1303.0)</f>
+        <v>1303</v>
+      </c>
       <c r="U103" s="1"/>
       <c r="V103" s="1"/>
       <c r="W103" s="1"/>
@@ -5774,8 +5696,14 @@
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
       <c r="R104" s="1"/>
-      <c r="S104" s="1"/>
-      <c r="T104" s="1"/>
+      <c r="S104" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Качественные реакции на одноатомные спирты")</f>
+        <v>Качественные реакции на одноатомные спирты</v>
+      </c>
+      <c r="T104" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1304.0)</f>
+        <v>1304</v>
+      </c>
       <c r="U104" s="1"/>
       <c r="V104" s="1"/>
       <c r="W104" s="1"/>

--- a/umit_files/umit_him.xlsx
+++ b/umit_files/umit_him.xlsx
@@ -266,7 +266,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/1UPx6B44t1Te-3g2YDT3uRFD6HuoA0lXICoT63V7huQQ/edit"",""УМИТЫ!A:Z"")"),"Общая химия")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/1UPx6B44t1Te-3g2YDT3uRFD6HuoA0lXICoT63V7huQQ/edit"",""УМИТЫ!A:AB"")"),"Общая химия")</f>
         <v>Общая химия</v>
       </c>
       <c r="B1" s="1"/>
@@ -330,6 +330,11 @@
         <v>Химия и жизнь</v>
       </c>
       <c r="Z1" s="1"/>
+      <c r="AA1" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Расчетные задачи")</f>
+        <v>Расчетные задачи</v>
+      </c>
+      <c r="AB1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="str">
@@ -436,6 +441,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1208.0)</f>
         <v>1208</v>
       </c>
+      <c r="AA2" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Закон сохранения массы")</f>
+        <v>Закон сохранения массы</v>
+      </c>
+      <c r="AB2" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1401.0)</f>
+        <v>1401</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="str">
@@ -542,6 +555,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1232.0)</f>
         <v>1232</v>
       </c>
+      <c r="AA3" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие атомной массы")</f>
+        <v>Понятие атомной массы</v>
+      </c>
+      <c r="AB3" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1402.0)</f>
+        <v>1402</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
@@ -648,6 +669,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1233.0)</f>
         <v>1233</v>
       </c>
+      <c r="AA4" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Закон объёмных отношений")</f>
+        <v>Закон объёмных отношений</v>
+      </c>
+      <c r="AB4" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1403.0)</f>
+        <v>1403</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
@@ -754,6 +783,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1234.0)</f>
         <v>1234</v>
       </c>
+      <c r="AA5" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Постоянная Авогадро")</f>
+        <v>Постоянная Авогадро</v>
+      </c>
+      <c r="AB5" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1404.0)</f>
+        <v>1404</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="str">
@@ -860,6 +897,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1235.0)</f>
         <v>1235</v>
       </c>
+      <c r="AA6" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Закон Авогадро")</f>
+        <v> Закон Авогадро</v>
+      </c>
+      <c r="AB6" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1405.0)</f>
+        <v>1405</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="str">
@@ -966,6 +1011,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1238.0)</f>
         <v>1238</v>
       </c>
+      <c r="AA7" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Способы выражения концентрации вещества")</f>
+        <v>Способы выражения концентрации вещества</v>
+      </c>
+      <c r="AB7" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1406.0)</f>
+        <v>1406</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="str">
@@ -1072,6 +1125,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1242.0)</f>
         <v>1242</v>
       </c>
+      <c r="AA8" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие растворимости")</f>
+        <v>Понятие растворимости</v>
+      </c>
+      <c r="AB8" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1407.0)</f>
+        <v>1407</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="str">
@@ -1178,6 +1239,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1246.0)</f>
         <v>1246</v>
       </c>
+      <c r="AA9" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие количества вещества")</f>
+        <v>Понятие количества вещества</v>
+      </c>
+      <c r="AB9" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1408.0)</f>
+        <v>1408</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="str">
@@ -1278,6 +1347,14 @@
       </c>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
+      <c r="AA10" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение составлять и решать пропорции ")</f>
+        <v>Умение составлять и решать пропорции </v>
+      </c>
+      <c r="AB10" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1409.0)</f>
+        <v>1409</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="str">
@@ -1378,6 +1455,14 @@
       </c>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
+      <c r="AA11" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Определение находится ли вещество, участвующее в реакции, в избытке или недостатке")</f>
+        <v>Определение находится ли вещество, участвующее в реакции, в избытке или недостатке</v>
+      </c>
+      <c r="AB11" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1410.0)</f>
+        <v>1410</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="str">
@@ -1472,6 +1557,14 @@
       </c>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
+      <c r="AA12" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение анализировать молекулярную формулу и химические свойства вещества для определения его класса и построения структурной формулы")</f>
+        <v>Умение анализировать молекулярную формулу и химические свойства вещества для определения его класса и построения структурной формулы</v>
+      </c>
+      <c r="AB12" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1411.0)</f>
+        <v>1411</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="str">
@@ -1554,6 +1647,14 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
+      <c r="AA13" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие теоретически возможного и практического выхода продукта реакции")</f>
+        <v>Понятие теоретически возможного и практического выхода продукта реакции</v>
+      </c>
+      <c r="AB13" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1412.0)</f>
+        <v>1412</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="str">
@@ -1624,6 +1725,14 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
+      <c r="AA14" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие примесей")</f>
+        <v>Понятие примесей</v>
+      </c>
+      <c r="AB14" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1413.0)</f>
+        <v>1413</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="str">
@@ -1694,6 +1803,14 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
+      <c r="AA15" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие плотности вещества")</f>
+        <v>Понятие плотности вещества</v>
+      </c>
+      <c r="AB15" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1414.0)</f>
+        <v>1414</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="str">
@@ -1712,14 +1829,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),115.0)</f>
         <v>115</v>
       </c>
-      <c r="E16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Общие химические свойства кислот")</f>
-        <v>Общие химические свойства кислот</v>
-      </c>
-      <c r="F16" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),215.0)</f>
-        <v>215</v>
-      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1764,6 +1875,14 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
+      <c r="AA16" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нахождение массовой или объемной доли практического выхода продукта реакции")</f>
+        <v>Нахождение массовой или объемной доли практического выхода продукта реакции</v>
+      </c>
+      <c r="AB16" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1415.0)</f>
+        <v>1415</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="str">
@@ -1782,14 +1901,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),116.0)</f>
         <v>116</v>
       </c>
-      <c r="E17" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Качественные реакции на многоатомные спирты")</f>
-        <v>Качественные реакции на многоатомные спирты</v>
-      </c>
-      <c r="F17" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),216.0)</f>
-        <v>216</v>
-      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1834,6 +1947,14 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
+      <c r="AA17" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нахождение массы чистого вещества в образце с примесями")</f>
+        <v>Нахождение массы чистого вещества в образце с примесями</v>
+      </c>
+      <c r="AB17" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1416.0)</f>
+        <v>1416</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="str">
@@ -1852,14 +1973,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),117.0)</f>
         <v>117</v>
       </c>
-      <c r="E18" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Качественные реакции на фенол")</f>
-        <v>Качественные реакции на фенол</v>
-      </c>
-      <c r="F18" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),217.0)</f>
-        <v>217</v>
-      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1904,6 +2019,14 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
+      <c r="AA18" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нахождение массовой доли вещества / элемента")</f>
+        <v>Нахождение массовой доли вещества / элемента</v>
+      </c>
+      <c r="AB18" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1417.0)</f>
+        <v>1417</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="str">
@@ -1922,14 +2045,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),118.0)</f>
         <v>118</v>
       </c>
-      <c r="E19" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Изменение основных свойств в ряду аминов")</f>
-        <v>Изменение основных свойств в ряду аминов</v>
-      </c>
-      <c r="F19" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),218.0)</f>
-        <v>218</v>
-      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1974,6 +2091,14 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
+      <c r="AA19" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нахождение объёма вещества")</f>
+        <v>Нахождение объёма вещества</v>
+      </c>
+      <c r="AB19" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1418.0)</f>
+        <v>1418</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="str">
@@ -1992,14 +2117,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),119.0)</f>
         <v>119</v>
       </c>
-      <c r="E20" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Особенности строения и свойств анилина")</f>
-        <v>Особенности строения и свойств анилина</v>
-      </c>
-      <c r="F20" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),219.0)</f>
-        <v>219</v>
-      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -2044,6 +2163,14 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
+      <c r="AA20" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нахождение массы вещества")</f>
+        <v>Нахождение массы вещества</v>
+      </c>
+      <c r="AB20" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1419.0)</f>
+        <v>1419</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="str">
@@ -2062,14 +2189,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),120.0)</f>
         <v>120</v>
       </c>
-      <c r="E21" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Волокна")</f>
-        <v>Волокна</v>
-      </c>
-      <c r="F21" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),220.0)</f>
-        <v>220</v>
-      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -2114,6 +2235,14 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
+      <c r="AA21" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие относительной плотности вещества по некоторому другому веществу")</f>
+        <v>Понятие относительной плотности вещества по некоторому другому веществу</v>
+      </c>
+      <c r="AB21" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1420.0)</f>
+        <v>1420</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="str">
@@ -2132,14 +2261,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),121.0)</f>
         <v>121</v>
       </c>
-      <c r="E22" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Механизмы образования связи: обменный и донорно-акцепторный")</f>
-        <v>Механизмы образования связи: обменный и донорно-акцепторный</v>
-      </c>
-      <c r="F22" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),221.0)</f>
-        <v>221</v>
-      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -2184,6 +2307,14 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
+      <c r="AA22" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нахождение молекулярной формулы вещества по соотношению количеств атомов, входящих в его состав")</f>
+        <v>Нахождение молекулярной формулы вещества по соотношению количеств атомов, входящих в его состав</v>
+      </c>
+      <c r="AB22" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1421.0)</f>
+        <v>1421</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="str">
@@ -2202,14 +2333,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),122.0)</f>
         <v>122</v>
       </c>
-      <c r="E23" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение составлять реакции ионного обмена на основе заданных условий")</f>
-        <v>Умение составлять реакции ионного обмена на основе заданных условий</v>
-      </c>
-      <c r="F23" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),222.0)</f>
-        <v>222</v>
-      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -2254,6 +2379,14 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
+      <c r="AA23" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение составлять и решать уравнения для определения искомых величин")</f>
+        <v>Умение составлять и решать уравнения для определения искомых величин</v>
+      </c>
+      <c r="AB23" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1422.0)</f>
+        <v>1422</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="str">
@@ -2266,14 +2399,8 @@
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Взаимосвязь неорганических соединений (для неорганических цепочек)")</f>
-        <v>Взаимосвязь неорганических соединений (для неорганических цепочек)</v>
-      </c>
-      <c r="F24" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),223.0)</f>
-        <v>223</v>
-      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -2318,6 +2445,14 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
+      <c r="AA24" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие объемной доли газа")</f>
+        <v>Понятие объемной доли газа</v>
+      </c>
+      <c r="AB24" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1423.0)</f>
+        <v>1423</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="str">
@@ -2330,14 +2465,8 @@
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Взаимосвязь органических соединений (для органических цепочек)")</f>
-        <v>Взаимосвязь органических соединений (для органических цепочек)</v>
-      </c>
-      <c r="F25" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),224.0)</f>
-        <v>224</v>
-      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -2382,6 +2511,14 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
+      <c r="AA25" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие молярной массы")</f>
+        <v>Понятие молярной массы</v>
+      </c>
+      <c r="AB25" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1424.0)</f>
+        <v>1424</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="str">
@@ -2394,14 +2531,8 @@
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение сопоставлять мономеры и полимеры")</f>
-        <v>Умение сопоставлять мономеры и полимеры</v>
-      </c>
-      <c r="F26" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),225.0)</f>
-        <v>225</v>
-      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -2446,6 +2577,14 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
+      <c r="AA26" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение использовать заданное соотношение атомов химических элементов в веществе или смеси веществ для нахождения искомых величин")</f>
+        <v>Умение использовать заданное соотношение атомов химических элементов в веществе или смеси веществ для нахождения искомых величин</v>
+      </c>
+      <c r="AB26" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1425.0)</f>
+        <v>1425</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="str">
@@ -2458,14 +2597,8 @@
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вещества и область их применения")</f>
-        <v>Вещества и область их применения</v>
-      </c>
-      <c r="F27" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),226.0)</f>
-        <v>226</v>
-      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -2504,6 +2637,8 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="str">
@@ -2516,14 +2651,8 @@
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Источники получения веществ")</f>
-        <v>Источники получения веществ</v>
-      </c>
-      <c r="F28" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),227.0)</f>
-        <v>227</v>
-      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -2562,6 +2691,8 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="str">
@@ -2574,14 +2705,8 @@
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Получение ангидридов карбоновых кислот")</f>
-        <v>Получение ангидридов карбоновых кислот</v>
-      </c>
-      <c r="F29" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),228.0)</f>
-        <v>228</v>
-      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -2620,6 +2745,8 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="str">
@@ -2666,6 +2793,8 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="str">
@@ -2712,6 +2841,8 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="str">
@@ -2758,6 +2889,8 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="str">
@@ -2804,6 +2937,8 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="str">
@@ -2850,6 +2985,8 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="str">
@@ -2896,6 +3033,8 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="str">
@@ -2942,6 +3081,8 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="str">
@@ -2988,6 +3129,8 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="str">
@@ -3034,6 +3177,8 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="str">
@@ -3080,6 +3225,8 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="str">
@@ -3126,6 +3273,8 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="str">
@@ -3172,6 +3321,8 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="str">
@@ -3218,6 +3369,8 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="str">
@@ -3264,6 +3417,8 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="str">
@@ -3310,6 +3465,8 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="str">
@@ -3356,6 +3513,8 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="str">
@@ -3402,6 +3561,8 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="str">
@@ -3448,6 +3609,8 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="str">
@@ -3494,6 +3657,8 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="str">
@@ -3540,6 +3705,8 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="str">
@@ -3586,6 +3753,8 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="1"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="str">
@@ -3632,6 +3801,8 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="str">
@@ -3678,6 +3849,8 @@
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="str">
@@ -3724,6 +3897,8 @@
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
+      <c r="AA53" s="1"/>
+      <c r="AB53" s="1"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="str">
@@ -3770,6 +3945,8 @@
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
+      <c r="AA54" s="1"/>
+      <c r="AB54" s="1"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="str">
@@ -3816,6 +3993,8 @@
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
+      <c r="AA55" s="1"/>
+      <c r="AB55" s="1"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="str">
@@ -3862,6 +4041,8 @@
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
+      <c r="AA56" s="1"/>
+      <c r="AB56" s="1"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="str">
@@ -3908,6 +4089,8 @@
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
+      <c r="AA57" s="1"/>
+      <c r="AB57" s="1"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="str">
@@ -3954,6 +4137,8 @@
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
+      <c r="AA58" s="1"/>
+      <c r="AB58" s="1"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="str">
@@ -4000,6 +4185,8 @@
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
+      <c r="AA59" s="1"/>
+      <c r="AB59" s="1"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="str">
@@ -4046,6 +4233,8 @@
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
+      <c r="AA60" s="1"/>
+      <c r="AB60" s="1"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="str">
@@ -4092,6 +4281,8 @@
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
+      <c r="AA61" s="1"/>
+      <c r="AB61" s="1"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="str">
@@ -4138,6 +4329,8 @@
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
+      <c r="AA62" s="1"/>
+      <c r="AB62" s="1"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="str">
@@ -4184,6 +4377,8 @@
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
+      <c r="AA63" s="1"/>
+      <c r="AB63" s="1"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="str">
@@ -4230,6 +4425,8 @@
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
+      <c r="AA64" s="1"/>
+      <c r="AB64" s="1"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="str">
@@ -4276,6 +4473,8 @@
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
+      <c r="AA65" s="1"/>
+      <c r="AB65" s="1"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="str">
@@ -4322,6 +4521,8 @@
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
+      <c r="AA66" s="1"/>
+      <c r="AB66" s="1"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="str">
@@ -4368,6 +4569,8 @@
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
+      <c r="AA67" s="1"/>
+      <c r="AB67" s="1"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="str">
@@ -4414,6 +4617,8 @@
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
+      <c r="AA68" s="1"/>
+      <c r="AB68" s="1"/>
     </row>
     <row r="69">
       <c r="A69" s="1"/>
@@ -4454,6 +4659,8 @@
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
+      <c r="AA69" s="1"/>
+      <c r="AB69" s="1"/>
     </row>
     <row r="70">
       <c r="A70" s="1"/>
@@ -4494,6 +4701,8 @@
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
+      <c r="AA70" s="1"/>
+      <c r="AB70" s="1"/>
     </row>
     <row r="71">
       <c r="A71" s="1"/>
@@ -4534,6 +4743,8 @@
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
+      <c r="AA71" s="1"/>
+      <c r="AB71" s="1"/>
     </row>
     <row r="72">
       <c r="A72" s="1"/>
@@ -4574,6 +4785,8 @@
       <c r="X72" s="1"/>
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
+      <c r="AA72" s="1"/>
+      <c r="AB72" s="1"/>
     </row>
     <row r="73">
       <c r="A73" s="1"/>
@@ -4614,6 +4827,8 @@
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
+      <c r="AA73" s="1"/>
+      <c r="AB73" s="1"/>
     </row>
     <row r="74">
       <c r="A74" s="1"/>
@@ -4654,6 +4869,8 @@
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
+      <c r="AA74" s="1"/>
+      <c r="AB74" s="1"/>
     </row>
     <row r="75">
       <c r="A75" s="1"/>
@@ -4694,6 +4911,8 @@
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
+      <c r="AA75" s="1"/>
+      <c r="AB75" s="1"/>
     </row>
     <row r="76">
       <c r="A76" s="1"/>
@@ -4734,6 +4953,8 @@
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
+      <c r="AA76" s="1"/>
+      <c r="AB76" s="1"/>
     </row>
     <row r="77">
       <c r="A77" s="1"/>
@@ -4774,6 +4995,8 @@
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
+      <c r="AA77" s="1"/>
+      <c r="AB77" s="1"/>
     </row>
     <row r="78">
       <c r="A78" s="1"/>
@@ -4814,6 +5037,8 @@
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
+      <c r="AA78" s="1"/>
+      <c r="AB78" s="1"/>
     </row>
     <row r="79">
       <c r="A79" s="1"/>
@@ -4854,6 +5079,8 @@
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
+      <c r="AA79" s="1"/>
+      <c r="AB79" s="1"/>
     </row>
     <row r="80">
       <c r="A80" s="1"/>
@@ -4894,6 +5121,8 @@
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
+      <c r="AA80" s="1"/>
+      <c r="AB80" s="1"/>
     </row>
     <row r="81">
       <c r="A81" s="1"/>
@@ -4928,6 +5157,8 @@
       <c r="X81" s="1"/>
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
+      <c r="AA81" s="1"/>
+      <c r="AB81" s="1"/>
     </row>
     <row r="82">
       <c r="A82" s="1"/>
@@ -4962,6 +5193,8 @@
       <c r="X82" s="1"/>
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
+      <c r="AA82" s="1"/>
+      <c r="AB82" s="1"/>
     </row>
     <row r="83">
       <c r="A83" s="1"/>
@@ -4996,6 +5229,8 @@
       <c r="X83" s="1"/>
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
+      <c r="AA83" s="1"/>
+      <c r="AB83" s="1"/>
     </row>
     <row r="84">
       <c r="A84" s="1"/>
@@ -5030,6 +5265,8 @@
       <c r="X84" s="1"/>
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
+      <c r="AA84" s="1"/>
+      <c r="AB84" s="1"/>
     </row>
     <row r="85">
       <c r="A85" s="1"/>
@@ -5064,6 +5301,8 @@
       <c r="X85" s="1"/>
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
+      <c r="AA85" s="1"/>
+      <c r="AB85" s="1"/>
     </row>
     <row r="86">
       <c r="A86" s="1"/>
@@ -5098,6 +5337,8 @@
       <c r="X86" s="1"/>
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
+      <c r="AA86" s="1"/>
+      <c r="AB86" s="1"/>
     </row>
     <row r="87">
       <c r="A87" s="1"/>
@@ -5132,6 +5373,8 @@
       <c r="X87" s="1"/>
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
+      <c r="AA87" s="1"/>
+      <c r="AB87" s="1"/>
     </row>
     <row r="88">
       <c r="A88" s="1"/>
@@ -5166,6 +5409,8 @@
       <c r="X88" s="1"/>
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
+      <c r="AA88" s="1"/>
+      <c r="AB88" s="1"/>
     </row>
     <row r="89">
       <c r="A89" s="1"/>
@@ -5200,6 +5445,8 @@
       <c r="X89" s="1"/>
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
+      <c r="AA89" s="1"/>
+      <c r="AB89" s="1"/>
     </row>
     <row r="90">
       <c r="A90" s="1"/>
@@ -5234,6 +5481,8 @@
       <c r="X90" s="1"/>
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
+      <c r="AA90" s="1"/>
+      <c r="AB90" s="1"/>
     </row>
     <row r="91">
       <c r="A91" s="1"/>
@@ -5268,6 +5517,8 @@
       <c r="X91" s="1"/>
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
+      <c r="AA91" s="1"/>
+      <c r="AB91" s="1"/>
     </row>
     <row r="92">
       <c r="A92" s="1"/>
@@ -5302,6 +5553,8 @@
       <c r="X92" s="1"/>
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
+      <c r="AA92" s="1"/>
+      <c r="AB92" s="1"/>
     </row>
     <row r="93">
       <c r="A93" s="1"/>
@@ -5336,6 +5589,8 @@
       <c r="X93" s="1"/>
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
+      <c r="AA93" s="1"/>
+      <c r="AB93" s="1"/>
     </row>
     <row r="94">
       <c r="A94" s="1"/>
@@ -5370,6 +5625,8 @@
       <c r="X94" s="1"/>
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
+      <c r="AA94" s="1"/>
+      <c r="AB94" s="1"/>
     </row>
     <row r="95">
       <c r="A95" s="1"/>
@@ -5404,6 +5661,8 @@
       <c r="X95" s="1"/>
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
+      <c r="AA95" s="1"/>
+      <c r="AB95" s="1"/>
     </row>
     <row r="96">
       <c r="A96" s="1"/>
@@ -5438,6 +5697,8 @@
       <c r="X96" s="1"/>
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
+      <c r="AA96" s="1"/>
+      <c r="AB96" s="1"/>
     </row>
     <row r="97">
       <c r="A97" s="1"/>
@@ -5472,6 +5733,8 @@
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
+      <c r="AA97" s="1"/>
+      <c r="AB97" s="1"/>
     </row>
     <row r="98">
       <c r="A98" s="1"/>
@@ -5506,6 +5769,8 @@
       <c r="X98" s="1"/>
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
+      <c r="AA98" s="1"/>
+      <c r="AB98" s="1"/>
     </row>
     <row r="99">
       <c r="A99" s="1"/>
@@ -5540,6 +5805,8 @@
       <c r="X99" s="1"/>
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
+      <c r="AA99" s="1"/>
+      <c r="AB99" s="1"/>
     </row>
     <row r="100">
       <c r="A100" s="1"/>
@@ -5574,6 +5841,8 @@
       <c r="X100" s="1"/>
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
+      <c r="AA100" s="1"/>
+      <c r="AB100" s="1"/>
     </row>
     <row r="101">
       <c r="A101" s="1"/>
@@ -5608,6 +5877,8 @@
       <c r="X101" s="1"/>
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
+      <c r="AA101" s="1"/>
+      <c r="AB101" s="1"/>
     </row>
     <row r="102">
       <c r="A102" s="1"/>
@@ -5642,6 +5913,8 @@
       <c r="X102" s="1"/>
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
+      <c r="AA102" s="1"/>
+      <c r="AB102" s="1"/>
     </row>
     <row r="103">
       <c r="A103" s="1"/>
@@ -5676,6 +5949,8 @@
       <c r="X103" s="1"/>
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
+      <c r="AA103" s="1"/>
+      <c r="AB103" s="1"/>
     </row>
     <row r="104">
       <c r="A104" s="1"/>
@@ -5710,6 +5985,8 @@
       <c r="X104" s="1"/>
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
+      <c r="AA104" s="1"/>
+      <c r="AB104" s="1"/>
     </row>
     <row r="105">
       <c r="A105" s="1"/>
@@ -5738,6 +6015,8 @@
       <c r="X105" s="1"/>
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
+      <c r="AA105" s="1"/>
+      <c r="AB105" s="1"/>
     </row>
     <row r="106">
       <c r="A106" s="1"/>
@@ -5766,6 +6045,8 @@
       <c r="X106" s="1"/>
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
+      <c r="AA106" s="1"/>
+      <c r="AB106" s="1"/>
     </row>
     <row r="107">
       <c r="A107" s="1"/>
@@ -5794,6 +6075,8 @@
       <c r="X107" s="1"/>
       <c r="Y107" s="1"/>
       <c r="Z107" s="1"/>
+      <c r="AA107" s="1"/>
+      <c r="AB107" s="1"/>
     </row>
     <row r="108">
       <c r="A108" s="1"/>
@@ -5822,6 +6105,8 @@
       <c r="X108" s="1"/>
       <c r="Y108" s="1"/>
       <c r="Z108" s="1"/>
+      <c r="AA108" s="1"/>
+      <c r="AB108" s="1"/>
     </row>
     <row r="109">
       <c r="A109" s="1"/>
@@ -5850,6 +6135,8 @@
       <c r="X109" s="1"/>
       <c r="Y109" s="1"/>
       <c r="Z109" s="1"/>
+      <c r="AA109" s="1"/>
+      <c r="AB109" s="1"/>
     </row>
     <row r="110">
       <c r="A110" s="1"/>
@@ -5878,6 +6165,8 @@
       <c r="X110" s="1"/>
       <c r="Y110" s="1"/>
       <c r="Z110" s="1"/>
+      <c r="AA110" s="1"/>
+      <c r="AB110" s="1"/>
     </row>
     <row r="111">
       <c r="A111" s="1"/>
@@ -5906,6 +6195,8 @@
       <c r="X111" s="1"/>
       <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
+      <c r="AA111" s="1"/>
+      <c r="AB111" s="1"/>
     </row>
     <row r="112">
       <c r="A112" s="1"/>
@@ -5934,6 +6225,8 @@
       <c r="X112" s="1"/>
       <c r="Y112" s="1"/>
       <c r="Z112" s="1"/>
+      <c r="AA112" s="1"/>
+      <c r="AB112" s="1"/>
     </row>
     <row r="113">
       <c r="A113" s="1"/>
@@ -5962,6 +6255,8 @@
       <c r="X113" s="1"/>
       <c r="Y113" s="1"/>
       <c r="Z113" s="1"/>
+      <c r="AA113" s="1"/>
+      <c r="AB113" s="1"/>
     </row>
     <row r="114">
       <c r="A114" s="1"/>
@@ -5990,6 +6285,8 @@
       <c r="X114" s="1"/>
       <c r="Y114" s="1"/>
       <c r="Z114" s="1"/>
+      <c r="AA114" s="1"/>
+      <c r="AB114" s="1"/>
     </row>
     <row r="115">
       <c r="A115" s="1"/>
@@ -6018,6 +6315,8 @@
       <c r="X115" s="1"/>
       <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
+      <c r="AA115" s="1"/>
+      <c r="AB115" s="1"/>
     </row>
     <row r="116">
       <c r="A116" s="1"/>
@@ -6046,6 +6345,8 @@
       <c r="X116" s="1"/>
       <c r="Y116" s="1"/>
       <c r="Z116" s="1"/>
+      <c r="AA116" s="1"/>
+      <c r="AB116" s="1"/>
     </row>
     <row r="117">
       <c r="A117" s="1"/>
@@ -6074,6 +6375,8 @@
       <c r="X117" s="1"/>
       <c r="Y117" s="1"/>
       <c r="Z117" s="1"/>
+      <c r="AA117" s="1"/>
+      <c r="AB117" s="1"/>
     </row>
     <row r="118">
       <c r="A118" s="1"/>
@@ -6102,6 +6405,8 @@
       <c r="X118" s="1"/>
       <c r="Y118" s="1"/>
       <c r="Z118" s="1"/>
+      <c r="AA118" s="1"/>
+      <c r="AB118" s="1"/>
     </row>
     <row r="119">
       <c r="A119" s="1"/>
@@ -6130,6 +6435,8 @@
       <c r="X119" s="1"/>
       <c r="Y119" s="1"/>
       <c r="Z119" s="1"/>
+      <c r="AA119" s="1"/>
+      <c r="AB119" s="1"/>
     </row>
     <row r="120">
       <c r="A120" s="1"/>
@@ -6158,6 +6465,8 @@
       <c r="X120" s="1"/>
       <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
+      <c r="AA120" s="1"/>
+      <c r="AB120" s="1"/>
     </row>
     <row r="121">
       <c r="A121" s="1"/>
@@ -6186,6 +6495,8 @@
       <c r="X121" s="1"/>
       <c r="Y121" s="1"/>
       <c r="Z121" s="1"/>
+      <c r="AA121" s="1"/>
+      <c r="AB121" s="1"/>
     </row>
     <row r="122">
       <c r="A122" s="1"/>
@@ -6214,6 +6525,8 @@
       <c r="X122" s="1"/>
       <c r="Y122" s="1"/>
       <c r="Z122" s="1"/>
+      <c r="AA122" s="1"/>
+      <c r="AB122" s="1"/>
     </row>
     <row r="123">
       <c r="A123" s="1"/>
@@ -6242,6 +6555,8 @@
       <c r="X123" s="1"/>
       <c r="Y123" s="1"/>
       <c r="Z123" s="1"/>
+      <c r="AA123" s="1"/>
+      <c r="AB123" s="1"/>
     </row>
     <row r="124">
       <c r="A124" s="1"/>
@@ -6270,6 +6585,8 @@
       <c r="X124" s="1"/>
       <c r="Y124" s="1"/>
       <c r="Z124" s="1"/>
+      <c r="AA124" s="1"/>
+      <c r="AB124" s="1"/>
     </row>
     <row r="125">
       <c r="A125" s="1"/>
@@ -6298,6 +6615,8 @@
       <c r="X125" s="1"/>
       <c r="Y125" s="1"/>
       <c r="Z125" s="1"/>
+      <c r="AA125" s="1"/>
+      <c r="AB125" s="1"/>
     </row>
     <row r="126">
       <c r="A126" s="1"/>
@@ -6326,6 +6645,8 @@
       <c r="X126" s="1"/>
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
+      <c r="AA126" s="1"/>
+      <c r="AB126" s="1"/>
     </row>
     <row r="127">
       <c r="A127" s="1"/>
@@ -6354,6 +6675,8 @@
       <c r="X127" s="1"/>
       <c r="Y127" s="1"/>
       <c r="Z127" s="1"/>
+      <c r="AA127" s="1"/>
+      <c r="AB127" s="1"/>
     </row>
     <row r="128">
       <c r="A128" s="1"/>
@@ -6382,6 +6705,8 @@
       <c r="X128" s="1"/>
       <c r="Y128" s="1"/>
       <c r="Z128" s="1"/>
+      <c r="AA128" s="1"/>
+      <c r="AB128" s="1"/>
     </row>
     <row r="129">
       <c r="A129" s="1"/>
@@ -6410,6 +6735,8 @@
       <c r="X129" s="1"/>
       <c r="Y129" s="1"/>
       <c r="Z129" s="1"/>
+      <c r="AA129" s="1"/>
+      <c r="AB129" s="1"/>
     </row>
     <row r="130">
       <c r="A130" s="1"/>
@@ -6438,6 +6765,8 @@
       <c r="X130" s="1"/>
       <c r="Y130" s="1"/>
       <c r="Z130" s="1"/>
+      <c r="AA130" s="1"/>
+      <c r="AB130" s="1"/>
     </row>
     <row r="131">
       <c r="A131" s="1"/>
@@ -6466,6 +6795,8 @@
       <c r="X131" s="1"/>
       <c r="Y131" s="1"/>
       <c r="Z131" s="1"/>
+      <c r="AA131" s="1"/>
+      <c r="AB131" s="1"/>
     </row>
     <row r="132">
       <c r="A132" s="1"/>
@@ -6494,6 +6825,8 @@
       <c r="X132" s="1"/>
       <c r="Y132" s="1"/>
       <c r="Z132" s="1"/>
+      <c r="AA132" s="1"/>
+      <c r="AB132" s="1"/>
     </row>
     <row r="133">
       <c r="A133" s="1"/>
@@ -6522,6 +6855,8 @@
       <c r="X133" s="1"/>
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
+      <c r="AA133" s="1"/>
+      <c r="AB133" s="1"/>
     </row>
     <row r="134">
       <c r="A134" s="1"/>
@@ -6550,6 +6885,8 @@
       <c r="X134" s="1"/>
       <c r="Y134" s="1"/>
       <c r="Z134" s="1"/>
+      <c r="AA134" s="1"/>
+      <c r="AB134" s="1"/>
     </row>
     <row r="135">
       <c r="A135" s="1"/>
@@ -6578,6 +6915,8 @@
       <c r="X135" s="1"/>
       <c r="Y135" s="1"/>
       <c r="Z135" s="1"/>
+      <c r="AA135" s="1"/>
+      <c r="AB135" s="1"/>
     </row>
     <row r="136">
       <c r="A136" s="1"/>
@@ -6606,6 +6945,8 @@
       <c r="X136" s="1"/>
       <c r="Y136" s="1"/>
       <c r="Z136" s="1"/>
+      <c r="AA136" s="1"/>
+      <c r="AB136" s="1"/>
     </row>
     <row r="137">
       <c r="A137" s="1"/>
@@ -6634,6 +6975,8 @@
       <c r="X137" s="1"/>
       <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
+      <c r="AA137" s="1"/>
+      <c r="AB137" s="1"/>
     </row>
     <row r="138">
       <c r="A138" s="1"/>
@@ -6662,6 +7005,8 @@
       <c r="X138" s="1"/>
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
+      <c r="AA138" s="1"/>
+      <c r="AB138" s="1"/>
     </row>
     <row r="139">
       <c r="A139" s="1"/>
@@ -6690,6 +7035,8 @@
       <c r="X139" s="1"/>
       <c r="Y139" s="1"/>
       <c r="Z139" s="1"/>
+      <c r="AA139" s="1"/>
+      <c r="AB139" s="1"/>
     </row>
     <row r="140">
       <c r="A140" s="1"/>
@@ -6718,6 +7065,8 @@
       <c r="X140" s="1"/>
       <c r="Y140" s="1"/>
       <c r="Z140" s="1"/>
+      <c r="AA140" s="1"/>
+      <c r="AB140" s="1"/>
     </row>
     <row r="141">
       <c r="A141" s="1"/>
@@ -6746,6 +7095,8 @@
       <c r="X141" s="1"/>
       <c r="Y141" s="1"/>
       <c r="Z141" s="1"/>
+      <c r="AA141" s="1"/>
+      <c r="AB141" s="1"/>
     </row>
     <row r="142">
       <c r="A142" s="1"/>
@@ -6774,6 +7125,8 @@
       <c r="X142" s="1"/>
       <c r="Y142" s="1"/>
       <c r="Z142" s="1"/>
+      <c r="AA142" s="1"/>
+      <c r="AB142" s="1"/>
     </row>
     <row r="143">
       <c r="A143" s="1"/>
@@ -6802,6 +7155,8 @@
       <c r="X143" s="1"/>
       <c r="Y143" s="1"/>
       <c r="Z143" s="1"/>
+      <c r="AA143" s="1"/>
+      <c r="AB143" s="1"/>
     </row>
     <row r="144">
       <c r="A144" s="1"/>
@@ -6830,6 +7185,8 @@
       <c r="X144" s="1"/>
       <c r="Y144" s="1"/>
       <c r="Z144" s="1"/>
+      <c r="AA144" s="1"/>
+      <c r="AB144" s="1"/>
     </row>
     <row r="145">
       <c r="A145" s="1"/>
@@ -6858,6 +7215,8 @@
       <c r="X145" s="1"/>
       <c r="Y145" s="1"/>
       <c r="Z145" s="1"/>
+      <c r="AA145" s="1"/>
+      <c r="AB145" s="1"/>
     </row>
     <row r="146">
       <c r="A146" s="1"/>
@@ -6886,6 +7245,8 @@
       <c r="X146" s="1"/>
       <c r="Y146" s="1"/>
       <c r="Z146" s="1"/>
+      <c r="AA146" s="1"/>
+      <c r="AB146" s="1"/>
     </row>
     <row r="147">
       <c r="A147" s="1"/>
@@ -6914,6 +7275,8 @@
       <c r="X147" s="1"/>
       <c r="Y147" s="1"/>
       <c r="Z147" s="1"/>
+      <c r="AA147" s="1"/>
+      <c r="AB147" s="1"/>
     </row>
     <row r="148">
       <c r="A148" s="1"/>
@@ -6942,6 +7305,8 @@
       <c r="X148" s="1"/>
       <c r="Y148" s="1"/>
       <c r="Z148" s="1"/>
+      <c r="AA148" s="1"/>
+      <c r="AB148" s="1"/>
     </row>
     <row r="149">
       <c r="A149" s="1"/>
@@ -6970,6 +7335,8 @@
       <c r="X149" s="1"/>
       <c r="Y149" s="1"/>
       <c r="Z149" s="1"/>
+      <c r="AA149" s="1"/>
+      <c r="AB149" s="1"/>
     </row>
     <row r="150">
       <c r="A150" s="1"/>
@@ -6998,6 +7365,8 @@
       <c r="X150" s="1"/>
       <c r="Y150" s="1"/>
       <c r="Z150" s="1"/>
+      <c r="AA150" s="1"/>
+      <c r="AB150" s="1"/>
     </row>
     <row r="151">
       <c r="A151" s="1"/>
@@ -7026,6 +7395,8 @@
       <c r="X151" s="1"/>
       <c r="Y151" s="1"/>
       <c r="Z151" s="1"/>
+      <c r="AA151" s="1"/>
+      <c r="AB151" s="1"/>
     </row>
     <row r="152">
       <c r="A152" s="1"/>
@@ -7054,6 +7425,8 @@
       <c r="X152" s="1"/>
       <c r="Y152" s="1"/>
       <c r="Z152" s="1"/>
+      <c r="AA152" s="1"/>
+      <c r="AB152" s="1"/>
     </row>
     <row r="153">
       <c r="A153" s="1"/>
@@ -7082,6 +7455,8 @@
       <c r="X153" s="1"/>
       <c r="Y153" s="1"/>
       <c r="Z153" s="1"/>
+      <c r="AA153" s="1"/>
+      <c r="AB153" s="1"/>
     </row>
     <row r="154">
       <c r="A154" s="1"/>
@@ -7110,6 +7485,8 @@
       <c r="X154" s="1"/>
       <c r="Y154" s="1"/>
       <c r="Z154" s="1"/>
+      <c r="AA154" s="1"/>
+      <c r="AB154" s="1"/>
     </row>
     <row r="155">
       <c r="A155" s="1"/>
@@ -7138,6 +7515,8 @@
       <c r="X155" s="1"/>
       <c r="Y155" s="1"/>
       <c r="Z155" s="1"/>
+      <c r="AA155" s="1"/>
+      <c r="AB155" s="1"/>
     </row>
     <row r="156">
       <c r="A156" s="1"/>
@@ -7166,6 +7545,8 @@
       <c r="X156" s="1"/>
       <c r="Y156" s="1"/>
       <c r="Z156" s="1"/>
+      <c r="AA156" s="1"/>
+      <c r="AB156" s="1"/>
     </row>
     <row r="157">
       <c r="A157" s="1"/>
@@ -7194,6 +7575,8 @@
       <c r="X157" s="1"/>
       <c r="Y157" s="1"/>
       <c r="Z157" s="1"/>
+      <c r="AA157" s="1"/>
+      <c r="AB157" s="1"/>
     </row>
     <row r="158">
       <c r="A158" s="1"/>
@@ -7222,6 +7605,8 @@
       <c r="X158" s="1"/>
       <c r="Y158" s="1"/>
       <c r="Z158" s="1"/>
+      <c r="AA158" s="1"/>
+      <c r="AB158" s="1"/>
     </row>
     <row r="159">
       <c r="A159" s="1"/>
@@ -7250,6 +7635,8 @@
       <c r="X159" s="1"/>
       <c r="Y159" s="1"/>
       <c r="Z159" s="1"/>
+      <c r="AA159" s="1"/>
+      <c r="AB159" s="1"/>
     </row>
     <row r="160">
       <c r="A160" s="1"/>
@@ -7278,6 +7665,8 @@
       <c r="X160" s="1"/>
       <c r="Y160" s="1"/>
       <c r="Z160" s="1"/>
+      <c r="AA160" s="1"/>
+      <c r="AB160" s="1"/>
     </row>
     <row r="161">
       <c r="A161" s="1"/>
@@ -7306,6 +7695,8 @@
       <c r="X161" s="1"/>
       <c r="Y161" s="1"/>
       <c r="Z161" s="1"/>
+      <c r="AA161" s="1"/>
+      <c r="AB161" s="1"/>
     </row>
     <row r="162">
       <c r="A162" s="1"/>
@@ -7334,6 +7725,8 @@
       <c r="X162" s="1"/>
       <c r="Y162" s="1"/>
       <c r="Z162" s="1"/>
+      <c r="AA162" s="1"/>
+      <c r="AB162" s="1"/>
     </row>
     <row r="163">
       <c r="A163" s="1"/>
@@ -7362,6 +7755,8 @@
       <c r="X163" s="1"/>
       <c r="Y163" s="1"/>
       <c r="Z163" s="1"/>
+      <c r="AA163" s="1"/>
+      <c r="AB163" s="1"/>
     </row>
     <row r="164">
       <c r="A164" s="1"/>
@@ -7390,6 +7785,8 @@
       <c r="X164" s="1"/>
       <c r="Y164" s="1"/>
       <c r="Z164" s="1"/>
+      <c r="AA164" s="1"/>
+      <c r="AB164" s="1"/>
     </row>
     <row r="165">
       <c r="A165" s="1"/>
@@ -7418,6 +7815,8 @@
       <c r="X165" s="1"/>
       <c r="Y165" s="1"/>
       <c r="Z165" s="1"/>
+      <c r="AA165" s="1"/>
+      <c r="AB165" s="1"/>
     </row>
     <row r="166">
       <c r="A166" s="1"/>
@@ -7446,6 +7845,8 @@
       <c r="X166" s="1"/>
       <c r="Y166" s="1"/>
       <c r="Z166" s="1"/>
+      <c r="AA166" s="1"/>
+      <c r="AB166" s="1"/>
     </row>
     <row r="167">
       <c r="A167" s="1"/>
@@ -7474,6 +7875,8 @@
       <c r="X167" s="1"/>
       <c r="Y167" s="1"/>
       <c r="Z167" s="1"/>
+      <c r="AA167" s="1"/>
+      <c r="AB167" s="1"/>
     </row>
     <row r="168">
       <c r="A168" s="1"/>
@@ -7502,6 +7905,8 @@
       <c r="X168" s="1"/>
       <c r="Y168" s="1"/>
       <c r="Z168" s="1"/>
+      <c r="AA168" s="1"/>
+      <c r="AB168" s="1"/>
     </row>
     <row r="169">
       <c r="A169" s="1"/>
@@ -7530,6 +7935,8 @@
       <c r="X169" s="1"/>
       <c r="Y169" s="1"/>
       <c r="Z169" s="1"/>
+      <c r="AA169" s="1"/>
+      <c r="AB169" s="1"/>
     </row>
     <row r="170">
       <c r="A170" s="1"/>
@@ -7558,6 +7965,8 @@
       <c r="X170" s="1"/>
       <c r="Y170" s="1"/>
       <c r="Z170" s="1"/>
+      <c r="AA170" s="1"/>
+      <c r="AB170" s="1"/>
     </row>
     <row r="171">
       <c r="A171" s="1"/>
@@ -7586,6 +7995,8 @@
       <c r="X171" s="1"/>
       <c r="Y171" s="1"/>
       <c r="Z171" s="1"/>
+      <c r="AA171" s="1"/>
+      <c r="AB171" s="1"/>
     </row>
     <row r="172">
       <c r="A172" s="1"/>
@@ -7614,6 +8025,8 @@
       <c r="X172" s="1"/>
       <c r="Y172" s="1"/>
       <c r="Z172" s="1"/>
+      <c r="AA172" s="1"/>
+      <c r="AB172" s="1"/>
     </row>
     <row r="173">
       <c r="A173" s="1"/>
@@ -7642,6 +8055,8 @@
       <c r="X173" s="1"/>
       <c r="Y173" s="1"/>
       <c r="Z173" s="1"/>
+      <c r="AA173" s="1"/>
+      <c r="AB173" s="1"/>
     </row>
     <row r="174">
       <c r="A174" s="1"/>
@@ -7670,6 +8085,8 @@
       <c r="X174" s="1"/>
       <c r="Y174" s="1"/>
       <c r="Z174" s="1"/>
+      <c r="AA174" s="1"/>
+      <c r="AB174" s="1"/>
     </row>
     <row r="175">
       <c r="A175" s="1"/>
@@ -7698,6 +8115,8 @@
       <c r="X175" s="1"/>
       <c r="Y175" s="1"/>
       <c r="Z175" s="1"/>
+      <c r="AA175" s="1"/>
+      <c r="AB175" s="1"/>
     </row>
     <row r="176">
       <c r="A176" s="1"/>
@@ -7726,6 +8145,8 @@
       <c r="X176" s="1"/>
       <c r="Y176" s="1"/>
       <c r="Z176" s="1"/>
+      <c r="AA176" s="1"/>
+      <c r="AB176" s="1"/>
     </row>
     <row r="177">
       <c r="A177" s="1"/>
@@ -7754,6 +8175,8 @@
       <c r="X177" s="1"/>
       <c r="Y177" s="1"/>
       <c r="Z177" s="1"/>
+      <c r="AA177" s="1"/>
+      <c r="AB177" s="1"/>
     </row>
     <row r="178">
       <c r="A178" s="1"/>
@@ -7782,6 +8205,8 @@
       <c r="X178" s="1"/>
       <c r="Y178" s="1"/>
       <c r="Z178" s="1"/>
+      <c r="AA178" s="1"/>
+      <c r="AB178" s="1"/>
     </row>
     <row r="179">
       <c r="A179" s="1"/>
@@ -7810,6 +8235,8 @@
       <c r="X179" s="1"/>
       <c r="Y179" s="1"/>
       <c r="Z179" s="1"/>
+      <c r="AA179" s="1"/>
+      <c r="AB179" s="1"/>
     </row>
     <row r="180">
       <c r="A180" s="1"/>
@@ -7838,6 +8265,8 @@
       <c r="X180" s="1"/>
       <c r="Y180" s="1"/>
       <c r="Z180" s="1"/>
+      <c r="AA180" s="1"/>
+      <c r="AB180" s="1"/>
     </row>
     <row r="181">
       <c r="A181" s="1"/>
@@ -7866,6 +8295,8 @@
       <c r="X181" s="1"/>
       <c r="Y181" s="1"/>
       <c r="Z181" s="1"/>
+      <c r="AA181" s="1"/>
+      <c r="AB181" s="1"/>
     </row>
     <row r="182">
       <c r="A182" s="1"/>
@@ -7894,6 +8325,8 @@
       <c r="X182" s="1"/>
       <c r="Y182" s="1"/>
       <c r="Z182" s="1"/>
+      <c r="AA182" s="1"/>
+      <c r="AB182" s="1"/>
     </row>
     <row r="183">
       <c r="A183" s="1"/>
@@ -7922,6 +8355,8 @@
       <c r="X183" s="1"/>
       <c r="Y183" s="1"/>
       <c r="Z183" s="1"/>
+      <c r="AA183" s="1"/>
+      <c r="AB183" s="1"/>
     </row>
     <row r="184">
       <c r="A184" s="1"/>
@@ -7950,6 +8385,8 @@
       <c r="X184" s="1"/>
       <c r="Y184" s="1"/>
       <c r="Z184" s="1"/>
+      <c r="AA184" s="1"/>
+      <c r="AB184" s="1"/>
     </row>
     <row r="185">
       <c r="A185" s="1"/>
@@ -7978,6 +8415,8 @@
       <c r="X185" s="1"/>
       <c r="Y185" s="1"/>
       <c r="Z185" s="1"/>
+      <c r="AA185" s="1"/>
+      <c r="AB185" s="1"/>
     </row>
     <row r="186">
       <c r="A186" s="1"/>
@@ -8006,6 +8445,8 @@
       <c r="X186" s="1"/>
       <c r="Y186" s="1"/>
       <c r="Z186" s="1"/>
+      <c r="AA186" s="1"/>
+      <c r="AB186" s="1"/>
     </row>
     <row r="187">
       <c r="A187" s="1"/>
@@ -8034,6 +8475,8 @@
       <c r="X187" s="1"/>
       <c r="Y187" s="1"/>
       <c r="Z187" s="1"/>
+      <c r="AA187" s="1"/>
+      <c r="AB187" s="1"/>
     </row>
     <row r="188">
       <c r="A188" s="1"/>
@@ -8062,6 +8505,8 @@
       <c r="X188" s="1"/>
       <c r="Y188" s="1"/>
       <c r="Z188" s="1"/>
+      <c r="AA188" s="1"/>
+      <c r="AB188" s="1"/>
     </row>
     <row r="189">
       <c r="A189" s="1"/>
@@ -8090,6 +8535,8 @@
       <c r="X189" s="1"/>
       <c r="Y189" s="1"/>
       <c r="Z189" s="1"/>
+      <c r="AA189" s="1"/>
+      <c r="AB189" s="1"/>
     </row>
     <row r="190">
       <c r="A190" s="1"/>
@@ -8118,6 +8565,8 @@
       <c r="X190" s="1"/>
       <c r="Y190" s="1"/>
       <c r="Z190" s="1"/>
+      <c r="AA190" s="1"/>
+      <c r="AB190" s="1"/>
     </row>
     <row r="191">
       <c r="A191" s="1"/>
@@ -8146,6 +8595,8 @@
       <c r="X191" s="1"/>
       <c r="Y191" s="1"/>
       <c r="Z191" s="1"/>
+      <c r="AA191" s="1"/>
+      <c r="AB191" s="1"/>
     </row>
     <row r="192">
       <c r="A192" s="1"/>
@@ -8174,6 +8625,8 @@
       <c r="X192" s="1"/>
       <c r="Y192" s="1"/>
       <c r="Z192" s="1"/>
+      <c r="AA192" s="1"/>
+      <c r="AB192" s="1"/>
     </row>
     <row r="193">
       <c r="A193" s="1"/>
@@ -8202,6 +8655,8 @@
       <c r="X193" s="1"/>
       <c r="Y193" s="1"/>
       <c r="Z193" s="1"/>
+      <c r="AA193" s="1"/>
+      <c r="AB193" s="1"/>
     </row>
     <row r="194">
       <c r="A194" s="1"/>
@@ -8230,6 +8685,8 @@
       <c r="X194" s="1"/>
       <c r="Y194" s="1"/>
       <c r="Z194" s="1"/>
+      <c r="AA194" s="1"/>
+      <c r="AB194" s="1"/>
     </row>
     <row r="195">
       <c r="A195" s="1"/>
@@ -8258,6 +8715,8 @@
       <c r="X195" s="1"/>
       <c r="Y195" s="1"/>
       <c r="Z195" s="1"/>
+      <c r="AA195" s="1"/>
+      <c r="AB195" s="1"/>
     </row>
     <row r="196">
       <c r="A196" s="1"/>
@@ -8286,6 +8745,8 @@
       <c r="X196" s="1"/>
       <c r="Y196" s="1"/>
       <c r="Z196" s="1"/>
+      <c r="AA196" s="1"/>
+      <c r="AB196" s="1"/>
     </row>
     <row r="197">
       <c r="A197" s="1"/>
@@ -8314,6 +8775,8 @@
       <c r="X197" s="1"/>
       <c r="Y197" s="1"/>
       <c r="Z197" s="1"/>
+      <c r="AA197" s="1"/>
+      <c r="AB197" s="1"/>
     </row>
     <row r="198">
       <c r="A198" s="1"/>
@@ -8342,6 +8805,8 @@
       <c r="X198" s="1"/>
       <c r="Y198" s="1"/>
       <c r="Z198" s="1"/>
+      <c r="AA198" s="1"/>
+      <c r="AB198" s="1"/>
     </row>
     <row r="199">
       <c r="A199" s="1"/>
@@ -8370,6 +8835,8 @@
       <c r="X199" s="1"/>
       <c r="Y199" s="1"/>
       <c r="Z199" s="1"/>
+      <c r="AA199" s="1"/>
+      <c r="AB199" s="1"/>
     </row>
     <row r="200">
       <c r="A200" s="1"/>
@@ -8398,6 +8865,8 @@
       <c r="X200" s="1"/>
       <c r="Y200" s="1"/>
       <c r="Z200" s="1"/>
+      <c r="AA200" s="1"/>
+      <c r="AB200" s="1"/>
     </row>
     <row r="201">
       <c r="A201" s="1"/>
@@ -8426,6 +8895,8 @@
       <c r="X201" s="1"/>
       <c r="Y201" s="1"/>
       <c r="Z201" s="1"/>
+      <c r="AA201" s="1"/>
+      <c r="AB201" s="1"/>
     </row>
     <row r="202">
       <c r="A202" s="1"/>
@@ -8454,6 +8925,8 @@
       <c r="X202" s="1"/>
       <c r="Y202" s="1"/>
       <c r="Z202" s="1"/>
+      <c r="AA202" s="1"/>
+      <c r="AB202" s="1"/>
     </row>
     <row r="203">
       <c r="A203" s="1"/>
@@ -8482,6 +8955,8 @@
       <c r="X203" s="1"/>
       <c r="Y203" s="1"/>
       <c r="Z203" s="1"/>
+      <c r="AA203" s="1"/>
+      <c r="AB203" s="1"/>
     </row>
     <row r="204">
       <c r="A204" s="1"/>
@@ -8510,6 +8985,8 @@
       <c r="X204" s="1"/>
       <c r="Y204" s="1"/>
       <c r="Z204" s="1"/>
+      <c r="AA204" s="1"/>
+      <c r="AB204" s="1"/>
     </row>
     <row r="205">
       <c r="A205" s="1"/>
@@ -8538,6 +9015,8 @@
       <c r="X205" s="1"/>
       <c r="Y205" s="1"/>
       <c r="Z205" s="1"/>
+      <c r="AA205" s="1"/>
+      <c r="AB205" s="1"/>
     </row>
     <row r="206">
       <c r="A206" s="1"/>
@@ -8566,6 +9045,8 @@
       <c r="X206" s="1"/>
       <c r="Y206" s="1"/>
       <c r="Z206" s="1"/>
+      <c r="AA206" s="1"/>
+      <c r="AB206" s="1"/>
     </row>
     <row r="207">
       <c r="A207" s="1"/>
@@ -8594,6 +9075,8 @@
       <c r="X207" s="1"/>
       <c r="Y207" s="1"/>
       <c r="Z207" s="1"/>
+      <c r="AA207" s="1"/>
+      <c r="AB207" s="1"/>
     </row>
     <row r="208">
       <c r="A208" s="1"/>
@@ -8622,6 +9105,8 @@
       <c r="X208" s="1"/>
       <c r="Y208" s="1"/>
       <c r="Z208" s="1"/>
+      <c r="AA208" s="1"/>
+      <c r="AB208" s="1"/>
     </row>
     <row r="209">
       <c r="A209" s="1"/>
@@ -8650,6 +9135,8 @@
       <c r="X209" s="1"/>
       <c r="Y209" s="1"/>
       <c r="Z209" s="1"/>
+      <c r="AA209" s="1"/>
+      <c r="AB209" s="1"/>
     </row>
     <row r="210">
       <c r="A210" s="1"/>
@@ -8678,6 +9165,8 @@
       <c r="X210" s="1"/>
       <c r="Y210" s="1"/>
       <c r="Z210" s="1"/>
+      <c r="AA210" s="1"/>
+      <c r="AB210" s="1"/>
     </row>
     <row r="211">
       <c r="A211" s="1"/>
@@ -8706,6 +9195,8 @@
       <c r="X211" s="1"/>
       <c r="Y211" s="1"/>
       <c r="Z211" s="1"/>
+      <c r="AA211" s="1"/>
+      <c r="AB211" s="1"/>
     </row>
     <row r="212">
       <c r="A212" s="1"/>
@@ -8734,6 +9225,8 @@
       <c r="X212" s="1"/>
       <c r="Y212" s="1"/>
       <c r="Z212" s="1"/>
+      <c r="AA212" s="1"/>
+      <c r="AB212" s="1"/>
     </row>
     <row r="213">
       <c r="A213" s="1"/>
@@ -8762,6 +9255,8 @@
       <c r="X213" s="1"/>
       <c r="Y213" s="1"/>
       <c r="Z213" s="1"/>
+      <c r="AA213" s="1"/>
+      <c r="AB213" s="1"/>
     </row>
     <row r="214">
       <c r="A214" s="1"/>
@@ -8790,6 +9285,8 @@
       <c r="X214" s="1"/>
       <c r="Y214" s="1"/>
       <c r="Z214" s="1"/>
+      <c r="AA214" s="1"/>
+      <c r="AB214" s="1"/>
     </row>
     <row r="215">
       <c r="A215" s="1"/>
@@ -8818,6 +9315,8 @@
       <c r="X215" s="1"/>
       <c r="Y215" s="1"/>
       <c r="Z215" s="1"/>
+      <c r="AA215" s="1"/>
+      <c r="AB215" s="1"/>
     </row>
     <row r="216">
       <c r="A216" s="1"/>
@@ -8846,6 +9345,8 @@
       <c r="X216" s="1"/>
       <c r="Y216" s="1"/>
       <c r="Z216" s="1"/>
+      <c r="AA216" s="1"/>
+      <c r="AB216" s="1"/>
     </row>
     <row r="217">
       <c r="A217" s="1"/>
@@ -8874,6 +9375,8 @@
       <c r="X217" s="1"/>
       <c r="Y217" s="1"/>
       <c r="Z217" s="1"/>
+      <c r="AA217" s="1"/>
+      <c r="AB217" s="1"/>
     </row>
     <row r="218">
       <c r="A218" s="1"/>
@@ -8902,6 +9405,8 @@
       <c r="X218" s="1"/>
       <c r="Y218" s="1"/>
       <c r="Z218" s="1"/>
+      <c r="AA218" s="1"/>
+      <c r="AB218" s="1"/>
     </row>
     <row r="219">
       <c r="A219" s="1"/>
@@ -8930,6 +9435,8 @@
       <c r="X219" s="1"/>
       <c r="Y219" s="1"/>
       <c r="Z219" s="1"/>
+      <c r="AA219" s="1"/>
+      <c r="AB219" s="1"/>
     </row>
     <row r="220">
       <c r="A220" s="1"/>
@@ -8958,6 +9465,8 @@
       <c r="X220" s="1"/>
       <c r="Y220" s="1"/>
       <c r="Z220" s="1"/>
+      <c r="AA220" s="1"/>
+      <c r="AB220" s="1"/>
     </row>
     <row r="221">
       <c r="A221" s="1"/>
@@ -8986,6 +9495,8 @@
       <c r="X221" s="1"/>
       <c r="Y221" s="1"/>
       <c r="Z221" s="1"/>
+      <c r="AA221" s="1"/>
+      <c r="AB221" s="1"/>
     </row>
     <row r="222">
       <c r="A222" s="1"/>
@@ -9014,6 +9525,8 @@
       <c r="X222" s="1"/>
       <c r="Y222" s="1"/>
       <c r="Z222" s="1"/>
+      <c r="AA222" s="1"/>
+      <c r="AB222" s="1"/>
     </row>
     <row r="223">
       <c r="A223" s="1"/>
@@ -9042,6 +9555,8 @@
       <c r="X223" s="1"/>
       <c r="Y223" s="1"/>
       <c r="Z223" s="1"/>
+      <c r="AA223" s="1"/>
+      <c r="AB223" s="1"/>
     </row>
     <row r="224">
       <c r="A224" s="1"/>
@@ -9070,6 +9585,8 @@
       <c r="X224" s="1"/>
       <c r="Y224" s="1"/>
       <c r="Z224" s="1"/>
+      <c r="AA224" s="1"/>
+      <c r="AB224" s="1"/>
     </row>
     <row r="225">
       <c r="A225" s="1"/>
@@ -9098,6 +9615,8 @@
       <c r="X225" s="1"/>
       <c r="Y225" s="1"/>
       <c r="Z225" s="1"/>
+      <c r="AA225" s="1"/>
+      <c r="AB225" s="1"/>
     </row>
     <row r="226">
       <c r="A226" s="1"/>
@@ -9126,6 +9645,8 @@
       <c r="X226" s="1"/>
       <c r="Y226" s="1"/>
       <c r="Z226" s="1"/>
+      <c r="AA226" s="1"/>
+      <c r="AB226" s="1"/>
     </row>
     <row r="227">
       <c r="A227" s="1"/>
@@ -9154,6 +9675,8 @@
       <c r="X227" s="1"/>
       <c r="Y227" s="1"/>
       <c r="Z227" s="1"/>
+      <c r="AA227" s="1"/>
+      <c r="AB227" s="1"/>
     </row>
     <row r="228">
       <c r="A228" s="1"/>
@@ -9182,6 +9705,8 @@
       <c r="X228" s="1"/>
       <c r="Y228" s="1"/>
       <c r="Z228" s="1"/>
+      <c r="AA228" s="1"/>
+      <c r="AB228" s="1"/>
     </row>
     <row r="229">
       <c r="A229" s="1"/>
@@ -9210,6 +9735,8 @@
       <c r="X229" s="1"/>
       <c r="Y229" s="1"/>
       <c r="Z229" s="1"/>
+      <c r="AA229" s="1"/>
+      <c r="AB229" s="1"/>
     </row>
     <row r="230">
       <c r="A230" s="1"/>
@@ -9238,6 +9765,8 @@
       <c r="X230" s="1"/>
       <c r="Y230" s="1"/>
       <c r="Z230" s="1"/>
+      <c r="AA230" s="1"/>
+      <c r="AB230" s="1"/>
     </row>
     <row r="231">
       <c r="A231" s="1"/>
@@ -9266,6 +9795,8 @@
       <c r="X231" s="1"/>
       <c r="Y231" s="1"/>
       <c r="Z231" s="1"/>
+      <c r="AA231" s="1"/>
+      <c r="AB231" s="1"/>
     </row>
     <row r="232">
       <c r="A232" s="1"/>
@@ -9294,6 +9825,8 @@
       <c r="X232" s="1"/>
       <c r="Y232" s="1"/>
       <c r="Z232" s="1"/>
+      <c r="AA232" s="1"/>
+      <c r="AB232" s="1"/>
     </row>
     <row r="233">
       <c r="A233" s="1"/>
@@ -9322,6 +9855,8 @@
       <c r="X233" s="1"/>
       <c r="Y233" s="1"/>
       <c r="Z233" s="1"/>
+      <c r="AA233" s="1"/>
+      <c r="AB233" s="1"/>
     </row>
     <row r="234">
       <c r="A234" s="1"/>
@@ -9350,6 +9885,8 @@
       <c r="X234" s="1"/>
       <c r="Y234" s="1"/>
       <c r="Z234" s="1"/>
+      <c r="AA234" s="1"/>
+      <c r="AB234" s="1"/>
     </row>
     <row r="235">
       <c r="A235" s="1"/>
@@ -9378,6 +9915,8 @@
       <c r="X235" s="1"/>
       <c r="Y235" s="1"/>
       <c r="Z235" s="1"/>
+      <c r="AA235" s="1"/>
+      <c r="AB235" s="1"/>
     </row>
     <row r="236">
       <c r="A236" s="1"/>
@@ -9406,6 +9945,8 @@
       <c r="X236" s="1"/>
       <c r="Y236" s="1"/>
       <c r="Z236" s="1"/>
+      <c r="AA236" s="1"/>
+      <c r="AB236" s="1"/>
     </row>
     <row r="237">
       <c r="A237" s="1"/>
@@ -9434,6 +9975,8 @@
       <c r="X237" s="1"/>
       <c r="Y237" s="1"/>
       <c r="Z237" s="1"/>
+      <c r="AA237" s="1"/>
+      <c r="AB237" s="1"/>
     </row>
     <row r="238">
       <c r="A238" s="1"/>
@@ -9462,6 +10005,8 @@
       <c r="X238" s="1"/>
       <c r="Y238" s="1"/>
       <c r="Z238" s="1"/>
+      <c r="AA238" s="1"/>
+      <c r="AB238" s="1"/>
     </row>
     <row r="239">
       <c r="A239" s="1"/>
@@ -9490,6 +10035,8 @@
       <c r="X239" s="1"/>
       <c r="Y239" s="1"/>
       <c r="Z239" s="1"/>
+      <c r="AA239" s="1"/>
+      <c r="AB239" s="1"/>
     </row>
     <row r="240">
       <c r="A240" s="1"/>
@@ -9518,6 +10065,8 @@
       <c r="X240" s="1"/>
       <c r="Y240" s="1"/>
       <c r="Z240" s="1"/>
+      <c r="AA240" s="1"/>
+      <c r="AB240" s="1"/>
     </row>
     <row r="241">
       <c r="A241" s="1"/>
@@ -9546,6 +10095,8 @@
       <c r="X241" s="1"/>
       <c r="Y241" s="1"/>
       <c r="Z241" s="1"/>
+      <c r="AA241" s="1"/>
+      <c r="AB241" s="1"/>
     </row>
     <row r="242">
       <c r="A242" s="1"/>
@@ -9574,6 +10125,8 @@
       <c r="X242" s="1"/>
       <c r="Y242" s="1"/>
       <c r="Z242" s="1"/>
+      <c r="AA242" s="1"/>
+      <c r="AB242" s="1"/>
     </row>
     <row r="243">
       <c r="A243" s="1"/>
@@ -9602,6 +10155,8 @@
       <c r="X243" s="1"/>
       <c r="Y243" s="1"/>
       <c r="Z243" s="1"/>
+      <c r="AA243" s="1"/>
+      <c r="AB243" s="1"/>
     </row>
     <row r="244">
       <c r="A244" s="1"/>
@@ -9630,6 +10185,8 @@
       <c r="X244" s="1"/>
       <c r="Y244" s="1"/>
       <c r="Z244" s="1"/>
+      <c r="AA244" s="1"/>
+      <c r="AB244" s="1"/>
     </row>
     <row r="245">
       <c r="A245" s="1"/>
@@ -9658,6 +10215,8 @@
       <c r="X245" s="1"/>
       <c r="Y245" s="1"/>
       <c r="Z245" s="1"/>
+      <c r="AA245" s="1"/>
+      <c r="AB245" s="1"/>
     </row>
     <row r="246">
       <c r="A246" s="1"/>
@@ -9686,6 +10245,8 @@
       <c r="X246" s="1"/>
       <c r="Y246" s="1"/>
       <c r="Z246" s="1"/>
+      <c r="AA246" s="1"/>
+      <c r="AB246" s="1"/>
     </row>
     <row r="247">
       <c r="A247" s="1"/>
@@ -9714,6 +10275,8 @@
       <c r="X247" s="1"/>
       <c r="Y247" s="1"/>
       <c r="Z247" s="1"/>
+      <c r="AA247" s="1"/>
+      <c r="AB247" s="1"/>
     </row>
     <row r="248">
       <c r="A248" s="1"/>
@@ -9742,6 +10305,8 @@
       <c r="X248" s="1"/>
       <c r="Y248" s="1"/>
       <c r="Z248" s="1"/>
+      <c r="AA248" s="1"/>
+      <c r="AB248" s="1"/>
     </row>
     <row r="249">
       <c r="A249" s="1"/>
@@ -9770,6 +10335,8 @@
       <c r="X249" s="1"/>
       <c r="Y249" s="1"/>
       <c r="Z249" s="1"/>
+      <c r="AA249" s="1"/>
+      <c r="AB249" s="1"/>
     </row>
     <row r="250">
       <c r="A250" s="1"/>
@@ -9798,6 +10365,8 @@
       <c r="X250" s="1"/>
       <c r="Y250" s="1"/>
       <c r="Z250" s="1"/>
+      <c r="AA250" s="1"/>
+      <c r="AB250" s="1"/>
     </row>
     <row r="251">
       <c r="A251" s="1"/>
@@ -9826,6 +10395,8 @@
       <c r="X251" s="1"/>
       <c r="Y251" s="1"/>
       <c r="Z251" s="1"/>
+      <c r="AA251" s="1"/>
+      <c r="AB251" s="1"/>
     </row>
     <row r="252">
       <c r="A252" s="1"/>
@@ -9854,6 +10425,8 @@
       <c r="X252" s="1"/>
       <c r="Y252" s="1"/>
       <c r="Z252" s="1"/>
+      <c r="AA252" s="1"/>
+      <c r="AB252" s="1"/>
     </row>
     <row r="253">
       <c r="A253" s="1"/>
@@ -9882,6 +10455,8 @@
       <c r="X253" s="1"/>
       <c r="Y253" s="1"/>
       <c r="Z253" s="1"/>
+      <c r="AA253" s="1"/>
+      <c r="AB253" s="1"/>
     </row>
     <row r="254">
       <c r="A254" s="1"/>
@@ -9910,6 +10485,8 @@
       <c r="X254" s="1"/>
       <c r="Y254" s="1"/>
       <c r="Z254" s="1"/>
+      <c r="AA254" s="1"/>
+      <c r="AB254" s="1"/>
     </row>
     <row r="255">
       <c r="A255" s="1"/>
@@ -9938,6 +10515,8 @@
       <c r="X255" s="1"/>
       <c r="Y255" s="1"/>
       <c r="Z255" s="1"/>
+      <c r="AA255" s="1"/>
+      <c r="AB255" s="1"/>
     </row>
     <row r="256">
       <c r="A256" s="1"/>
@@ -9966,6 +10545,8 @@
       <c r="X256" s="1"/>
       <c r="Y256" s="1"/>
       <c r="Z256" s="1"/>
+      <c r="AA256" s="1"/>
+      <c r="AB256" s="1"/>
     </row>
     <row r="257">
       <c r="A257" s="1"/>
@@ -9994,6 +10575,8 @@
       <c r="X257" s="1"/>
       <c r="Y257" s="1"/>
       <c r="Z257" s="1"/>
+      <c r="AA257" s="1"/>
+      <c r="AB257" s="1"/>
     </row>
     <row r="258">
       <c r="A258" s="1"/>
@@ -10022,6 +10605,8 @@
       <c r="X258" s="1"/>
       <c r="Y258" s="1"/>
       <c r="Z258" s="1"/>
+      <c r="AA258" s="1"/>
+      <c r="AB258" s="1"/>
     </row>
     <row r="259">
       <c r="A259" s="1"/>
@@ -10050,6 +10635,8 @@
       <c r="X259" s="1"/>
       <c r="Y259" s="1"/>
       <c r="Z259" s="1"/>
+      <c r="AA259" s="1"/>
+      <c r="AB259" s="1"/>
     </row>
     <row r="260">
       <c r="A260" s="1"/>
@@ -10078,6 +10665,8 @@
       <c r="X260" s="1"/>
       <c r="Y260" s="1"/>
       <c r="Z260" s="1"/>
+      <c r="AA260" s="1"/>
+      <c r="AB260" s="1"/>
     </row>
     <row r="261">
       <c r="A261" s="1"/>
@@ -10106,6 +10695,8 @@
       <c r="X261" s="1"/>
       <c r="Y261" s="1"/>
       <c r="Z261" s="1"/>
+      <c r="AA261" s="1"/>
+      <c r="AB261" s="1"/>
     </row>
     <row r="262">
       <c r="A262" s="1"/>
@@ -10134,6 +10725,8 @@
       <c r="X262" s="1"/>
       <c r="Y262" s="1"/>
       <c r="Z262" s="1"/>
+      <c r="AA262" s="1"/>
+      <c r="AB262" s="1"/>
     </row>
     <row r="263">
       <c r="A263" s="1"/>
@@ -10162,6 +10755,8 @@
       <c r="X263" s="1"/>
       <c r="Y263" s="1"/>
       <c r="Z263" s="1"/>
+      <c r="AA263" s="1"/>
+      <c r="AB263" s="1"/>
     </row>
     <row r="264">
       <c r="A264" s="1"/>
@@ -10190,6 +10785,8 @@
       <c r="X264" s="1"/>
       <c r="Y264" s="1"/>
       <c r="Z264" s="1"/>
+      <c r="AA264" s="1"/>
+      <c r="AB264" s="1"/>
     </row>
     <row r="265">
       <c r="A265" s="1"/>
@@ -10218,6 +10815,8 @@
       <c r="X265" s="1"/>
       <c r="Y265" s="1"/>
       <c r="Z265" s="1"/>
+      <c r="AA265" s="1"/>
+      <c r="AB265" s="1"/>
     </row>
     <row r="266">
       <c r="A266" s="1"/>
@@ -10246,6 +10845,8 @@
       <c r="X266" s="1"/>
       <c r="Y266" s="1"/>
       <c r="Z266" s="1"/>
+      <c r="AA266" s="1"/>
+      <c r="AB266" s="1"/>
     </row>
     <row r="267">
       <c r="A267" s="1"/>
@@ -10274,6 +10875,8 @@
       <c r="X267" s="1"/>
       <c r="Y267" s="1"/>
       <c r="Z267" s="1"/>
+      <c r="AA267" s="1"/>
+      <c r="AB267" s="1"/>
     </row>
     <row r="268">
       <c r="A268" s="1"/>
@@ -10302,6 +10905,8 @@
       <c r="X268" s="1"/>
       <c r="Y268" s="1"/>
       <c r="Z268" s="1"/>
+      <c r="AA268" s="1"/>
+      <c r="AB268" s="1"/>
     </row>
     <row r="269">
       <c r="A269" s="1"/>
@@ -10330,6 +10935,8 @@
       <c r="X269" s="1"/>
       <c r="Y269" s="1"/>
       <c r="Z269" s="1"/>
+      <c r="AA269" s="1"/>
+      <c r="AB269" s="1"/>
     </row>
     <row r="270">
       <c r="A270" s="1"/>
@@ -10358,6 +10965,8 @@
       <c r="X270" s="1"/>
       <c r="Y270" s="1"/>
       <c r="Z270" s="1"/>
+      <c r="AA270" s="1"/>
+      <c r="AB270" s="1"/>
     </row>
     <row r="271">
       <c r="A271" s="1"/>
@@ -10386,6 +10995,8 @@
       <c r="X271" s="1"/>
       <c r="Y271" s="1"/>
       <c r="Z271" s="1"/>
+      <c r="AA271" s="1"/>
+      <c r="AB271" s="1"/>
     </row>
     <row r="272">
       <c r="A272" s="1"/>
@@ -10414,6 +11025,8 @@
       <c r="X272" s="1"/>
       <c r="Y272" s="1"/>
       <c r="Z272" s="1"/>
+      <c r="AA272" s="1"/>
+      <c r="AB272" s="1"/>
     </row>
     <row r="273">
       <c r="A273" s="1"/>
@@ -10442,6 +11055,8 @@
       <c r="X273" s="1"/>
       <c r="Y273" s="1"/>
       <c r="Z273" s="1"/>
+      <c r="AA273" s="1"/>
+      <c r="AB273" s="1"/>
     </row>
     <row r="274">
       <c r="A274" s="1"/>
@@ -10470,6 +11085,8 @@
       <c r="X274" s="1"/>
       <c r="Y274" s="1"/>
       <c r="Z274" s="1"/>
+      <c r="AA274" s="1"/>
+      <c r="AB274" s="1"/>
     </row>
     <row r="275">
       <c r="A275" s="1"/>
@@ -10498,6 +11115,8 @@
       <c r="X275" s="1"/>
       <c r="Y275" s="1"/>
       <c r="Z275" s="1"/>
+      <c r="AA275" s="1"/>
+      <c r="AB275" s="1"/>
     </row>
     <row r="276">
       <c r="A276" s="1"/>
@@ -10526,6 +11145,8 @@
       <c r="X276" s="1"/>
       <c r="Y276" s="1"/>
       <c r="Z276" s="1"/>
+      <c r="AA276" s="1"/>
+      <c r="AB276" s="1"/>
     </row>
     <row r="277">
       <c r="A277" s="1"/>
@@ -10554,6 +11175,8 @@
       <c r="X277" s="1"/>
       <c r="Y277" s="1"/>
       <c r="Z277" s="1"/>
+      <c r="AA277" s="1"/>
+      <c r="AB277" s="1"/>
     </row>
     <row r="278">
       <c r="A278" s="1"/>
@@ -10582,6 +11205,8 @@
       <c r="X278" s="1"/>
       <c r="Y278" s="1"/>
       <c r="Z278" s="1"/>
+      <c r="AA278" s="1"/>
+      <c r="AB278" s="1"/>
     </row>
     <row r="279">
       <c r="A279" s="1"/>
@@ -10610,6 +11235,8 @@
       <c r="X279" s="1"/>
       <c r="Y279" s="1"/>
       <c r="Z279" s="1"/>
+      <c r="AA279" s="1"/>
+      <c r="AB279" s="1"/>
     </row>
     <row r="280">
       <c r="A280" s="1"/>
@@ -10638,6 +11265,8 @@
       <c r="X280" s="1"/>
       <c r="Y280" s="1"/>
       <c r="Z280" s="1"/>
+      <c r="AA280" s="1"/>
+      <c r="AB280" s="1"/>
     </row>
     <row r="281">
       <c r="A281" s="1"/>
@@ -10666,6 +11295,8 @@
       <c r="X281" s="1"/>
       <c r="Y281" s="1"/>
       <c r="Z281" s="1"/>
+      <c r="AA281" s="1"/>
+      <c r="AB281" s="1"/>
     </row>
     <row r="282">
       <c r="A282" s="1"/>
@@ -10694,6 +11325,8 @@
       <c r="X282" s="1"/>
       <c r="Y282" s="1"/>
       <c r="Z282" s="1"/>
+      <c r="AA282" s="1"/>
+      <c r="AB282" s="1"/>
     </row>
     <row r="283">
       <c r="A283" s="1"/>
@@ -10722,6 +11355,8 @@
       <c r="X283" s="1"/>
       <c r="Y283" s="1"/>
       <c r="Z283" s="1"/>
+      <c r="AA283" s="1"/>
+      <c r="AB283" s="1"/>
     </row>
     <row r="284">
       <c r="A284" s="1"/>
@@ -10750,6 +11385,8 @@
       <c r="X284" s="1"/>
       <c r="Y284" s="1"/>
       <c r="Z284" s="1"/>
+      <c r="AA284" s="1"/>
+      <c r="AB284" s="1"/>
     </row>
     <row r="285">
       <c r="A285" s="1"/>
@@ -10778,6 +11415,8 @@
       <c r="X285" s="1"/>
       <c r="Y285" s="1"/>
       <c r="Z285" s="1"/>
+      <c r="AA285" s="1"/>
+      <c r="AB285" s="1"/>
     </row>
     <row r="286">
       <c r="A286" s="1"/>
@@ -10806,6 +11445,8 @@
       <c r="X286" s="1"/>
       <c r="Y286" s="1"/>
       <c r="Z286" s="1"/>
+      <c r="AA286" s="1"/>
+      <c r="AB286" s="1"/>
     </row>
     <row r="287">
       <c r="A287" s="1"/>
@@ -10834,6 +11475,8 @@
       <c r="X287" s="1"/>
       <c r="Y287" s="1"/>
       <c r="Z287" s="1"/>
+      <c r="AA287" s="1"/>
+      <c r="AB287" s="1"/>
     </row>
     <row r="288">
       <c r="A288" s="1"/>
@@ -10862,6 +11505,8 @@
       <c r="X288" s="1"/>
       <c r="Y288" s="1"/>
       <c r="Z288" s="1"/>
+      <c r="AA288" s="1"/>
+      <c r="AB288" s="1"/>
     </row>
     <row r="289">
       <c r="A289" s="1"/>
@@ -10890,6 +11535,8 @@
       <c r="X289" s="1"/>
       <c r="Y289" s="1"/>
       <c r="Z289" s="1"/>
+      <c r="AA289" s="1"/>
+      <c r="AB289" s="1"/>
     </row>
     <row r="290">
       <c r="A290" s="1"/>
@@ -10918,6 +11565,8 @@
       <c r="X290" s="1"/>
       <c r="Y290" s="1"/>
       <c r="Z290" s="1"/>
+      <c r="AA290" s="1"/>
+      <c r="AB290" s="1"/>
     </row>
     <row r="291">
       <c r="A291" s="1"/>
@@ -10946,6 +11595,8 @@
       <c r="X291" s="1"/>
       <c r="Y291" s="1"/>
       <c r="Z291" s="1"/>
+      <c r="AA291" s="1"/>
+      <c r="AB291" s="1"/>
     </row>
     <row r="292">
       <c r="A292" s="1"/>
@@ -10974,6 +11625,8 @@
       <c r="X292" s="1"/>
       <c r="Y292" s="1"/>
       <c r="Z292" s="1"/>
+      <c r="AA292" s="1"/>
+      <c r="AB292" s="1"/>
     </row>
     <row r="293">
       <c r="A293" s="1"/>
@@ -11002,6 +11655,8 @@
       <c r="X293" s="1"/>
       <c r="Y293" s="1"/>
       <c r="Z293" s="1"/>
+      <c r="AA293" s="1"/>
+      <c r="AB293" s="1"/>
     </row>
     <row r="294">
       <c r="A294" s="1"/>
@@ -11030,6 +11685,8 @@
       <c r="X294" s="1"/>
       <c r="Y294" s="1"/>
       <c r="Z294" s="1"/>
+      <c r="AA294" s="1"/>
+      <c r="AB294" s="1"/>
     </row>
     <row r="295">
       <c r="A295" s="1"/>
@@ -11058,6 +11715,8 @@
       <c r="X295" s="1"/>
       <c r="Y295" s="1"/>
       <c r="Z295" s="1"/>
+      <c r="AA295" s="1"/>
+      <c r="AB295" s="1"/>
     </row>
     <row r="296">
       <c r="A296" s="1"/>
@@ -11086,6 +11745,8 @@
       <c r="X296" s="1"/>
       <c r="Y296" s="1"/>
       <c r="Z296" s="1"/>
+      <c r="AA296" s="1"/>
+      <c r="AB296" s="1"/>
     </row>
     <row r="297">
       <c r="A297" s="1"/>
@@ -11114,6 +11775,8 @@
       <c r="X297" s="1"/>
       <c r="Y297" s="1"/>
       <c r="Z297" s="1"/>
+      <c r="AA297" s="1"/>
+      <c r="AB297" s="1"/>
     </row>
     <row r="298">
       <c r="A298" s="1"/>
@@ -11142,6 +11805,8 @@
       <c r="X298" s="1"/>
       <c r="Y298" s="1"/>
       <c r="Z298" s="1"/>
+      <c r="AA298" s="1"/>
+      <c r="AB298" s="1"/>
     </row>
     <row r="299">
       <c r="A299" s="1"/>
@@ -11170,6 +11835,8 @@
       <c r="X299" s="1"/>
       <c r="Y299" s="1"/>
       <c r="Z299" s="1"/>
+      <c r="AA299" s="1"/>
+      <c r="AB299" s="1"/>
     </row>
     <row r="300">
       <c r="A300" s="1"/>
@@ -11198,6 +11865,8 @@
       <c r="X300" s="1"/>
       <c r="Y300" s="1"/>
       <c r="Z300" s="1"/>
+      <c r="AA300" s="1"/>
+      <c r="AB300" s="1"/>
     </row>
     <row r="301">
       <c r="A301" s="1"/>
@@ -11226,6 +11895,8 @@
       <c r="X301" s="1"/>
       <c r="Y301" s="1"/>
       <c r="Z301" s="1"/>
+      <c r="AA301" s="1"/>
+      <c r="AB301" s="1"/>
     </row>
     <row r="302">
       <c r="A302" s="1"/>
@@ -11254,6 +11925,8 @@
       <c r="X302" s="1"/>
       <c r="Y302" s="1"/>
       <c r="Z302" s="1"/>
+      <c r="AA302" s="1"/>
+      <c r="AB302" s="1"/>
     </row>
     <row r="303">
       <c r="A303" s="1"/>
@@ -11282,6 +11955,8 @@
       <c r="X303" s="1"/>
       <c r="Y303" s="1"/>
       <c r="Z303" s="1"/>
+      <c r="AA303" s="1"/>
+      <c r="AB303" s="1"/>
     </row>
     <row r="304">
       <c r="A304" s="1"/>
@@ -11310,6 +11985,8 @@
       <c r="X304" s="1"/>
       <c r="Y304" s="1"/>
       <c r="Z304" s="1"/>
+      <c r="AA304" s="1"/>
+      <c r="AB304" s="1"/>
     </row>
     <row r="305">
       <c r="A305" s="1"/>
@@ -11338,6 +12015,8 @@
       <c r="X305" s="1"/>
       <c r="Y305" s="1"/>
       <c r="Z305" s="1"/>
+      <c r="AA305" s="1"/>
+      <c r="AB305" s="1"/>
     </row>
     <row r="306">
       <c r="A306" s="1"/>
@@ -11366,6 +12045,8 @@
       <c r="X306" s="1"/>
       <c r="Y306" s="1"/>
       <c r="Z306" s="1"/>
+      <c r="AA306" s="1"/>
+      <c r="AB306" s="1"/>
     </row>
     <row r="307">
       <c r="A307" s="1"/>
@@ -11394,6 +12075,8 @@
       <c r="X307" s="1"/>
       <c r="Y307" s="1"/>
       <c r="Z307" s="1"/>
+      <c r="AA307" s="1"/>
+      <c r="AB307" s="1"/>
     </row>
     <row r="308">
       <c r="A308" s="1"/>
@@ -11422,6 +12105,8 @@
       <c r="X308" s="1"/>
       <c r="Y308" s="1"/>
       <c r="Z308" s="1"/>
+      <c r="AA308" s="1"/>
+      <c r="AB308" s="1"/>
     </row>
     <row r="309">
       <c r="A309" s="1"/>
@@ -11450,6 +12135,8 @@
       <c r="X309" s="1"/>
       <c r="Y309" s="1"/>
       <c r="Z309" s="1"/>
+      <c r="AA309" s="1"/>
+      <c r="AB309" s="1"/>
     </row>
     <row r="310">
       <c r="A310" s="1"/>
@@ -11478,6 +12165,8 @@
       <c r="X310" s="1"/>
       <c r="Y310" s="1"/>
       <c r="Z310" s="1"/>
+      <c r="AA310" s="1"/>
+      <c r="AB310" s="1"/>
     </row>
     <row r="311">
       <c r="A311" s="1"/>
@@ -11506,6 +12195,8 @@
       <c r="X311" s="1"/>
       <c r="Y311" s="1"/>
       <c r="Z311" s="1"/>
+      <c r="AA311" s="1"/>
+      <c r="AB311" s="1"/>
     </row>
     <row r="312">
       <c r="A312" s="1"/>
@@ -11534,6 +12225,8 @@
       <c r="X312" s="1"/>
       <c r="Y312" s="1"/>
       <c r="Z312" s="1"/>
+      <c r="AA312" s="1"/>
+      <c r="AB312" s="1"/>
     </row>
     <row r="313">
       <c r="A313" s="1"/>
@@ -11562,6 +12255,8 @@
       <c r="X313" s="1"/>
       <c r="Y313" s="1"/>
       <c r="Z313" s="1"/>
+      <c r="AA313" s="1"/>
+      <c r="AB313" s="1"/>
     </row>
     <row r="314">
       <c r="A314" s="1"/>
@@ -11590,6 +12285,8 @@
       <c r="X314" s="1"/>
       <c r="Y314" s="1"/>
       <c r="Z314" s="1"/>
+      <c r="AA314" s="1"/>
+      <c r="AB314" s="1"/>
     </row>
     <row r="315">
       <c r="A315" s="1"/>
@@ -11618,6 +12315,8 @@
       <c r="X315" s="1"/>
       <c r="Y315" s="1"/>
       <c r="Z315" s="1"/>
+      <c r="AA315" s="1"/>
+      <c r="AB315" s="1"/>
     </row>
     <row r="316">
       <c r="A316" s="1"/>
@@ -11646,6 +12345,8 @@
       <c r="X316" s="1"/>
       <c r="Y316" s="1"/>
       <c r="Z316" s="1"/>
+      <c r="AA316" s="1"/>
+      <c r="AB316" s="1"/>
     </row>
     <row r="317">
       <c r="A317" s="1"/>
@@ -11674,6 +12375,8 @@
       <c r="X317" s="1"/>
       <c r="Y317" s="1"/>
       <c r="Z317" s="1"/>
+      <c r="AA317" s="1"/>
+      <c r="AB317" s="1"/>
     </row>
     <row r="318">
       <c r="A318" s="1"/>
@@ -11702,6 +12405,8 @@
       <c r="X318" s="1"/>
       <c r="Y318" s="1"/>
       <c r="Z318" s="1"/>
+      <c r="AA318" s="1"/>
+      <c r="AB318" s="1"/>
     </row>
     <row r="319">
       <c r="A319" s="1"/>
@@ -11730,6 +12435,8 @@
       <c r="X319" s="1"/>
       <c r="Y319" s="1"/>
       <c r="Z319" s="1"/>
+      <c r="AA319" s="1"/>
+      <c r="AB319" s="1"/>
     </row>
     <row r="320">
       <c r="A320" s="1"/>
@@ -11758,6 +12465,8 @@
       <c r="X320" s="1"/>
       <c r="Y320" s="1"/>
       <c r="Z320" s="1"/>
+      <c r="AA320" s="1"/>
+      <c r="AB320" s="1"/>
     </row>
     <row r="321">
       <c r="A321" s="1"/>
@@ -11786,6 +12495,8 @@
       <c r="X321" s="1"/>
       <c r="Y321" s="1"/>
       <c r="Z321" s="1"/>
+      <c r="AA321" s="1"/>
+      <c r="AB321" s="1"/>
     </row>
     <row r="322">
       <c r="A322" s="1"/>
@@ -11814,6 +12525,8 @@
       <c r="X322" s="1"/>
       <c r="Y322" s="1"/>
       <c r="Z322" s="1"/>
+      <c r="AA322" s="1"/>
+      <c r="AB322" s="1"/>
     </row>
     <row r="323">
       <c r="A323" s="1"/>
@@ -11842,6 +12555,8 @@
       <c r="X323" s="1"/>
       <c r="Y323" s="1"/>
       <c r="Z323" s="1"/>
+      <c r="AA323" s="1"/>
+      <c r="AB323" s="1"/>
     </row>
     <row r="324">
       <c r="A324" s="1"/>
@@ -11870,6 +12585,8 @@
       <c r="X324" s="1"/>
       <c r="Y324" s="1"/>
       <c r="Z324" s="1"/>
+      <c r="AA324" s="1"/>
+      <c r="AB324" s="1"/>
     </row>
     <row r="325">
       <c r="A325" s="1"/>
@@ -11898,6 +12615,8 @@
       <c r="X325" s="1"/>
       <c r="Y325" s="1"/>
       <c r="Z325" s="1"/>
+      <c r="AA325" s="1"/>
+      <c r="AB325" s="1"/>
     </row>
     <row r="326">
       <c r="A326" s="1"/>
@@ -11926,6 +12645,8 @@
       <c r="X326" s="1"/>
       <c r="Y326" s="1"/>
       <c r="Z326" s="1"/>
+      <c r="AA326" s="1"/>
+      <c r="AB326" s="1"/>
     </row>
     <row r="327">
       <c r="A327" s="1"/>
@@ -11954,6 +12675,8 @@
       <c r="X327" s="1"/>
       <c r="Y327" s="1"/>
       <c r="Z327" s="1"/>
+      <c r="AA327" s="1"/>
+      <c r="AB327" s="1"/>
     </row>
     <row r="328">
       <c r="A328" s="1"/>
@@ -11982,6 +12705,8 @@
       <c r="X328" s="1"/>
       <c r="Y328" s="1"/>
       <c r="Z328" s="1"/>
+      <c r="AA328" s="1"/>
+      <c r="AB328" s="1"/>
     </row>
     <row r="329">
       <c r="A329" s="1"/>
@@ -12010,6 +12735,8 @@
       <c r="X329" s="1"/>
       <c r="Y329" s="1"/>
       <c r="Z329" s="1"/>
+      <c r="AA329" s="1"/>
+      <c r="AB329" s="1"/>
     </row>
     <row r="330">
       <c r="A330" s="1"/>
@@ -12038,6 +12765,8 @@
       <c r="X330" s="1"/>
       <c r="Y330" s="1"/>
       <c r="Z330" s="1"/>
+      <c r="AA330" s="1"/>
+      <c r="AB330" s="1"/>
     </row>
     <row r="331">
       <c r="A331" s="1"/>
@@ -12066,6 +12795,8 @@
       <c r="X331" s="1"/>
       <c r="Y331" s="1"/>
       <c r="Z331" s="1"/>
+      <c r="AA331" s="1"/>
+      <c r="AB331" s="1"/>
     </row>
     <row r="332">
       <c r="A332" s="1"/>
@@ -12094,6 +12825,8 @@
       <c r="X332" s="1"/>
       <c r="Y332" s="1"/>
       <c r="Z332" s="1"/>
+      <c r="AA332" s="1"/>
+      <c r="AB332" s="1"/>
     </row>
     <row r="333">
       <c r="A333" s="1"/>
@@ -12122,6 +12855,8 @@
       <c r="X333" s="1"/>
       <c r="Y333" s="1"/>
       <c r="Z333" s="1"/>
+      <c r="AA333" s="1"/>
+      <c r="AB333" s="1"/>
     </row>
     <row r="334">
       <c r="A334" s="1"/>
@@ -12150,6 +12885,8 @@
       <c r="X334" s="1"/>
       <c r="Y334" s="1"/>
       <c r="Z334" s="1"/>
+      <c r="AA334" s="1"/>
+      <c r="AB334" s="1"/>
     </row>
     <row r="335">
       <c r="A335" s="1"/>
@@ -12178,6 +12915,8 @@
       <c r="X335" s="1"/>
       <c r="Y335" s="1"/>
       <c r="Z335" s="1"/>
+      <c r="AA335" s="1"/>
+      <c r="AB335" s="1"/>
     </row>
     <row r="336">
       <c r="A336" s="1"/>
@@ -12206,6 +12945,8 @@
       <c r="X336" s="1"/>
       <c r="Y336" s="1"/>
       <c r="Z336" s="1"/>
+      <c r="AA336" s="1"/>
+      <c r="AB336" s="1"/>
     </row>
     <row r="337">
       <c r="A337" s="1"/>
@@ -12234,6 +12975,8 @@
       <c r="X337" s="1"/>
       <c r="Y337" s="1"/>
       <c r="Z337" s="1"/>
+      <c r="AA337" s="1"/>
+      <c r="AB337" s="1"/>
     </row>
     <row r="338">
       <c r="A338" s="1"/>
@@ -12262,6 +13005,8 @@
       <c r="X338" s="1"/>
       <c r="Y338" s="1"/>
       <c r="Z338" s="1"/>
+      <c r="AA338" s="1"/>
+      <c r="AB338" s="1"/>
     </row>
     <row r="339">
       <c r="A339" s="1"/>
@@ -12290,6 +13035,8 @@
       <c r="X339" s="1"/>
       <c r="Y339" s="1"/>
       <c r="Z339" s="1"/>
+      <c r="AA339" s="1"/>
+      <c r="AB339" s="1"/>
     </row>
     <row r="340">
       <c r="A340" s="1"/>
@@ -12318,6 +13065,8 @@
       <c r="X340" s="1"/>
       <c r="Y340" s="1"/>
       <c r="Z340" s="1"/>
+      <c r="AA340" s="1"/>
+      <c r="AB340" s="1"/>
     </row>
     <row r="341">
       <c r="A341" s="1"/>
@@ -12346,6 +13095,8 @@
       <c r="X341" s="1"/>
       <c r="Y341" s="1"/>
       <c r="Z341" s="1"/>
+      <c r="AA341" s="1"/>
+      <c r="AB341" s="1"/>
     </row>
     <row r="342">
       <c r="A342" s="1"/>
@@ -12374,6 +13125,8 @@
       <c r="X342" s="1"/>
       <c r="Y342" s="1"/>
       <c r="Z342" s="1"/>
+      <c r="AA342" s="1"/>
+      <c r="AB342" s="1"/>
     </row>
     <row r="343">
       <c r="A343" s="1"/>
@@ -12402,6 +13155,8 @@
       <c r="X343" s="1"/>
       <c r="Y343" s="1"/>
       <c r="Z343" s="1"/>
+      <c r="AA343" s="1"/>
+      <c r="AB343" s="1"/>
     </row>
     <row r="344">
       <c r="A344" s="1"/>
@@ -12430,6 +13185,8 @@
       <c r="X344" s="1"/>
       <c r="Y344" s="1"/>
       <c r="Z344" s="1"/>
+      <c r="AA344" s="1"/>
+      <c r="AB344" s="1"/>
     </row>
     <row r="345">
       <c r="A345" s="1"/>
@@ -12458,6 +13215,8 @@
       <c r="X345" s="1"/>
       <c r="Y345" s="1"/>
       <c r="Z345" s="1"/>
+      <c r="AA345" s="1"/>
+      <c r="AB345" s="1"/>
     </row>
     <row r="346">
       <c r="A346" s="1"/>
@@ -12486,6 +13245,8 @@
       <c r="X346" s="1"/>
       <c r="Y346" s="1"/>
       <c r="Z346" s="1"/>
+      <c r="AA346" s="1"/>
+      <c r="AB346" s="1"/>
     </row>
     <row r="347">
       <c r="A347" s="1"/>
@@ -12514,6 +13275,8 @@
       <c r="X347" s="1"/>
       <c r="Y347" s="1"/>
       <c r="Z347" s="1"/>
+      <c r="AA347" s="1"/>
+      <c r="AB347" s="1"/>
     </row>
     <row r="348">
       <c r="A348" s="1"/>
@@ -12542,6 +13305,8 @@
       <c r="X348" s="1"/>
       <c r="Y348" s="1"/>
       <c r="Z348" s="1"/>
+      <c r="AA348" s="1"/>
+      <c r="AB348" s="1"/>
     </row>
     <row r="349">
       <c r="A349" s="1"/>
@@ -12570,6 +13335,8 @@
       <c r="X349" s="1"/>
       <c r="Y349" s="1"/>
       <c r="Z349" s="1"/>
+      <c r="AA349" s="1"/>
+      <c r="AB349" s="1"/>
     </row>
     <row r="350">
       <c r="A350" s="1"/>
@@ -12598,6 +13365,8 @@
       <c r="X350" s="1"/>
       <c r="Y350" s="1"/>
       <c r="Z350" s="1"/>
+      <c r="AA350" s="1"/>
+      <c r="AB350" s="1"/>
     </row>
     <row r="351">
       <c r="A351" s="1"/>
@@ -12626,6 +13395,8 @@
       <c r="X351" s="1"/>
       <c r="Y351" s="1"/>
       <c r="Z351" s="1"/>
+      <c r="AA351" s="1"/>
+      <c r="AB351" s="1"/>
     </row>
     <row r="352">
       <c r="A352" s="1"/>
@@ -12654,6 +13425,8 @@
       <c r="X352" s="1"/>
       <c r="Y352" s="1"/>
       <c r="Z352" s="1"/>
+      <c r="AA352" s="1"/>
+      <c r="AB352" s="1"/>
     </row>
     <row r="353">
       <c r="A353" s="1"/>
@@ -12682,6 +13455,8 @@
       <c r="X353" s="1"/>
       <c r="Y353" s="1"/>
       <c r="Z353" s="1"/>
+      <c r="AA353" s="1"/>
+      <c r="AB353" s="1"/>
     </row>
     <row r="354">
       <c r="A354" s="1"/>
@@ -12710,6 +13485,8 @@
       <c r="X354" s="1"/>
       <c r="Y354" s="1"/>
       <c r="Z354" s="1"/>
+      <c r="AA354" s="1"/>
+      <c r="AB354" s="1"/>
     </row>
     <row r="355">
       <c r="A355" s="1"/>
@@ -12738,6 +13515,8 @@
       <c r="X355" s="1"/>
       <c r="Y355" s="1"/>
       <c r="Z355" s="1"/>
+      <c r="AA355" s="1"/>
+      <c r="AB355" s="1"/>
     </row>
     <row r="356">
       <c r="A356" s="1"/>
@@ -12766,6 +13545,8 @@
       <c r="X356" s="1"/>
       <c r="Y356" s="1"/>
       <c r="Z356" s="1"/>
+      <c r="AA356" s="1"/>
+      <c r="AB356" s="1"/>
     </row>
     <row r="357">
       <c r="A357" s="1"/>
@@ -12794,6 +13575,8 @@
       <c r="X357" s="1"/>
       <c r="Y357" s="1"/>
       <c r="Z357" s="1"/>
+      <c r="AA357" s="1"/>
+      <c r="AB357" s="1"/>
     </row>
     <row r="358">
       <c r="A358" s="1"/>
@@ -12822,6 +13605,8 @@
       <c r="X358" s="1"/>
       <c r="Y358" s="1"/>
       <c r="Z358" s="1"/>
+      <c r="AA358" s="1"/>
+      <c r="AB358" s="1"/>
     </row>
     <row r="359">
       <c r="A359" s="1"/>
@@ -12850,6 +13635,8 @@
       <c r="X359" s="1"/>
       <c r="Y359" s="1"/>
       <c r="Z359" s="1"/>
+      <c r="AA359" s="1"/>
+      <c r="AB359" s="1"/>
     </row>
     <row r="360">
       <c r="A360" s="1"/>
@@ -12878,6 +13665,8 @@
       <c r="X360" s="1"/>
       <c r="Y360" s="1"/>
       <c r="Z360" s="1"/>
+      <c r="AA360" s="1"/>
+      <c r="AB360" s="1"/>
     </row>
     <row r="361">
       <c r="A361" s="1"/>
@@ -12906,6 +13695,8 @@
       <c r="X361" s="1"/>
       <c r="Y361" s="1"/>
       <c r="Z361" s="1"/>
+      <c r="AA361" s="1"/>
+      <c r="AB361" s="1"/>
     </row>
     <row r="362">
       <c r="A362" s="1"/>
@@ -12934,6 +13725,8 @@
       <c r="X362" s="1"/>
       <c r="Y362" s="1"/>
       <c r="Z362" s="1"/>
+      <c r="AA362" s="1"/>
+      <c r="AB362" s="1"/>
     </row>
     <row r="363">
       <c r="A363" s="1"/>
@@ -12962,6 +13755,8 @@
       <c r="X363" s="1"/>
       <c r="Y363" s="1"/>
       <c r="Z363" s="1"/>
+      <c r="AA363" s="1"/>
+      <c r="AB363" s="1"/>
     </row>
     <row r="364">
       <c r="A364" s="1"/>
@@ -12990,6 +13785,8 @@
       <c r="X364" s="1"/>
       <c r="Y364" s="1"/>
       <c r="Z364" s="1"/>
+      <c r="AA364" s="1"/>
+      <c r="AB364" s="1"/>
     </row>
     <row r="365">
       <c r="A365" s="1"/>
@@ -13018,6 +13815,8 @@
       <c r="X365" s="1"/>
       <c r="Y365" s="1"/>
       <c r="Z365" s="1"/>
+      <c r="AA365" s="1"/>
+      <c r="AB365" s="1"/>
     </row>
     <row r="366">
       <c r="A366" s="1"/>
@@ -13046,6 +13845,8 @@
       <c r="X366" s="1"/>
       <c r="Y366" s="1"/>
       <c r="Z366" s="1"/>
+      <c r="AA366" s="1"/>
+      <c r="AB366" s="1"/>
     </row>
     <row r="367">
       <c r="A367" s="1"/>
@@ -13074,6 +13875,8 @@
       <c r="X367" s="1"/>
       <c r="Y367" s="1"/>
       <c r="Z367" s="1"/>
+      <c r="AA367" s="1"/>
+      <c r="AB367" s="1"/>
     </row>
     <row r="368">
       <c r="A368" s="1"/>
@@ -13102,6 +13905,8 @@
       <c r="X368" s="1"/>
       <c r="Y368" s="1"/>
       <c r="Z368" s="1"/>
+      <c r="AA368" s="1"/>
+      <c r="AB368" s="1"/>
     </row>
     <row r="369">
       <c r="A369" s="1"/>
@@ -13130,6 +13935,8 @@
       <c r="X369" s="1"/>
       <c r="Y369" s="1"/>
       <c r="Z369" s="1"/>
+      <c r="AA369" s="1"/>
+      <c r="AB369" s="1"/>
     </row>
     <row r="370">
       <c r="A370" s="1"/>
@@ -13158,6 +13965,8 @@
       <c r="X370" s="1"/>
       <c r="Y370" s="1"/>
       <c r="Z370" s="1"/>
+      <c r="AA370" s="1"/>
+      <c r="AB370" s="1"/>
     </row>
     <row r="371">
       <c r="A371" s="1"/>
@@ -13186,6 +13995,8 @@
       <c r="X371" s="1"/>
       <c r="Y371" s="1"/>
       <c r="Z371" s="1"/>
+      <c r="AA371" s="1"/>
+      <c r="AB371" s="1"/>
     </row>
     <row r="372">
       <c r="A372" s="1"/>
@@ -13214,6 +14025,8 @@
       <c r="X372" s="1"/>
       <c r="Y372" s="1"/>
       <c r="Z372" s="1"/>
+      <c r="AA372" s="1"/>
+      <c r="AB372" s="1"/>
     </row>
     <row r="373">
       <c r="A373" s="1"/>
@@ -13242,6 +14055,8 @@
       <c r="X373" s="1"/>
       <c r="Y373" s="1"/>
       <c r="Z373" s="1"/>
+      <c r="AA373" s="1"/>
+      <c r="AB373" s="1"/>
     </row>
     <row r="374">
       <c r="A374" s="1"/>
@@ -13270,6 +14085,8 @@
       <c r="X374" s="1"/>
       <c r="Y374" s="1"/>
       <c r="Z374" s="1"/>
+      <c r="AA374" s="1"/>
+      <c r="AB374" s="1"/>
     </row>
     <row r="375">
       <c r="A375" s="1"/>
@@ -13298,6 +14115,8 @@
       <c r="X375" s="1"/>
       <c r="Y375" s="1"/>
       <c r="Z375" s="1"/>
+      <c r="AA375" s="1"/>
+      <c r="AB375" s="1"/>
     </row>
     <row r="376">
       <c r="A376" s="1"/>
@@ -13326,6 +14145,8 @@
       <c r="X376" s="1"/>
       <c r="Y376" s="1"/>
       <c r="Z376" s="1"/>
+      <c r="AA376" s="1"/>
+      <c r="AB376" s="1"/>
     </row>
     <row r="377">
       <c r="A377" s="1"/>
@@ -13354,6 +14175,8 @@
       <c r="X377" s="1"/>
       <c r="Y377" s="1"/>
       <c r="Z377" s="1"/>
+      <c r="AA377" s="1"/>
+      <c r="AB377" s="1"/>
     </row>
     <row r="378">
       <c r="A378" s="1"/>
@@ -13382,6 +14205,8 @@
       <c r="X378" s="1"/>
       <c r="Y378" s="1"/>
       <c r="Z378" s="1"/>
+      <c r="AA378" s="1"/>
+      <c r="AB378" s="1"/>
     </row>
     <row r="379">
       <c r="A379" s="1"/>
@@ -13410,6 +14235,8 @@
       <c r="X379" s="1"/>
       <c r="Y379" s="1"/>
       <c r="Z379" s="1"/>
+      <c r="AA379" s="1"/>
+      <c r="AB379" s="1"/>
     </row>
     <row r="380">
       <c r="A380" s="1"/>
@@ -13438,6 +14265,8 @@
       <c r="X380" s="1"/>
       <c r="Y380" s="1"/>
       <c r="Z380" s="1"/>
+      <c r="AA380" s="1"/>
+      <c r="AB380" s="1"/>
     </row>
     <row r="381">
       <c r="A381" s="1"/>
@@ -13466,6 +14295,8 @@
       <c r="X381" s="1"/>
       <c r="Y381" s="1"/>
       <c r="Z381" s="1"/>
+      <c r="AA381" s="1"/>
+      <c r="AB381" s="1"/>
     </row>
     <row r="382">
       <c r="A382" s="1"/>
@@ -13494,6 +14325,8 @@
       <c r="X382" s="1"/>
       <c r="Y382" s="1"/>
       <c r="Z382" s="1"/>
+      <c r="AA382" s="1"/>
+      <c r="AB382" s="1"/>
     </row>
     <row r="383">
       <c r="A383" s="1"/>
@@ -13522,6 +14355,8 @@
       <c r="X383" s="1"/>
       <c r="Y383" s="1"/>
       <c r="Z383" s="1"/>
+      <c r="AA383" s="1"/>
+      <c r="AB383" s="1"/>
     </row>
     <row r="384">
       <c r="A384" s="1"/>
@@ -13550,6 +14385,8 @@
       <c r="X384" s="1"/>
       <c r="Y384" s="1"/>
       <c r="Z384" s="1"/>
+      <c r="AA384" s="1"/>
+      <c r="AB384" s="1"/>
     </row>
     <row r="385">
       <c r="A385" s="1"/>
@@ -13578,6 +14415,8 @@
       <c r="X385" s="1"/>
       <c r="Y385" s="1"/>
       <c r="Z385" s="1"/>
+      <c r="AA385" s="1"/>
+      <c r="AB385" s="1"/>
     </row>
     <row r="386">
       <c r="A386" s="1"/>
@@ -13606,6 +14445,8 @@
       <c r="X386" s="1"/>
       <c r="Y386" s="1"/>
       <c r="Z386" s="1"/>
+      <c r="AA386" s="1"/>
+      <c r="AB386" s="1"/>
     </row>
     <row r="387">
       <c r="A387" s="1"/>
@@ -13634,6 +14475,8 @@
       <c r="X387" s="1"/>
       <c r="Y387" s="1"/>
       <c r="Z387" s="1"/>
+      <c r="AA387" s="1"/>
+      <c r="AB387" s="1"/>
     </row>
     <row r="388">
       <c r="A388" s="1"/>
@@ -13662,6 +14505,8 @@
       <c r="X388" s="1"/>
       <c r="Y388" s="1"/>
       <c r="Z388" s="1"/>
+      <c r="AA388" s="1"/>
+      <c r="AB388" s="1"/>
     </row>
     <row r="389">
       <c r="A389" s="1"/>
@@ -13690,6 +14535,8 @@
       <c r="X389" s="1"/>
       <c r="Y389" s="1"/>
       <c r="Z389" s="1"/>
+      <c r="AA389" s="1"/>
+      <c r="AB389" s="1"/>
     </row>
     <row r="390">
       <c r="A390" s="1"/>
@@ -13718,6 +14565,8 @@
       <c r="X390" s="1"/>
       <c r="Y390" s="1"/>
       <c r="Z390" s="1"/>
+      <c r="AA390" s="1"/>
+      <c r="AB390" s="1"/>
     </row>
     <row r="391">
       <c r="A391" s="1"/>
@@ -13746,6 +14595,8 @@
       <c r="X391" s="1"/>
       <c r="Y391" s="1"/>
       <c r="Z391" s="1"/>
+      <c r="AA391" s="1"/>
+      <c r="AB391" s="1"/>
     </row>
     <row r="392">
       <c r="A392" s="1"/>
@@ -13774,6 +14625,8 @@
       <c r="X392" s="1"/>
       <c r="Y392" s="1"/>
       <c r="Z392" s="1"/>
+      <c r="AA392" s="1"/>
+      <c r="AB392" s="1"/>
     </row>
     <row r="393">
       <c r="A393" s="1"/>
@@ -13802,6 +14655,8 @@
       <c r="X393" s="1"/>
       <c r="Y393" s="1"/>
       <c r="Z393" s="1"/>
+      <c r="AA393" s="1"/>
+      <c r="AB393" s="1"/>
     </row>
     <row r="394">
       <c r="A394" s="1"/>
@@ -13830,6 +14685,8 @@
       <c r="X394" s="1"/>
       <c r="Y394" s="1"/>
       <c r="Z394" s="1"/>
+      <c r="AA394" s="1"/>
+      <c r="AB394" s="1"/>
     </row>
     <row r="395">
       <c r="A395" s="1"/>
@@ -13858,6 +14715,8 @@
       <c r="X395" s="1"/>
       <c r="Y395" s="1"/>
       <c r="Z395" s="1"/>
+      <c r="AA395" s="1"/>
+      <c r="AB395" s="1"/>
     </row>
     <row r="396">
       <c r="A396" s="1"/>
@@ -13886,6 +14745,8 @@
       <c r="X396" s="1"/>
       <c r="Y396" s="1"/>
       <c r="Z396" s="1"/>
+      <c r="AA396" s="1"/>
+      <c r="AB396" s="1"/>
     </row>
     <row r="397">
       <c r="A397" s="1"/>
@@ -13914,6 +14775,8 @@
       <c r="X397" s="1"/>
       <c r="Y397" s="1"/>
       <c r="Z397" s="1"/>
+      <c r="AA397" s="1"/>
+      <c r="AB397" s="1"/>
     </row>
     <row r="398">
       <c r="A398" s="1"/>
@@ -13942,6 +14805,8 @@
       <c r="X398" s="1"/>
       <c r="Y398" s="1"/>
       <c r="Z398" s="1"/>
+      <c r="AA398" s="1"/>
+      <c r="AB398" s="1"/>
     </row>
     <row r="399">
       <c r="A399" s="1"/>
@@ -13970,6 +14835,8 @@
       <c r="X399" s="1"/>
       <c r="Y399" s="1"/>
       <c r="Z399" s="1"/>
+      <c r="AA399" s="1"/>
+      <c r="AB399" s="1"/>
     </row>
     <row r="400">
       <c r="A400" s="1"/>
@@ -13998,6 +14865,8 @@
       <c r="X400" s="1"/>
       <c r="Y400" s="1"/>
       <c r="Z400" s="1"/>
+      <c r="AA400" s="1"/>
+      <c r="AB400" s="1"/>
     </row>
     <row r="401">
       <c r="A401" s="1"/>
@@ -14026,6 +14895,8 @@
       <c r="X401" s="1"/>
       <c r="Y401" s="1"/>
       <c r="Z401" s="1"/>
+      <c r="AA401" s="1"/>
+      <c r="AB401" s="1"/>
     </row>
     <row r="402">
       <c r="A402" s="1"/>
@@ -14054,6 +14925,8 @@
       <c r="X402" s="1"/>
       <c r="Y402" s="1"/>
       <c r="Z402" s="1"/>
+      <c r="AA402" s="1"/>
+      <c r="AB402" s="1"/>
     </row>
     <row r="403">
       <c r="A403" s="1"/>
@@ -14082,6 +14955,8 @@
       <c r="X403" s="1"/>
       <c r="Y403" s="1"/>
       <c r="Z403" s="1"/>
+      <c r="AA403" s="1"/>
+      <c r="AB403" s="1"/>
     </row>
     <row r="404">
       <c r="A404" s="1"/>
@@ -14110,6 +14985,8 @@
       <c r="X404" s="1"/>
       <c r="Y404" s="1"/>
       <c r="Z404" s="1"/>
+      <c r="AA404" s="1"/>
+      <c r="AB404" s="1"/>
     </row>
     <row r="405">
       <c r="A405" s="1"/>
@@ -14138,6 +15015,8 @@
       <c r="X405" s="1"/>
       <c r="Y405" s="1"/>
       <c r="Z405" s="1"/>
+      <c r="AA405" s="1"/>
+      <c r="AB405" s="1"/>
     </row>
     <row r="406">
       <c r="A406" s="1"/>
@@ -14166,6 +15045,8 @@
       <c r="X406" s="1"/>
       <c r="Y406" s="1"/>
       <c r="Z406" s="1"/>
+      <c r="AA406" s="1"/>
+      <c r="AB406" s="1"/>
     </row>
     <row r="407">
       <c r="A407" s="1"/>
@@ -14194,6 +15075,8 @@
       <c r="X407" s="1"/>
       <c r="Y407" s="1"/>
       <c r="Z407" s="1"/>
+      <c r="AA407" s="1"/>
+      <c r="AB407" s="1"/>
     </row>
     <row r="408">
       <c r="A408" s="1"/>
@@ -14222,6 +15105,8 @@
       <c r="X408" s="1"/>
       <c r="Y408" s="1"/>
       <c r="Z408" s="1"/>
+      <c r="AA408" s="1"/>
+      <c r="AB408" s="1"/>
     </row>
     <row r="409">
       <c r="A409" s="1"/>
@@ -14250,6 +15135,8 @@
       <c r="X409" s="1"/>
       <c r="Y409" s="1"/>
       <c r="Z409" s="1"/>
+      <c r="AA409" s="1"/>
+      <c r="AB409" s="1"/>
     </row>
     <row r="410">
       <c r="A410" s="1"/>
@@ -14278,6 +15165,8 @@
       <c r="X410" s="1"/>
       <c r="Y410" s="1"/>
       <c r="Z410" s="1"/>
+      <c r="AA410" s="1"/>
+      <c r="AB410" s="1"/>
     </row>
     <row r="411">
       <c r="A411" s="1"/>
@@ -14306,6 +15195,8 @@
       <c r="X411" s="1"/>
       <c r="Y411" s="1"/>
       <c r="Z411" s="1"/>
+      <c r="AA411" s="1"/>
+      <c r="AB411" s="1"/>
     </row>
     <row r="412">
       <c r="A412" s="1"/>
@@ -14334,6 +15225,8 @@
       <c r="X412" s="1"/>
       <c r="Y412" s="1"/>
       <c r="Z412" s="1"/>
+      <c r="AA412" s="1"/>
+      <c r="AB412" s="1"/>
     </row>
     <row r="413">
       <c r="A413" s="1"/>
@@ -14362,6 +15255,8 @@
       <c r="X413" s="1"/>
       <c r="Y413" s="1"/>
       <c r="Z413" s="1"/>
+      <c r="AA413" s="1"/>
+      <c r="AB413" s="1"/>
     </row>
     <row r="414">
       <c r="A414" s="1"/>
@@ -14390,6 +15285,8 @@
       <c r="X414" s="1"/>
       <c r="Y414" s="1"/>
       <c r="Z414" s="1"/>
+      <c r="AA414" s="1"/>
+      <c r="AB414" s="1"/>
     </row>
     <row r="415">
       <c r="A415" s="1"/>
@@ -14418,6 +15315,8 @@
       <c r="X415" s="1"/>
       <c r="Y415" s="1"/>
       <c r="Z415" s="1"/>
+      <c r="AA415" s="1"/>
+      <c r="AB415" s="1"/>
     </row>
     <row r="416">
       <c r="A416" s="1"/>
@@ -14446,6 +15345,8 @@
       <c r="X416" s="1"/>
       <c r="Y416" s="1"/>
       <c r="Z416" s="1"/>
+      <c r="AA416" s="1"/>
+      <c r="AB416" s="1"/>
     </row>
     <row r="417">
       <c r="A417" s="1"/>
@@ -14474,6 +15375,8 @@
       <c r="X417" s="1"/>
       <c r="Y417" s="1"/>
       <c r="Z417" s="1"/>
+      <c r="AA417" s="1"/>
+      <c r="AB417" s="1"/>
     </row>
     <row r="418">
       <c r="A418" s="1"/>
@@ -14502,6 +15405,8 @@
       <c r="X418" s="1"/>
       <c r="Y418" s="1"/>
       <c r="Z418" s="1"/>
+      <c r="AA418" s="1"/>
+      <c r="AB418" s="1"/>
     </row>
     <row r="419">
       <c r="A419" s="1"/>
@@ -14530,6 +15435,8 @@
       <c r="X419" s="1"/>
       <c r="Y419" s="1"/>
       <c r="Z419" s="1"/>
+      <c r="AA419" s="1"/>
+      <c r="AB419" s="1"/>
     </row>
     <row r="420">
       <c r="A420" s="1"/>
@@ -14558,6 +15465,8 @@
       <c r="X420" s="1"/>
       <c r="Y420" s="1"/>
       <c r="Z420" s="1"/>
+      <c r="AA420" s="1"/>
+      <c r="AB420" s="1"/>
     </row>
     <row r="421">
       <c r="A421" s="1"/>
@@ -14586,6 +15495,8 @@
       <c r="X421" s="1"/>
       <c r="Y421" s="1"/>
       <c r="Z421" s="1"/>
+      <c r="AA421" s="1"/>
+      <c r="AB421" s="1"/>
     </row>
     <row r="422">
       <c r="A422" s="1"/>
@@ -14614,6 +15525,8 @@
       <c r="X422" s="1"/>
       <c r="Y422" s="1"/>
       <c r="Z422" s="1"/>
+      <c r="AA422" s="1"/>
+      <c r="AB422" s="1"/>
     </row>
     <row r="423">
       <c r="A423" s="1"/>
@@ -14642,6 +15555,8 @@
       <c r="X423" s="1"/>
       <c r="Y423" s="1"/>
       <c r="Z423" s="1"/>
+      <c r="AA423" s="1"/>
+      <c r="AB423" s="1"/>
     </row>
     <row r="424">
       <c r="A424" s="1"/>
@@ -14670,6 +15585,8 @@
       <c r="X424" s="1"/>
       <c r="Y424" s="1"/>
       <c r="Z424" s="1"/>
+      <c r="AA424" s="1"/>
+      <c r="AB424" s="1"/>
     </row>
     <row r="425">
       <c r="A425" s="1"/>
@@ -14698,6 +15615,8 @@
       <c r="X425" s="1"/>
       <c r="Y425" s="1"/>
       <c r="Z425" s="1"/>
+      <c r="AA425" s="1"/>
+      <c r="AB425" s="1"/>
     </row>
     <row r="426">
       <c r="A426" s="1"/>
@@ -14726,6 +15645,8 @@
       <c r="X426" s="1"/>
       <c r="Y426" s="1"/>
       <c r="Z426" s="1"/>
+      <c r="AA426" s="1"/>
+      <c r="AB426" s="1"/>
     </row>
     <row r="427">
       <c r="A427" s="1"/>
@@ -14754,6 +15675,8 @@
       <c r="X427" s="1"/>
       <c r="Y427" s="1"/>
       <c r="Z427" s="1"/>
+      <c r="AA427" s="1"/>
+      <c r="AB427" s="1"/>
     </row>
     <row r="428">
       <c r="A428" s="1"/>
@@ -14782,6 +15705,8 @@
       <c r="X428" s="1"/>
       <c r="Y428" s="1"/>
       <c r="Z428" s="1"/>
+      <c r="AA428" s="1"/>
+      <c r="AB428" s="1"/>
     </row>
     <row r="429">
       <c r="A429" s="1"/>
@@ -14810,6 +15735,8 @@
       <c r="X429" s="1"/>
       <c r="Y429" s="1"/>
       <c r="Z429" s="1"/>
+      <c r="AA429" s="1"/>
+      <c r="AB429" s="1"/>
     </row>
     <row r="430">
       <c r="A430" s="1"/>
@@ -14838,6 +15765,8 @@
       <c r="X430" s="1"/>
       <c r="Y430" s="1"/>
       <c r="Z430" s="1"/>
+      <c r="AA430" s="1"/>
+      <c r="AB430" s="1"/>
     </row>
     <row r="431">
       <c r="A431" s="1"/>
@@ -14866,6 +15795,8 @@
       <c r="X431" s="1"/>
       <c r="Y431" s="1"/>
       <c r="Z431" s="1"/>
+      <c r="AA431" s="1"/>
+      <c r="AB431" s="1"/>
     </row>
     <row r="432">
       <c r="A432" s="1"/>
@@ -14894,6 +15825,8 @@
       <c r="X432" s="1"/>
       <c r="Y432" s="1"/>
       <c r="Z432" s="1"/>
+      <c r="AA432" s="1"/>
+      <c r="AB432" s="1"/>
     </row>
     <row r="433">
       <c r="A433" s="1"/>
@@ -14922,6 +15855,8 @@
       <c r="X433" s="1"/>
       <c r="Y433" s="1"/>
       <c r="Z433" s="1"/>
+      <c r="AA433" s="1"/>
+      <c r="AB433" s="1"/>
     </row>
     <row r="434">
       <c r="A434" s="1"/>
@@ -14950,6 +15885,8 @@
       <c r="X434" s="1"/>
       <c r="Y434" s="1"/>
       <c r="Z434" s="1"/>
+      <c r="AA434" s="1"/>
+      <c r="AB434" s="1"/>
     </row>
     <row r="435">
       <c r="A435" s="1"/>
@@ -14978,6 +15915,8 @@
       <c r="X435" s="1"/>
       <c r="Y435" s="1"/>
       <c r="Z435" s="1"/>
+      <c r="AA435" s="1"/>
+      <c r="AB435" s="1"/>
     </row>
     <row r="436">
       <c r="A436" s="1"/>
@@ -15006,6 +15945,8 @@
       <c r="X436" s="1"/>
       <c r="Y436" s="1"/>
       <c r="Z436" s="1"/>
+      <c r="AA436" s="1"/>
+      <c r="AB436" s="1"/>
     </row>
     <row r="437">
       <c r="A437" s="1"/>
@@ -15034,6 +15975,8 @@
       <c r="X437" s="1"/>
       <c r="Y437" s="1"/>
       <c r="Z437" s="1"/>
+      <c r="AA437" s="1"/>
+      <c r="AB437" s="1"/>
     </row>
     <row r="438">
       <c r="A438" s="1"/>
@@ -15062,6 +16005,8 @@
       <c r="X438" s="1"/>
       <c r="Y438" s="1"/>
       <c r="Z438" s="1"/>
+      <c r="AA438" s="1"/>
+      <c r="AB438" s="1"/>
     </row>
     <row r="439">
       <c r="A439" s="1"/>
@@ -15090,6 +16035,8 @@
       <c r="X439" s="1"/>
       <c r="Y439" s="1"/>
       <c r="Z439" s="1"/>
+      <c r="AA439" s="1"/>
+      <c r="AB439" s="1"/>
     </row>
     <row r="440">
       <c r="A440" s="1"/>
@@ -15118,6 +16065,8 @@
       <c r="X440" s="1"/>
       <c r="Y440" s="1"/>
       <c r="Z440" s="1"/>
+      <c r="AA440" s="1"/>
+      <c r="AB440" s="1"/>
     </row>
     <row r="441">
       <c r="A441" s="1"/>
@@ -15146,6 +16095,8 @@
       <c r="X441" s="1"/>
       <c r="Y441" s="1"/>
       <c r="Z441" s="1"/>
+      <c r="AA441" s="1"/>
+      <c r="AB441" s="1"/>
     </row>
     <row r="442">
       <c r="A442" s="1"/>
@@ -15174,6 +16125,8 @@
       <c r="X442" s="1"/>
       <c r="Y442" s="1"/>
       <c r="Z442" s="1"/>
+      <c r="AA442" s="1"/>
+      <c r="AB442" s="1"/>
     </row>
     <row r="443">
       <c r="A443" s="1"/>
@@ -15202,6 +16155,8 @@
       <c r="X443" s="1"/>
       <c r="Y443" s="1"/>
       <c r="Z443" s="1"/>
+      <c r="AA443" s="1"/>
+      <c r="AB443" s="1"/>
     </row>
     <row r="444">
       <c r="A444" s="1"/>
@@ -15230,6 +16185,8 @@
       <c r="X444" s="1"/>
       <c r="Y444" s="1"/>
       <c r="Z444" s="1"/>
+      <c r="AA444" s="1"/>
+      <c r="AB444" s="1"/>
     </row>
     <row r="445">
       <c r="A445" s="1"/>
@@ -15258,6 +16215,8 @@
       <c r="X445" s="1"/>
       <c r="Y445" s="1"/>
       <c r="Z445" s="1"/>
+      <c r="AA445" s="1"/>
+      <c r="AB445" s="1"/>
     </row>
     <row r="446">
       <c r="A446" s="1"/>
@@ -15286,6 +16245,8 @@
       <c r="X446" s="1"/>
       <c r="Y446" s="1"/>
       <c r="Z446" s="1"/>
+      <c r="AA446" s="1"/>
+      <c r="AB446" s="1"/>
     </row>
     <row r="447">
       <c r="A447" s="1"/>
@@ -15314,6 +16275,8 @@
       <c r="X447" s="1"/>
       <c r="Y447" s="1"/>
       <c r="Z447" s="1"/>
+      <c r="AA447" s="1"/>
+      <c r="AB447" s="1"/>
     </row>
     <row r="448">
       <c r="A448" s="1"/>
@@ -15342,6 +16305,8 @@
       <c r="X448" s="1"/>
       <c r="Y448" s="1"/>
       <c r="Z448" s="1"/>
+      <c r="AA448" s="1"/>
+      <c r="AB448" s="1"/>
     </row>
     <row r="449">
       <c r="A449" s="1"/>
@@ -15370,6 +16335,8 @@
       <c r="X449" s="1"/>
       <c r="Y449" s="1"/>
       <c r="Z449" s="1"/>
+      <c r="AA449" s="1"/>
+      <c r="AB449" s="1"/>
     </row>
     <row r="450">
       <c r="A450" s="1"/>
@@ -15398,6 +16365,8 @@
       <c r="X450" s="1"/>
       <c r="Y450" s="1"/>
       <c r="Z450" s="1"/>
+      <c r="AA450" s="1"/>
+      <c r="AB450" s="1"/>
     </row>
     <row r="451">
       <c r="A451" s="1"/>
@@ -15426,6 +16395,8 @@
       <c r="X451" s="1"/>
       <c r="Y451" s="1"/>
       <c r="Z451" s="1"/>
+      <c r="AA451" s="1"/>
+      <c r="AB451" s="1"/>
     </row>
     <row r="452">
       <c r="A452" s="1"/>
@@ -15454,6 +16425,8 @@
       <c r="X452" s="1"/>
       <c r="Y452" s="1"/>
       <c r="Z452" s="1"/>
+      <c r="AA452" s="1"/>
+      <c r="AB452" s="1"/>
     </row>
     <row r="453">
       <c r="A453" s="1"/>
@@ -15482,6 +16455,8 @@
       <c r="X453" s="1"/>
       <c r="Y453" s="1"/>
       <c r="Z453" s="1"/>
+      <c r="AA453" s="1"/>
+      <c r="AB453" s="1"/>
     </row>
     <row r="454">
       <c r="A454" s="1"/>
@@ -15510,6 +16485,8 @@
       <c r="X454" s="1"/>
       <c r="Y454" s="1"/>
       <c r="Z454" s="1"/>
+      <c r="AA454" s="1"/>
+      <c r="AB454" s="1"/>
     </row>
     <row r="455">
       <c r="A455" s="1"/>
@@ -15538,6 +16515,8 @@
       <c r="X455" s="1"/>
       <c r="Y455" s="1"/>
       <c r="Z455" s="1"/>
+      <c r="AA455" s="1"/>
+      <c r="AB455" s="1"/>
     </row>
     <row r="456">
       <c r="A456" s="1"/>
@@ -15566,6 +16545,8 @@
       <c r="X456" s="1"/>
       <c r="Y456" s="1"/>
       <c r="Z456" s="1"/>
+      <c r="AA456" s="1"/>
+      <c r="AB456" s="1"/>
     </row>
     <row r="457">
       <c r="A457" s="1"/>
@@ -15594,6 +16575,8 @@
       <c r="X457" s="1"/>
       <c r="Y457" s="1"/>
       <c r="Z457" s="1"/>
+      <c r="AA457" s="1"/>
+      <c r="AB457" s="1"/>
     </row>
     <row r="458">
       <c r="A458" s="1"/>
@@ -15622,6 +16605,8 @@
       <c r="X458" s="1"/>
       <c r="Y458" s="1"/>
       <c r="Z458" s="1"/>
+      <c r="AA458" s="1"/>
+      <c r="AB458" s="1"/>
     </row>
     <row r="459">
       <c r="A459" s="1"/>
@@ -15650,6 +16635,8 @@
       <c r="X459" s="1"/>
       <c r="Y459" s="1"/>
       <c r="Z459" s="1"/>
+      <c r="AA459" s="1"/>
+      <c r="AB459" s="1"/>
     </row>
     <row r="460">
       <c r="A460" s="1"/>
@@ -15678,6 +16665,8 @@
       <c r="X460" s="1"/>
       <c r="Y460" s="1"/>
       <c r="Z460" s="1"/>
+      <c r="AA460" s="1"/>
+      <c r="AB460" s="1"/>
     </row>
     <row r="461">
       <c r="A461" s="1"/>
@@ -15706,6 +16695,8 @@
       <c r="X461" s="1"/>
       <c r="Y461" s="1"/>
       <c r="Z461" s="1"/>
+      <c r="AA461" s="1"/>
+      <c r="AB461" s="1"/>
     </row>
     <row r="462">
       <c r="A462" s="1"/>
@@ -15734,6 +16725,8 @@
       <c r="X462" s="1"/>
       <c r="Y462" s="1"/>
       <c r="Z462" s="1"/>
+      <c r="AA462" s="1"/>
+      <c r="AB462" s="1"/>
     </row>
     <row r="463">
       <c r="A463" s="1"/>
@@ -15762,6 +16755,8 @@
       <c r="X463" s="1"/>
       <c r="Y463" s="1"/>
       <c r="Z463" s="1"/>
+      <c r="AA463" s="1"/>
+      <c r="AB463" s="1"/>
     </row>
     <row r="464">
       <c r="A464" s="1"/>
@@ -15790,6 +16785,8 @@
       <c r="X464" s="1"/>
       <c r="Y464" s="1"/>
       <c r="Z464" s="1"/>
+      <c r="AA464" s="1"/>
+      <c r="AB464" s="1"/>
     </row>
     <row r="465">
       <c r="A465" s="1"/>
@@ -15818,6 +16815,8 @@
       <c r="X465" s="1"/>
       <c r="Y465" s="1"/>
       <c r="Z465" s="1"/>
+      <c r="AA465" s="1"/>
+      <c r="AB465" s="1"/>
     </row>
     <row r="466">
       <c r="A466" s="1"/>
@@ -15846,6 +16845,8 @@
       <c r="X466" s="1"/>
       <c r="Y466" s="1"/>
       <c r="Z466" s="1"/>
+      <c r="AA466" s="1"/>
+      <c r="AB466" s="1"/>
     </row>
     <row r="467">
       <c r="A467" s="1"/>
@@ -15874,6 +16875,8 @@
       <c r="X467" s="1"/>
       <c r="Y467" s="1"/>
       <c r="Z467" s="1"/>
+      <c r="AA467" s="1"/>
+      <c r="AB467" s="1"/>
     </row>
     <row r="468">
       <c r="A468" s="1"/>
@@ -15902,6 +16905,8 @@
       <c r="X468" s="1"/>
       <c r="Y468" s="1"/>
       <c r="Z468" s="1"/>
+      <c r="AA468" s="1"/>
+      <c r="AB468" s="1"/>
     </row>
     <row r="469">
       <c r="A469" s="1"/>
@@ -15930,6 +16935,8 @@
       <c r="X469" s="1"/>
       <c r="Y469" s="1"/>
       <c r="Z469" s="1"/>
+      <c r="AA469" s="1"/>
+      <c r="AB469" s="1"/>
     </row>
     <row r="470">
       <c r="A470" s="1"/>
@@ -15958,6 +16965,8 @@
       <c r="X470" s="1"/>
       <c r="Y470" s="1"/>
       <c r="Z470" s="1"/>
+      <c r="AA470" s="1"/>
+      <c r="AB470" s="1"/>
     </row>
     <row r="471">
       <c r="A471" s="1"/>
@@ -15986,6 +16995,8 @@
       <c r="X471" s="1"/>
       <c r="Y471" s="1"/>
       <c r="Z471" s="1"/>
+      <c r="AA471" s="1"/>
+      <c r="AB471" s="1"/>
     </row>
     <row r="472">
       <c r="A472" s="1"/>
@@ -16014,6 +17025,8 @@
       <c r="X472" s="1"/>
       <c r="Y472" s="1"/>
       <c r="Z472" s="1"/>
+      <c r="AA472" s="1"/>
+      <c r="AB472" s="1"/>
     </row>
     <row r="473">
       <c r="A473" s="1"/>
@@ -16042,6 +17055,8 @@
       <c r="X473" s="1"/>
       <c r="Y473" s="1"/>
       <c r="Z473" s="1"/>
+      <c r="AA473" s="1"/>
+      <c r="AB473" s="1"/>
     </row>
     <row r="474">
       <c r="A474" s="1"/>
@@ -16070,6 +17085,8 @@
       <c r="X474" s="1"/>
       <c r="Y474" s="1"/>
       <c r="Z474" s="1"/>
+      <c r="AA474" s="1"/>
+      <c r="AB474" s="1"/>
     </row>
     <row r="475">
       <c r="A475" s="1"/>
@@ -16098,6 +17115,8 @@
       <c r="X475" s="1"/>
       <c r="Y475" s="1"/>
       <c r="Z475" s="1"/>
+      <c r="AA475" s="1"/>
+      <c r="AB475" s="1"/>
     </row>
     <row r="476">
       <c r="A476" s="1"/>
@@ -16126,6 +17145,8 @@
       <c r="X476" s="1"/>
       <c r="Y476" s="1"/>
       <c r="Z476" s="1"/>
+      <c r="AA476" s="1"/>
+      <c r="AB476" s="1"/>
     </row>
     <row r="477">
       <c r="A477" s="1"/>
@@ -16154,6 +17175,8 @@
       <c r="X477" s="1"/>
       <c r="Y477" s="1"/>
       <c r="Z477" s="1"/>
+      <c r="AA477" s="1"/>
+      <c r="AB477" s="1"/>
     </row>
     <row r="478">
       <c r="A478" s="1"/>
@@ -16182,6 +17205,8 @@
       <c r="X478" s="1"/>
       <c r="Y478" s="1"/>
       <c r="Z478" s="1"/>
+      <c r="AA478" s="1"/>
+      <c r="AB478" s="1"/>
     </row>
     <row r="479">
       <c r="A479" s="1"/>
@@ -16210,6 +17235,8 @@
       <c r="X479" s="1"/>
       <c r="Y479" s="1"/>
       <c r="Z479" s="1"/>
+      <c r="AA479" s="1"/>
+      <c r="AB479" s="1"/>
     </row>
     <row r="480">
       <c r="A480" s="1"/>
@@ -16238,6 +17265,8 @@
       <c r="X480" s="1"/>
       <c r="Y480" s="1"/>
       <c r="Z480" s="1"/>
+      <c r="AA480" s="1"/>
+      <c r="AB480" s="1"/>
     </row>
     <row r="481">
       <c r="A481" s="1"/>
@@ -16266,6 +17295,8 @@
       <c r="X481" s="1"/>
       <c r="Y481" s="1"/>
       <c r="Z481" s="1"/>
+      <c r="AA481" s="1"/>
+      <c r="AB481" s="1"/>
     </row>
     <row r="482">
       <c r="A482" s="1"/>
@@ -16294,6 +17325,8 @@
       <c r="X482" s="1"/>
       <c r="Y482" s="1"/>
       <c r="Z482" s="1"/>
+      <c r="AA482" s="1"/>
+      <c r="AB482" s="1"/>
     </row>
     <row r="483">
       <c r="A483" s="1"/>
@@ -16322,6 +17355,8 @@
       <c r="X483" s="1"/>
       <c r="Y483" s="1"/>
       <c r="Z483" s="1"/>
+      <c r="AA483" s="1"/>
+      <c r="AB483" s="1"/>
     </row>
     <row r="484">
       <c r="A484" s="1"/>
@@ -16350,6 +17385,8 @@
       <c r="X484" s="1"/>
       <c r="Y484" s="1"/>
       <c r="Z484" s="1"/>
+      <c r="AA484" s="1"/>
+      <c r="AB484" s="1"/>
     </row>
     <row r="485">
       <c r="A485" s="1"/>
@@ -16378,6 +17415,8 @@
       <c r="X485" s="1"/>
       <c r="Y485" s="1"/>
       <c r="Z485" s="1"/>
+      <c r="AA485" s="1"/>
+      <c r="AB485" s="1"/>
     </row>
     <row r="486">
       <c r="A486" s="1"/>
@@ -16406,6 +17445,8 @@
       <c r="X486" s="1"/>
       <c r="Y486" s="1"/>
       <c r="Z486" s="1"/>
+      <c r="AA486" s="1"/>
+      <c r="AB486" s="1"/>
     </row>
     <row r="487">
       <c r="A487" s="1"/>
@@ -16434,6 +17475,8 @@
       <c r="X487" s="1"/>
       <c r="Y487" s="1"/>
       <c r="Z487" s="1"/>
+      <c r="AA487" s="1"/>
+      <c r="AB487" s="1"/>
     </row>
     <row r="488">
       <c r="A488" s="1"/>
@@ -16462,6 +17505,8 @@
       <c r="X488" s="1"/>
       <c r="Y488" s="1"/>
       <c r="Z488" s="1"/>
+      <c r="AA488" s="1"/>
+      <c r="AB488" s="1"/>
     </row>
     <row r="489">
       <c r="A489" s="1"/>
@@ -16490,6 +17535,8 @@
       <c r="X489" s="1"/>
       <c r="Y489" s="1"/>
       <c r="Z489" s="1"/>
+      <c r="AA489" s="1"/>
+      <c r="AB489" s="1"/>
     </row>
     <row r="490">
       <c r="A490" s="1"/>
@@ -16518,6 +17565,8 @@
       <c r="X490" s="1"/>
       <c r="Y490" s="1"/>
       <c r="Z490" s="1"/>
+      <c r="AA490" s="1"/>
+      <c r="AB490" s="1"/>
     </row>
     <row r="491">
       <c r="A491" s="1"/>
@@ -16546,6 +17595,8 @@
       <c r="X491" s="1"/>
       <c r="Y491" s="1"/>
       <c r="Z491" s="1"/>
+      <c r="AA491" s="1"/>
+      <c r="AB491" s="1"/>
     </row>
     <row r="492">
       <c r="A492" s="1"/>
@@ -16574,6 +17625,8 @@
       <c r="X492" s="1"/>
       <c r="Y492" s="1"/>
       <c r="Z492" s="1"/>
+      <c r="AA492" s="1"/>
+      <c r="AB492" s="1"/>
     </row>
     <row r="493">
       <c r="A493" s="1"/>
@@ -16602,6 +17655,8 @@
       <c r="X493" s="1"/>
       <c r="Y493" s="1"/>
       <c r="Z493" s="1"/>
+      <c r="AA493" s="1"/>
+      <c r="AB493" s="1"/>
     </row>
     <row r="494">
       <c r="A494" s="1"/>
@@ -16630,6 +17685,8 @@
       <c r="X494" s="1"/>
       <c r="Y494" s="1"/>
       <c r="Z494" s="1"/>
+      <c r="AA494" s="1"/>
+      <c r="AB494" s="1"/>
     </row>
     <row r="495">
       <c r="A495" s="1"/>
@@ -16658,6 +17715,8 @@
       <c r="X495" s="1"/>
       <c r="Y495" s="1"/>
       <c r="Z495" s="1"/>
+      <c r="AA495" s="1"/>
+      <c r="AB495" s="1"/>
     </row>
     <row r="496">
       <c r="A496" s="1"/>
@@ -16686,6 +17745,8 @@
       <c r="X496" s="1"/>
       <c r="Y496" s="1"/>
       <c r="Z496" s="1"/>
+      <c r="AA496" s="1"/>
+      <c r="AB496" s="1"/>
     </row>
     <row r="497">
       <c r="A497" s="1"/>
@@ -16714,6 +17775,8 @@
       <c r="X497" s="1"/>
       <c r="Y497" s="1"/>
       <c r="Z497" s="1"/>
+      <c r="AA497" s="1"/>
+      <c r="AB497" s="1"/>
     </row>
     <row r="498">
       <c r="A498" s="1"/>
@@ -16742,6 +17805,8 @@
       <c r="X498" s="1"/>
       <c r="Y498" s="1"/>
       <c r="Z498" s="1"/>
+      <c r="AA498" s="1"/>
+      <c r="AB498" s="1"/>
     </row>
     <row r="499">
       <c r="A499" s="1"/>
@@ -16770,6 +17835,8 @@
       <c r="X499" s="1"/>
       <c r="Y499" s="1"/>
       <c r="Z499" s="1"/>
+      <c r="AA499" s="1"/>
+      <c r="AB499" s="1"/>
     </row>
     <row r="500">
       <c r="A500" s="1"/>
@@ -16798,6 +17865,8 @@
       <c r="X500" s="1"/>
       <c r="Y500" s="1"/>
       <c r="Z500" s="1"/>
+      <c r="AA500" s="1"/>
+      <c r="AB500" s="1"/>
     </row>
     <row r="501">
       <c r="A501" s="1"/>
@@ -16826,6 +17895,8 @@
       <c r="X501" s="1"/>
       <c r="Y501" s="1"/>
       <c r="Z501" s="1"/>
+      <c r="AA501" s="1"/>
+      <c r="AB501" s="1"/>
     </row>
     <row r="502">
       <c r="A502" s="1"/>
@@ -16854,6 +17925,8 @@
       <c r="X502" s="1"/>
       <c r="Y502" s="1"/>
       <c r="Z502" s="1"/>
+      <c r="AA502" s="1"/>
+      <c r="AB502" s="1"/>
     </row>
     <row r="503">
       <c r="A503" s="1"/>
@@ -16882,6 +17955,8 @@
       <c r="X503" s="1"/>
       <c r="Y503" s="1"/>
       <c r="Z503" s="1"/>
+      <c r="AA503" s="1"/>
+      <c r="AB503" s="1"/>
     </row>
     <row r="504">
       <c r="A504" s="1"/>
@@ -16910,6 +17985,8 @@
       <c r="X504" s="1"/>
       <c r="Y504" s="1"/>
       <c r="Z504" s="1"/>
+      <c r="AA504" s="1"/>
+      <c r="AB504" s="1"/>
     </row>
     <row r="505">
       <c r="A505" s="1"/>
@@ -16938,6 +18015,8 @@
       <c r="X505" s="1"/>
       <c r="Y505" s="1"/>
       <c r="Z505" s="1"/>
+      <c r="AA505" s="1"/>
+      <c r="AB505" s="1"/>
     </row>
     <row r="506">
       <c r="A506" s="1"/>
@@ -16966,6 +18045,8 @@
       <c r="X506" s="1"/>
       <c r="Y506" s="1"/>
       <c r="Z506" s="1"/>
+      <c r="AA506" s="1"/>
+      <c r="AB506" s="1"/>
     </row>
     <row r="507">
       <c r="A507" s="1"/>
@@ -16994,6 +18075,8 @@
       <c r="X507" s="1"/>
       <c r="Y507" s="1"/>
       <c r="Z507" s="1"/>
+      <c r="AA507" s="1"/>
+      <c r="AB507" s="1"/>
     </row>
     <row r="508">
       <c r="A508" s="1"/>
@@ -17022,6 +18105,8 @@
       <c r="X508" s="1"/>
       <c r="Y508" s="1"/>
       <c r="Z508" s="1"/>
+      <c r="AA508" s="1"/>
+      <c r="AB508" s="1"/>
     </row>
     <row r="509">
       <c r="A509" s="1"/>
@@ -17050,6 +18135,8 @@
       <c r="X509" s="1"/>
       <c r="Y509" s="1"/>
       <c r="Z509" s="1"/>
+      <c r="AA509" s="1"/>
+      <c r="AB509" s="1"/>
     </row>
     <row r="510">
       <c r="A510" s="1"/>
@@ -17078,6 +18165,8 @@
       <c r="X510" s="1"/>
       <c r="Y510" s="1"/>
       <c r="Z510" s="1"/>
+      <c r="AA510" s="1"/>
+      <c r="AB510" s="1"/>
     </row>
     <row r="511">
       <c r="A511" s="1"/>
@@ -17106,6 +18195,8 @@
       <c r="X511" s="1"/>
       <c r="Y511" s="1"/>
       <c r="Z511" s="1"/>
+      <c r="AA511" s="1"/>
+      <c r="AB511" s="1"/>
     </row>
     <row r="512">
       <c r="A512" s="1"/>
@@ -17134,6 +18225,8 @@
       <c r="X512" s="1"/>
       <c r="Y512" s="1"/>
       <c r="Z512" s="1"/>
+      <c r="AA512" s="1"/>
+      <c r="AB512" s="1"/>
     </row>
     <row r="513">
       <c r="A513" s="1"/>
@@ -17162,6 +18255,8 @@
       <c r="X513" s="1"/>
       <c r="Y513" s="1"/>
       <c r="Z513" s="1"/>
+      <c r="AA513" s="1"/>
+      <c r="AB513" s="1"/>
     </row>
     <row r="514">
       <c r="A514" s="1"/>
@@ -17190,6 +18285,8 @@
       <c r="X514" s="1"/>
       <c r="Y514" s="1"/>
       <c r="Z514" s="1"/>
+      <c r="AA514" s="1"/>
+      <c r="AB514" s="1"/>
     </row>
     <row r="515">
       <c r="A515" s="1"/>
@@ -17218,6 +18315,8 @@
       <c r="X515" s="1"/>
       <c r="Y515" s="1"/>
       <c r="Z515" s="1"/>
+      <c r="AA515" s="1"/>
+      <c r="AB515" s="1"/>
     </row>
     <row r="516">
       <c r="A516" s="1"/>
@@ -17246,6 +18345,8 @@
       <c r="X516" s="1"/>
       <c r="Y516" s="1"/>
       <c r="Z516" s="1"/>
+      <c r="AA516" s="1"/>
+      <c r="AB516" s="1"/>
     </row>
     <row r="517">
       <c r="A517" s="1"/>
@@ -17274,6 +18375,8 @@
       <c r="X517" s="1"/>
       <c r="Y517" s="1"/>
       <c r="Z517" s="1"/>
+      <c r="AA517" s="1"/>
+      <c r="AB517" s="1"/>
     </row>
     <row r="518">
       <c r="A518" s="1"/>
@@ -17302,6 +18405,8 @@
       <c r="X518" s="1"/>
       <c r="Y518" s="1"/>
       <c r="Z518" s="1"/>
+      <c r="AA518" s="1"/>
+      <c r="AB518" s="1"/>
     </row>
     <row r="519">
       <c r="A519" s="1"/>
@@ -17330,6 +18435,8 @@
       <c r="X519" s="1"/>
       <c r="Y519" s="1"/>
       <c r="Z519" s="1"/>
+      <c r="AA519" s="1"/>
+      <c r="AB519" s="1"/>
     </row>
     <row r="520">
       <c r="A520" s="1"/>
@@ -17358,6 +18465,8 @@
       <c r="X520" s="1"/>
       <c r="Y520" s="1"/>
       <c r="Z520" s="1"/>
+      <c r="AA520" s="1"/>
+      <c r="AB520" s="1"/>
     </row>
     <row r="521">
       <c r="A521" s="1"/>
@@ -17386,6 +18495,8 @@
       <c r="X521" s="1"/>
       <c r="Y521" s="1"/>
       <c r="Z521" s="1"/>
+      <c r="AA521" s="1"/>
+      <c r="AB521" s="1"/>
     </row>
     <row r="522">
       <c r="A522" s="1"/>
@@ -17414,6 +18525,8 @@
       <c r="X522" s="1"/>
       <c r="Y522" s="1"/>
       <c r="Z522" s="1"/>
+      <c r="AA522" s="1"/>
+      <c r="AB522" s="1"/>
     </row>
     <row r="523">
       <c r="A523" s="1"/>
@@ -17442,6 +18555,8 @@
       <c r="X523" s="1"/>
       <c r="Y523" s="1"/>
       <c r="Z523" s="1"/>
+      <c r="AA523" s="1"/>
+      <c r="AB523" s="1"/>
     </row>
     <row r="524">
       <c r="A524" s="1"/>
@@ -17470,6 +18585,8 @@
       <c r="X524" s="1"/>
       <c r="Y524" s="1"/>
       <c r="Z524" s="1"/>
+      <c r="AA524" s="1"/>
+      <c r="AB524" s="1"/>
     </row>
     <row r="525">
       <c r="A525" s="1"/>
@@ -17498,6 +18615,8 @@
       <c r="X525" s="1"/>
       <c r="Y525" s="1"/>
       <c r="Z525" s="1"/>
+      <c r="AA525" s="1"/>
+      <c r="AB525" s="1"/>
     </row>
     <row r="526">
       <c r="A526" s="1"/>
@@ -17526,6 +18645,8 @@
       <c r="X526" s="1"/>
       <c r="Y526" s="1"/>
       <c r="Z526" s="1"/>
+      <c r="AA526" s="1"/>
+      <c r="AB526" s="1"/>
     </row>
     <row r="527">
       <c r="A527" s="1"/>
@@ -17554,6 +18675,8 @@
       <c r="X527" s="1"/>
       <c r="Y527" s="1"/>
       <c r="Z527" s="1"/>
+      <c r="AA527" s="1"/>
+      <c r="AB527" s="1"/>
     </row>
     <row r="528">
       <c r="A528" s="1"/>
@@ -17582,6 +18705,8 @@
       <c r="X528" s="1"/>
       <c r="Y528" s="1"/>
       <c r="Z528" s="1"/>
+      <c r="AA528" s="1"/>
+      <c r="AB528" s="1"/>
     </row>
     <row r="529">
       <c r="A529" s="1"/>
@@ -17610,6 +18735,8 @@
       <c r="X529" s="1"/>
       <c r="Y529" s="1"/>
       <c r="Z529" s="1"/>
+      <c r="AA529" s="1"/>
+      <c r="AB529" s="1"/>
     </row>
     <row r="530">
       <c r="A530" s="1"/>
@@ -17638,6 +18765,8 @@
       <c r="X530" s="1"/>
       <c r="Y530" s="1"/>
       <c r="Z530" s="1"/>
+      <c r="AA530" s="1"/>
+      <c r="AB530" s="1"/>
     </row>
     <row r="531">
       <c r="A531" s="1"/>
@@ -17666,6 +18795,8 @@
       <c r="X531" s="1"/>
       <c r="Y531" s="1"/>
       <c r="Z531" s="1"/>
+      <c r="AA531" s="1"/>
+      <c r="AB531" s="1"/>
     </row>
     <row r="532">
       <c r="A532" s="1"/>
@@ -17694,6 +18825,8 @@
       <c r="X532" s="1"/>
       <c r="Y532" s="1"/>
       <c r="Z532" s="1"/>
+      <c r="AA532" s="1"/>
+      <c r="AB532" s="1"/>
     </row>
     <row r="533">
       <c r="A533" s="1"/>
@@ -17722,6 +18855,8 @@
       <c r="X533" s="1"/>
       <c r="Y533" s="1"/>
       <c r="Z533" s="1"/>
+      <c r="AA533" s="1"/>
+      <c r="AB533" s="1"/>
     </row>
     <row r="534">
       <c r="A534" s="1"/>
@@ -17750,6 +18885,8 @@
       <c r="X534" s="1"/>
       <c r="Y534" s="1"/>
       <c r="Z534" s="1"/>
+      <c r="AA534" s="1"/>
+      <c r="AB534" s="1"/>
     </row>
     <row r="535">
       <c r="A535" s="1"/>
@@ -17778,6 +18915,8 @@
       <c r="X535" s="1"/>
       <c r="Y535" s="1"/>
       <c r="Z535" s="1"/>
+      <c r="AA535" s="1"/>
+      <c r="AB535" s="1"/>
     </row>
     <row r="536">
       <c r="A536" s="1"/>
@@ -17806,6 +18945,8 @@
       <c r="X536" s="1"/>
       <c r="Y536" s="1"/>
       <c r="Z536" s="1"/>
+      <c r="AA536" s="1"/>
+      <c r="AB536" s="1"/>
     </row>
     <row r="537">
       <c r="A537" s="1"/>
@@ -17834,6 +18975,8 @@
       <c r="X537" s="1"/>
       <c r="Y537" s="1"/>
       <c r="Z537" s="1"/>
+      <c r="AA537" s="1"/>
+      <c r="AB537" s="1"/>
     </row>
     <row r="538">
       <c r="A538" s="1"/>
@@ -17862,6 +19005,8 @@
       <c r="X538" s="1"/>
       <c r="Y538" s="1"/>
       <c r="Z538" s="1"/>
+      <c r="AA538" s="1"/>
+      <c r="AB538" s="1"/>
     </row>
     <row r="539">
       <c r="A539" s="1"/>
@@ -17890,6 +19035,8 @@
       <c r="X539" s="1"/>
       <c r="Y539" s="1"/>
       <c r="Z539" s="1"/>
+      <c r="AA539" s="1"/>
+      <c r="AB539" s="1"/>
     </row>
     <row r="540">
       <c r="A540" s="1"/>
@@ -17918,6 +19065,8 @@
       <c r="X540" s="1"/>
       <c r="Y540" s="1"/>
       <c r="Z540" s="1"/>
+      <c r="AA540" s="1"/>
+      <c r="AB540" s="1"/>
     </row>
     <row r="541">
       <c r="A541" s="1"/>
@@ -17946,6 +19095,8 @@
       <c r="X541" s="1"/>
       <c r="Y541" s="1"/>
       <c r="Z541" s="1"/>
+      <c r="AA541" s="1"/>
+      <c r="AB541" s="1"/>
     </row>
     <row r="542">
       <c r="A542" s="1"/>
@@ -17974,6 +19125,8 @@
       <c r="X542" s="1"/>
       <c r="Y542" s="1"/>
       <c r="Z542" s="1"/>
+      <c r="AA542" s="1"/>
+      <c r="AB542" s="1"/>
     </row>
     <row r="543">
       <c r="A543" s="1"/>
@@ -18002,6 +19155,8 @@
       <c r="X543" s="1"/>
       <c r="Y543" s="1"/>
       <c r="Z543" s="1"/>
+      <c r="AA543" s="1"/>
+      <c r="AB543" s="1"/>
     </row>
     <row r="544">
       <c r="A544" s="1"/>
@@ -18030,6 +19185,8 @@
       <c r="X544" s="1"/>
       <c r="Y544" s="1"/>
       <c r="Z544" s="1"/>
+      <c r="AA544" s="1"/>
+      <c r="AB544" s="1"/>
     </row>
     <row r="545">
       <c r="A545" s="1"/>
@@ -18058,6 +19215,8 @@
       <c r="X545" s="1"/>
       <c r="Y545" s="1"/>
       <c r="Z545" s="1"/>
+      <c r="AA545" s="1"/>
+      <c r="AB545" s="1"/>
     </row>
     <row r="546">
       <c r="A546" s="1"/>
@@ -18086,6 +19245,8 @@
       <c r="X546" s="1"/>
       <c r="Y546" s="1"/>
       <c r="Z546" s="1"/>
+      <c r="AA546" s="1"/>
+      <c r="AB546" s="1"/>
     </row>
     <row r="547">
       <c r="A547" s="1"/>
@@ -18114,6 +19275,8 @@
       <c r="X547" s="1"/>
       <c r="Y547" s="1"/>
       <c r="Z547" s="1"/>
+      <c r="AA547" s="1"/>
+      <c r="AB547" s="1"/>
     </row>
     <row r="548">
       <c r="A548" s="1"/>
@@ -18142,6 +19305,8 @@
       <c r="X548" s="1"/>
       <c r="Y548" s="1"/>
       <c r="Z548" s="1"/>
+      <c r="AA548" s="1"/>
+      <c r="AB548" s="1"/>
     </row>
     <row r="549">
       <c r="A549" s="1"/>
@@ -18170,6 +19335,8 @@
       <c r="X549" s="1"/>
       <c r="Y549" s="1"/>
       <c r="Z549" s="1"/>
+      <c r="AA549" s="1"/>
+      <c r="AB549" s="1"/>
     </row>
     <row r="550">
       <c r="A550" s="1"/>
@@ -18198,6 +19365,8 @@
       <c r="X550" s="1"/>
       <c r="Y550" s="1"/>
       <c r="Z550" s="1"/>
+      <c r="AA550" s="1"/>
+      <c r="AB550" s="1"/>
     </row>
     <row r="551">
       <c r="A551" s="1"/>
@@ -18226,6 +19395,8 @@
       <c r="X551" s="1"/>
       <c r="Y551" s="1"/>
       <c r="Z551" s="1"/>
+      <c r="AA551" s="1"/>
+      <c r="AB551" s="1"/>
     </row>
     <row r="552">
       <c r="A552" s="1"/>
@@ -18254,6 +19425,8 @@
       <c r="X552" s="1"/>
       <c r="Y552" s="1"/>
       <c r="Z552" s="1"/>
+      <c r="AA552" s="1"/>
+      <c r="AB552" s="1"/>
     </row>
     <row r="553">
       <c r="A553" s="1"/>
@@ -18282,6 +19455,8 @@
       <c r="X553" s="1"/>
       <c r="Y553" s="1"/>
       <c r="Z553" s="1"/>
+      <c r="AA553" s="1"/>
+      <c r="AB553" s="1"/>
     </row>
     <row r="554">
       <c r="A554" s="1"/>
@@ -18310,6 +19485,8 @@
       <c r="X554" s="1"/>
       <c r="Y554" s="1"/>
       <c r="Z554" s="1"/>
+      <c r="AA554" s="1"/>
+      <c r="AB554" s="1"/>
     </row>
     <row r="555">
       <c r="A555" s="1"/>
@@ -18338,6 +19515,8 @@
       <c r="X555" s="1"/>
       <c r="Y555" s="1"/>
       <c r="Z555" s="1"/>
+      <c r="AA555" s="1"/>
+      <c r="AB555" s="1"/>
     </row>
     <row r="556">
       <c r="A556" s="1"/>
@@ -18366,6 +19545,8 @@
       <c r="X556" s="1"/>
       <c r="Y556" s="1"/>
       <c r="Z556" s="1"/>
+      <c r="AA556" s="1"/>
+      <c r="AB556" s="1"/>
     </row>
     <row r="557">
       <c r="A557" s="1"/>
@@ -18394,6 +19575,8 @@
       <c r="X557" s="1"/>
       <c r="Y557" s="1"/>
       <c r="Z557" s="1"/>
+      <c r="AA557" s="1"/>
+      <c r="AB557" s="1"/>
     </row>
     <row r="558">
       <c r="A558" s="1"/>
@@ -18422,6 +19605,8 @@
       <c r="X558" s="1"/>
       <c r="Y558" s="1"/>
       <c r="Z558" s="1"/>
+      <c r="AA558" s="1"/>
+      <c r="AB558" s="1"/>
     </row>
     <row r="559">
       <c r="A559" s="1"/>
@@ -18450,6 +19635,8 @@
       <c r="X559" s="1"/>
       <c r="Y559" s="1"/>
       <c r="Z559" s="1"/>
+      <c r="AA559" s="1"/>
+      <c r="AB559" s="1"/>
     </row>
     <row r="560">
       <c r="A560" s="1"/>
@@ -18478,6 +19665,8 @@
       <c r="X560" s="1"/>
       <c r="Y560" s="1"/>
       <c r="Z560" s="1"/>
+      <c r="AA560" s="1"/>
+      <c r="AB560" s="1"/>
     </row>
     <row r="561">
       <c r="A561" s="1"/>
@@ -18506,6 +19695,8 @@
       <c r="X561" s="1"/>
       <c r="Y561" s="1"/>
       <c r="Z561" s="1"/>
+      <c r="AA561" s="1"/>
+      <c r="AB561" s="1"/>
     </row>
     <row r="562">
       <c r="A562" s="1"/>
@@ -18534,6 +19725,8 @@
       <c r="X562" s="1"/>
       <c r="Y562" s="1"/>
       <c r="Z562" s="1"/>
+      <c r="AA562" s="1"/>
+      <c r="AB562" s="1"/>
     </row>
     <row r="563">
       <c r="A563" s="1"/>
@@ -18562,6 +19755,8 @@
       <c r="X563" s="1"/>
       <c r="Y563" s="1"/>
       <c r="Z563" s="1"/>
+      <c r="AA563" s="1"/>
+      <c r="AB563" s="1"/>
     </row>
     <row r="564">
       <c r="A564" s="1"/>
@@ -18590,6 +19785,8 @@
       <c r="X564" s="1"/>
       <c r="Y564" s="1"/>
       <c r="Z564" s="1"/>
+      <c r="AA564" s="1"/>
+      <c r="AB564" s="1"/>
     </row>
     <row r="565">
       <c r="A565" s="1"/>
@@ -18618,6 +19815,8 @@
       <c r="X565" s="1"/>
       <c r="Y565" s="1"/>
       <c r="Z565" s="1"/>
+      <c r="AA565" s="1"/>
+      <c r="AB565" s="1"/>
     </row>
     <row r="566">
       <c r="A566" s="1"/>
@@ -18646,6 +19845,8 @@
       <c r="X566" s="1"/>
       <c r="Y566" s="1"/>
       <c r="Z566" s="1"/>
+      <c r="AA566" s="1"/>
+      <c r="AB566" s="1"/>
     </row>
     <row r="567">
       <c r="A567" s="1"/>
@@ -18674,6 +19875,8 @@
       <c r="X567" s="1"/>
       <c r="Y567" s="1"/>
       <c r="Z567" s="1"/>
+      <c r="AA567" s="1"/>
+      <c r="AB567" s="1"/>
     </row>
     <row r="568">
       <c r="A568" s="1"/>
@@ -18702,6 +19905,8 @@
       <c r="X568" s="1"/>
       <c r="Y568" s="1"/>
       <c r="Z568" s="1"/>
+      <c r="AA568" s="1"/>
+      <c r="AB568" s="1"/>
     </row>
     <row r="569">
       <c r="A569" s="1"/>
@@ -18730,6 +19935,8 @@
       <c r="X569" s="1"/>
       <c r="Y569" s="1"/>
       <c r="Z569" s="1"/>
+      <c r="AA569" s="1"/>
+      <c r="AB569" s="1"/>
     </row>
     <row r="570">
       <c r="A570" s="1"/>
@@ -18758,6 +19965,8 @@
       <c r="X570" s="1"/>
       <c r="Y570" s="1"/>
       <c r="Z570" s="1"/>
+      <c r="AA570" s="1"/>
+      <c r="AB570" s="1"/>
     </row>
     <row r="571">
       <c r="A571" s="1"/>
@@ -18786,6 +19995,8 @@
       <c r="X571" s="1"/>
       <c r="Y571" s="1"/>
       <c r="Z571" s="1"/>
+      <c r="AA571" s="1"/>
+      <c r="AB571" s="1"/>
     </row>
     <row r="572">
       <c r="A572" s="1"/>
@@ -18814,6 +20025,8 @@
       <c r="X572" s="1"/>
       <c r="Y572" s="1"/>
       <c r="Z572" s="1"/>
+      <c r="AA572" s="1"/>
+      <c r="AB572" s="1"/>
     </row>
     <row r="573">
       <c r="A573" s="1"/>
@@ -18842,6 +20055,8 @@
       <c r="X573" s="1"/>
       <c r="Y573" s="1"/>
       <c r="Z573" s="1"/>
+      <c r="AA573" s="1"/>
+      <c r="AB573" s="1"/>
     </row>
     <row r="574">
       <c r="A574" s="1"/>
@@ -18870,6 +20085,8 @@
       <c r="X574" s="1"/>
       <c r="Y574" s="1"/>
       <c r="Z574" s="1"/>
+      <c r="AA574" s="1"/>
+      <c r="AB574" s="1"/>
     </row>
     <row r="575">
       <c r="A575" s="1"/>
@@ -18898,6 +20115,8 @@
       <c r="X575" s="1"/>
       <c r="Y575" s="1"/>
       <c r="Z575" s="1"/>
+      <c r="AA575" s="1"/>
+      <c r="AB575" s="1"/>
     </row>
     <row r="576">
       <c r="A576" s="1"/>
@@ -18926,6 +20145,8 @@
       <c r="X576" s="1"/>
       <c r="Y576" s="1"/>
       <c r="Z576" s="1"/>
+      <c r="AA576" s="1"/>
+      <c r="AB576" s="1"/>
     </row>
     <row r="577">
       <c r="A577" s="1"/>
@@ -18954,6 +20175,8 @@
       <c r="X577" s="1"/>
       <c r="Y577" s="1"/>
       <c r="Z577" s="1"/>
+      <c r="AA577" s="1"/>
+      <c r="AB577" s="1"/>
     </row>
     <row r="578">
       <c r="A578" s="1"/>
@@ -18982,6 +20205,8 @@
       <c r="X578" s="1"/>
       <c r="Y578" s="1"/>
       <c r="Z578" s="1"/>
+      <c r="AA578" s="1"/>
+      <c r="AB578" s="1"/>
     </row>
     <row r="579">
       <c r="A579" s="1"/>
@@ -19010,6 +20235,8 @@
       <c r="X579" s="1"/>
       <c r="Y579" s="1"/>
       <c r="Z579" s="1"/>
+      <c r="AA579" s="1"/>
+      <c r="AB579" s="1"/>
     </row>
     <row r="580">
       <c r="A580" s="1"/>
@@ -19038,6 +20265,8 @@
       <c r="X580" s="1"/>
       <c r="Y580" s="1"/>
       <c r="Z580" s="1"/>
+      <c r="AA580" s="1"/>
+      <c r="AB580" s="1"/>
     </row>
     <row r="581">
       <c r="A581" s="1"/>
@@ -19066,6 +20295,8 @@
       <c r="X581" s="1"/>
       <c r="Y581" s="1"/>
       <c r="Z581" s="1"/>
+      <c r="AA581" s="1"/>
+      <c r="AB581" s="1"/>
     </row>
     <row r="582">
       <c r="A582" s="1"/>
@@ -19094,6 +20325,8 @@
       <c r="X582" s="1"/>
       <c r="Y582" s="1"/>
       <c r="Z582" s="1"/>
+      <c r="AA582" s="1"/>
+      <c r="AB582" s="1"/>
     </row>
     <row r="583">
       <c r="A583" s="1"/>
@@ -19122,6 +20355,8 @@
       <c r="X583" s="1"/>
       <c r="Y583" s="1"/>
       <c r="Z583" s="1"/>
+      <c r="AA583" s="1"/>
+      <c r="AB583" s="1"/>
     </row>
     <row r="584">
       <c r="A584" s="1"/>
@@ -19150,6 +20385,8 @@
       <c r="X584" s="1"/>
       <c r="Y584" s="1"/>
       <c r="Z584" s="1"/>
+      <c r="AA584" s="1"/>
+      <c r="AB584" s="1"/>
     </row>
     <row r="585">
       <c r="A585" s="1"/>
@@ -19178,6 +20415,8 @@
       <c r="X585" s="1"/>
       <c r="Y585" s="1"/>
       <c r="Z585" s="1"/>
+      <c r="AA585" s="1"/>
+      <c r="AB585" s="1"/>
     </row>
     <row r="586">
       <c r="A586" s="1"/>
@@ -19206,6 +20445,8 @@
       <c r="X586" s="1"/>
       <c r="Y586" s="1"/>
       <c r="Z586" s="1"/>
+      <c r="AA586" s="1"/>
+      <c r="AB586" s="1"/>
     </row>
     <row r="587">
       <c r="A587" s="1"/>
@@ -19234,6 +20475,8 @@
       <c r="X587" s="1"/>
       <c r="Y587" s="1"/>
       <c r="Z587" s="1"/>
+      <c r="AA587" s="1"/>
+      <c r="AB587" s="1"/>
     </row>
     <row r="588">
       <c r="A588" s="1"/>
@@ -19262,6 +20505,8 @@
       <c r="X588" s="1"/>
       <c r="Y588" s="1"/>
       <c r="Z588" s="1"/>
+      <c r="AA588" s="1"/>
+      <c r="AB588" s="1"/>
     </row>
     <row r="589">
       <c r="A589" s="1"/>
@@ -19290,6 +20535,8 @@
       <c r="X589" s="1"/>
       <c r="Y589" s="1"/>
       <c r="Z589" s="1"/>
+      <c r="AA589" s="1"/>
+      <c r="AB589" s="1"/>
     </row>
     <row r="590">
       <c r="A590" s="1"/>
@@ -19318,6 +20565,8 @@
       <c r="X590" s="1"/>
       <c r="Y590" s="1"/>
       <c r="Z590" s="1"/>
+      <c r="AA590" s="1"/>
+      <c r="AB590" s="1"/>
     </row>
     <row r="591">
       <c r="A591" s="1"/>
@@ -19346,6 +20595,8 @@
       <c r="X591" s="1"/>
       <c r="Y591" s="1"/>
       <c r="Z591" s="1"/>
+      <c r="AA591" s="1"/>
+      <c r="AB591" s="1"/>
     </row>
     <row r="592">
       <c r="A592" s="1"/>
@@ -19374,6 +20625,8 @@
       <c r="X592" s="1"/>
       <c r="Y592" s="1"/>
       <c r="Z592" s="1"/>
+      <c r="AA592" s="1"/>
+      <c r="AB592" s="1"/>
     </row>
     <row r="593">
       <c r="A593" s="1"/>
@@ -19402,6 +20655,8 @@
       <c r="X593" s="1"/>
       <c r="Y593" s="1"/>
       <c r="Z593" s="1"/>
+      <c r="AA593" s="1"/>
+      <c r="AB593" s="1"/>
     </row>
     <row r="594">
       <c r="A594" s="1"/>
@@ -19430,6 +20685,8 @@
       <c r="X594" s="1"/>
       <c r="Y594" s="1"/>
       <c r="Z594" s="1"/>
+      <c r="AA594" s="1"/>
+      <c r="AB594" s="1"/>
     </row>
     <row r="595">
       <c r="A595" s="1"/>
@@ -19458,6 +20715,8 @@
       <c r="X595" s="1"/>
       <c r="Y595" s="1"/>
       <c r="Z595" s="1"/>
+      <c r="AA595" s="1"/>
+      <c r="AB595" s="1"/>
     </row>
     <row r="596">
       <c r="A596" s="1"/>
@@ -19486,6 +20745,8 @@
       <c r="X596" s="1"/>
       <c r="Y596" s="1"/>
       <c r="Z596" s="1"/>
+      <c r="AA596" s="1"/>
+      <c r="AB596" s="1"/>
     </row>
     <row r="597">
       <c r="A597" s="1"/>
@@ -19514,6 +20775,8 @@
       <c r="X597" s="1"/>
       <c r="Y597" s="1"/>
       <c r="Z597" s="1"/>
+      <c r="AA597" s="1"/>
+      <c r="AB597" s="1"/>
     </row>
     <row r="598">
       <c r="A598" s="1"/>
@@ -19542,6 +20805,8 @@
       <c r="X598" s="1"/>
       <c r="Y598" s="1"/>
       <c r="Z598" s="1"/>
+      <c r="AA598" s="1"/>
+      <c r="AB598" s="1"/>
     </row>
     <row r="599">
       <c r="A599" s="1"/>
@@ -19570,6 +20835,8 @@
       <c r="X599" s="1"/>
       <c r="Y599" s="1"/>
       <c r="Z599" s="1"/>
+      <c r="AA599" s="1"/>
+      <c r="AB599" s="1"/>
     </row>
     <row r="600">
       <c r="A600" s="1"/>
@@ -19598,6 +20865,8 @@
       <c r="X600" s="1"/>
       <c r="Y600" s="1"/>
       <c r="Z600" s="1"/>
+      <c r="AA600" s="1"/>
+      <c r="AB600" s="1"/>
     </row>
     <row r="601">
       <c r="A601" s="1"/>
@@ -19626,6 +20895,8 @@
       <c r="X601" s="1"/>
       <c r="Y601" s="1"/>
       <c r="Z601" s="1"/>
+      <c r="AA601" s="1"/>
+      <c r="AB601" s="1"/>
     </row>
     <row r="602">
       <c r="A602" s="1"/>
@@ -19654,6 +20925,8 @@
       <c r="X602" s="1"/>
       <c r="Y602" s="1"/>
       <c r="Z602" s="1"/>
+      <c r="AA602" s="1"/>
+      <c r="AB602" s="1"/>
     </row>
     <row r="603">
       <c r="A603" s="1"/>
@@ -19682,6 +20955,8 @@
       <c r="X603" s="1"/>
       <c r="Y603" s="1"/>
       <c r="Z603" s="1"/>
+      <c r="AA603" s="1"/>
+      <c r="AB603" s="1"/>
     </row>
     <row r="604">
       <c r="A604" s="1"/>
@@ -19710,6 +20985,8 @@
       <c r="X604" s="1"/>
       <c r="Y604" s="1"/>
       <c r="Z604" s="1"/>
+      <c r="AA604" s="1"/>
+      <c r="AB604" s="1"/>
     </row>
     <row r="605">
       <c r="A605" s="1"/>
@@ -19738,6 +21015,8 @@
       <c r="X605" s="1"/>
       <c r="Y605" s="1"/>
       <c r="Z605" s="1"/>
+      <c r="AA605" s="1"/>
+      <c r="AB605" s="1"/>
     </row>
     <row r="606">
       <c r="A606" s="1"/>
@@ -19766,6 +21045,8 @@
       <c r="X606" s="1"/>
       <c r="Y606" s="1"/>
       <c r="Z606" s="1"/>
+      <c r="AA606" s="1"/>
+      <c r="AB606" s="1"/>
     </row>
     <row r="607">
       <c r="A607" s="1"/>
@@ -19794,6 +21075,8 @@
       <c r="X607" s="1"/>
       <c r="Y607" s="1"/>
       <c r="Z607" s="1"/>
+      <c r="AA607" s="1"/>
+      <c r="AB607" s="1"/>
     </row>
     <row r="608">
       <c r="A608" s="1"/>
@@ -19822,6 +21105,8 @@
       <c r="X608" s="1"/>
       <c r="Y608" s="1"/>
       <c r="Z608" s="1"/>
+      <c r="AA608" s="1"/>
+      <c r="AB608" s="1"/>
     </row>
     <row r="609">
       <c r="A609" s="1"/>
@@ -19850,6 +21135,8 @@
       <c r="X609" s="1"/>
       <c r="Y609" s="1"/>
       <c r="Z609" s="1"/>
+      <c r="AA609" s="1"/>
+      <c r="AB609" s="1"/>
     </row>
     <row r="610">
       <c r="A610" s="1"/>
@@ -19878,6 +21165,8 @@
       <c r="X610" s="1"/>
       <c r="Y610" s="1"/>
       <c r="Z610" s="1"/>
+      <c r="AA610" s="1"/>
+      <c r="AB610" s="1"/>
     </row>
     <row r="611">
       <c r="A611" s="1"/>
@@ -19906,6 +21195,8 @@
       <c r="X611" s="1"/>
       <c r="Y611" s="1"/>
       <c r="Z611" s="1"/>
+      <c r="AA611" s="1"/>
+      <c r="AB611" s="1"/>
     </row>
     <row r="612">
       <c r="A612" s="1"/>
@@ -19934,6 +21225,8 @@
       <c r="X612" s="1"/>
       <c r="Y612" s="1"/>
       <c r="Z612" s="1"/>
+      <c r="AA612" s="1"/>
+      <c r="AB612" s="1"/>
     </row>
     <row r="613">
       <c r="A613" s="1"/>
@@ -19962,6 +21255,8 @@
       <c r="X613" s="1"/>
       <c r="Y613" s="1"/>
       <c r="Z613" s="1"/>
+      <c r="AA613" s="1"/>
+      <c r="AB613" s="1"/>
     </row>
     <row r="614">
       <c r="A614" s="1"/>
@@ -19990,6 +21285,8 @@
       <c r="X614" s="1"/>
       <c r="Y614" s="1"/>
       <c r="Z614" s="1"/>
+      <c r="AA614" s="1"/>
+      <c r="AB614" s="1"/>
     </row>
     <row r="615">
       <c r="A615" s="1"/>
@@ -20018,6 +21315,8 @@
       <c r="X615" s="1"/>
       <c r="Y615" s="1"/>
       <c r="Z615" s="1"/>
+      <c r="AA615" s="1"/>
+      <c r="AB615" s="1"/>
     </row>
     <row r="616">
       <c r="A616" s="1"/>
@@ -20046,6 +21345,8 @@
       <c r="X616" s="1"/>
       <c r="Y616" s="1"/>
       <c r="Z616" s="1"/>
+      <c r="AA616" s="1"/>
+      <c r="AB616" s="1"/>
     </row>
     <row r="617">
       <c r="A617" s="1"/>
@@ -20074,6 +21375,8 @@
       <c r="X617" s="1"/>
       <c r="Y617" s="1"/>
       <c r="Z617" s="1"/>
+      <c r="AA617" s="1"/>
+      <c r="AB617" s="1"/>
     </row>
     <row r="618">
       <c r="A618" s="1"/>
@@ -20102,6 +21405,8 @@
       <c r="X618" s="1"/>
       <c r="Y618" s="1"/>
       <c r="Z618" s="1"/>
+      <c r="AA618" s="1"/>
+      <c r="AB618" s="1"/>
     </row>
     <row r="619">
       <c r="A619" s="1"/>
@@ -20130,6 +21435,8 @@
       <c r="X619" s="1"/>
       <c r="Y619" s="1"/>
       <c r="Z619" s="1"/>
+      <c r="AA619" s="1"/>
+      <c r="AB619" s="1"/>
     </row>
     <row r="620">
       <c r="A620" s="1"/>
@@ -20158,6 +21465,8 @@
       <c r="X620" s="1"/>
       <c r="Y620" s="1"/>
       <c r="Z620" s="1"/>
+      <c r="AA620" s="1"/>
+      <c r="AB620" s="1"/>
     </row>
     <row r="621">
       <c r="A621" s="1"/>
@@ -20186,6 +21495,8 @@
       <c r="X621" s="1"/>
       <c r="Y621" s="1"/>
       <c r="Z621" s="1"/>
+      <c r="AA621" s="1"/>
+      <c r="AB621" s="1"/>
     </row>
     <row r="622">
       <c r="A622" s="1"/>
@@ -20214,6 +21525,8 @@
       <c r="X622" s="1"/>
       <c r="Y622" s="1"/>
       <c r="Z622" s="1"/>
+      <c r="AA622" s="1"/>
+      <c r="AB622" s="1"/>
     </row>
     <row r="623">
       <c r="A623" s="1"/>
@@ -20242,6 +21555,8 @@
       <c r="X623" s="1"/>
       <c r="Y623" s="1"/>
       <c r="Z623" s="1"/>
+      <c r="AA623" s="1"/>
+      <c r="AB623" s="1"/>
     </row>
     <row r="624">
       <c r="A624" s="1"/>
@@ -20270,6 +21585,8 @@
       <c r="X624" s="1"/>
       <c r="Y624" s="1"/>
       <c r="Z624" s="1"/>
+      <c r="AA624" s="1"/>
+      <c r="AB624" s="1"/>
     </row>
     <row r="625">
       <c r="A625" s="1"/>
@@ -20298,6 +21615,8 @@
       <c r="X625" s="1"/>
       <c r="Y625" s="1"/>
       <c r="Z625" s="1"/>
+      <c r="AA625" s="1"/>
+      <c r="AB625" s="1"/>
     </row>
     <row r="626">
       <c r="A626" s="1"/>
@@ -20326,6 +21645,8 @@
       <c r="X626" s="1"/>
       <c r="Y626" s="1"/>
       <c r="Z626" s="1"/>
+      <c r="AA626" s="1"/>
+      <c r="AB626" s="1"/>
     </row>
     <row r="627">
       <c r="A627" s="1"/>
@@ -20354,6 +21675,8 @@
       <c r="X627" s="1"/>
       <c r="Y627" s="1"/>
       <c r="Z627" s="1"/>
+      <c r="AA627" s="1"/>
+      <c r="AB627" s="1"/>
     </row>
     <row r="628">
       <c r="A628" s="1"/>
@@ -20382,6 +21705,8 @@
       <c r="X628" s="1"/>
       <c r="Y628" s="1"/>
       <c r="Z628" s="1"/>
+      <c r="AA628" s="1"/>
+      <c r="AB628" s="1"/>
     </row>
     <row r="629">
       <c r="A629" s="1"/>
@@ -20410,6 +21735,8 @@
       <c r="X629" s="1"/>
       <c r="Y629" s="1"/>
       <c r="Z629" s="1"/>
+      <c r="AA629" s="1"/>
+      <c r="AB629" s="1"/>
     </row>
     <row r="630">
       <c r="A630" s="1"/>
@@ -20438,6 +21765,8 @@
       <c r="X630" s="1"/>
       <c r="Y630" s="1"/>
       <c r="Z630" s="1"/>
+      <c r="AA630" s="1"/>
+      <c r="AB630" s="1"/>
     </row>
     <row r="631">
       <c r="A631" s="1"/>
@@ -20466,6 +21795,8 @@
       <c r="X631" s="1"/>
       <c r="Y631" s="1"/>
       <c r="Z631" s="1"/>
+      <c r="AA631" s="1"/>
+      <c r="AB631" s="1"/>
     </row>
     <row r="632">
       <c r="A632" s="1"/>
@@ -20494,6 +21825,8 @@
       <c r="X632" s="1"/>
       <c r="Y632" s="1"/>
       <c r="Z632" s="1"/>
+      <c r="AA632" s="1"/>
+      <c r="AB632" s="1"/>
     </row>
     <row r="633">
       <c r="A633" s="1"/>
@@ -20522,6 +21855,8 @@
       <c r="X633" s="1"/>
       <c r="Y633" s="1"/>
       <c r="Z633" s="1"/>
+      <c r="AA633" s="1"/>
+      <c r="AB633" s="1"/>
     </row>
     <row r="634">
       <c r="A634" s="1"/>
@@ -20550,6 +21885,8 @@
       <c r="X634" s="1"/>
       <c r="Y634" s="1"/>
       <c r="Z634" s="1"/>
+      <c r="AA634" s="1"/>
+      <c r="AB634" s="1"/>
     </row>
     <row r="635">
       <c r="A635" s="1"/>
@@ -20578,6 +21915,8 @@
       <c r="X635" s="1"/>
       <c r="Y635" s="1"/>
       <c r="Z635" s="1"/>
+      <c r="AA635" s="1"/>
+      <c r="AB635" s="1"/>
     </row>
     <row r="636">
       <c r="A636" s="1"/>
@@ -20606,6 +21945,8 @@
       <c r="X636" s="1"/>
       <c r="Y636" s="1"/>
       <c r="Z636" s="1"/>
+      <c r="AA636" s="1"/>
+      <c r="AB636" s="1"/>
     </row>
     <row r="637">
       <c r="A637" s="1"/>
@@ -20634,6 +21975,8 @@
       <c r="X637" s="1"/>
       <c r="Y637" s="1"/>
       <c r="Z637" s="1"/>
+      <c r="AA637" s="1"/>
+      <c r="AB637" s="1"/>
     </row>
     <row r="638">
       <c r="A638" s="1"/>
@@ -20662,6 +22005,8 @@
       <c r="X638" s="1"/>
       <c r="Y638" s="1"/>
       <c r="Z638" s="1"/>
+      <c r="AA638" s="1"/>
+      <c r="AB638" s="1"/>
     </row>
     <row r="639">
       <c r="A639" s="1"/>
@@ -20690,6 +22035,8 @@
       <c r="X639" s="1"/>
       <c r="Y639" s="1"/>
       <c r="Z639" s="1"/>
+      <c r="AA639" s="1"/>
+      <c r="AB639" s="1"/>
     </row>
     <row r="640">
       <c r="A640" s="1"/>
@@ -20718,6 +22065,8 @@
       <c r="X640" s="1"/>
       <c r="Y640" s="1"/>
       <c r="Z640" s="1"/>
+      <c r="AA640" s="1"/>
+      <c r="AB640" s="1"/>
     </row>
     <row r="641">
       <c r="A641" s="1"/>
@@ -20746,6 +22095,8 @@
       <c r="X641" s="1"/>
       <c r="Y641" s="1"/>
       <c r="Z641" s="1"/>
+      <c r="AA641" s="1"/>
+      <c r="AB641" s="1"/>
     </row>
     <row r="642">
       <c r="A642" s="1"/>
@@ -20774,6 +22125,8 @@
       <c r="X642" s="1"/>
       <c r="Y642" s="1"/>
       <c r="Z642" s="1"/>
+      <c r="AA642" s="1"/>
+      <c r="AB642" s="1"/>
     </row>
     <row r="643">
       <c r="A643" s="1"/>
@@ -20802,6 +22155,8 @@
       <c r="X643" s="1"/>
       <c r="Y643" s="1"/>
       <c r="Z643" s="1"/>
+      <c r="AA643" s="1"/>
+      <c r="AB643" s="1"/>
     </row>
     <row r="644">
       <c r="A644" s="1"/>
@@ -20830,6 +22185,8 @@
       <c r="X644" s="1"/>
       <c r="Y644" s="1"/>
       <c r="Z644" s="1"/>
+      <c r="AA644" s="1"/>
+      <c r="AB644" s="1"/>
     </row>
     <row r="645">
       <c r="A645" s="1"/>
@@ -20858,6 +22215,8 @@
       <c r="X645" s="1"/>
       <c r="Y645" s="1"/>
       <c r="Z645" s="1"/>
+      <c r="AA645" s="1"/>
+      <c r="AB645" s="1"/>
     </row>
     <row r="646">
       <c r="A646" s="1"/>
@@ -20886,6 +22245,8 @@
       <c r="X646" s="1"/>
       <c r="Y646" s="1"/>
       <c r="Z646" s="1"/>
+      <c r="AA646" s="1"/>
+      <c r="AB646" s="1"/>
     </row>
     <row r="647">
       <c r="A647" s="1"/>
@@ -20914,6 +22275,8 @@
       <c r="X647" s="1"/>
       <c r="Y647" s="1"/>
       <c r="Z647" s="1"/>
+      <c r="AA647" s="1"/>
+      <c r="AB647" s="1"/>
     </row>
     <row r="648">
       <c r="A648" s="1"/>
@@ -20942,6 +22305,8 @@
       <c r="X648" s="1"/>
       <c r="Y648" s="1"/>
       <c r="Z648" s="1"/>
+      <c r="AA648" s="1"/>
+      <c r="AB648" s="1"/>
     </row>
     <row r="649">
       <c r="A649" s="1"/>
@@ -20970,6 +22335,8 @@
       <c r="X649" s="1"/>
       <c r="Y649" s="1"/>
       <c r="Z649" s="1"/>
+      <c r="AA649" s="1"/>
+      <c r="AB649" s="1"/>
     </row>
     <row r="650">
       <c r="A650" s="1"/>
@@ -20998,6 +22365,8 @@
       <c r="X650" s="1"/>
       <c r="Y650" s="1"/>
       <c r="Z650" s="1"/>
+      <c r="AA650" s="1"/>
+      <c r="AB650" s="1"/>
     </row>
     <row r="651">
       <c r="A651" s="1"/>
@@ -21026,6 +22395,8 @@
       <c r="X651" s="1"/>
       <c r="Y651" s="1"/>
       <c r="Z651" s="1"/>
+      <c r="AA651" s="1"/>
+      <c r="AB651" s="1"/>
     </row>
     <row r="652">
       <c r="A652" s="1"/>
@@ -21054,6 +22425,8 @@
       <c r="X652" s="1"/>
       <c r="Y652" s="1"/>
       <c r="Z652" s="1"/>
+      <c r="AA652" s="1"/>
+      <c r="AB652" s="1"/>
     </row>
     <row r="653">
       <c r="A653" s="1"/>
@@ -21082,6 +22455,8 @@
       <c r="X653" s="1"/>
       <c r="Y653" s="1"/>
       <c r="Z653" s="1"/>
+      <c r="AA653" s="1"/>
+      <c r="AB653" s="1"/>
     </row>
     <row r="654">
       <c r="A654" s="1"/>
@@ -21110,6 +22485,8 @@
       <c r="X654" s="1"/>
       <c r="Y654" s="1"/>
       <c r="Z654" s="1"/>
+      <c r="AA654" s="1"/>
+      <c r="AB654" s="1"/>
     </row>
     <row r="655">
       <c r="A655" s="1"/>
@@ -21138,6 +22515,8 @@
       <c r="X655" s="1"/>
       <c r="Y655" s="1"/>
       <c r="Z655" s="1"/>
+      <c r="AA655" s="1"/>
+      <c r="AB655" s="1"/>
     </row>
     <row r="656">
       <c r="A656" s="1"/>
@@ -21166,6 +22545,8 @@
       <c r="X656" s="1"/>
       <c r="Y656" s="1"/>
       <c r="Z656" s="1"/>
+      <c r="AA656" s="1"/>
+      <c r="AB656" s="1"/>
     </row>
     <row r="657">
       <c r="A657" s="1"/>
@@ -21194,6 +22575,8 @@
       <c r="X657" s="1"/>
       <c r="Y657" s="1"/>
       <c r="Z657" s="1"/>
+      <c r="AA657" s="1"/>
+      <c r="AB657" s="1"/>
     </row>
     <row r="658">
       <c r="A658" s="1"/>
@@ -21222,6 +22605,8 @@
       <c r="X658" s="1"/>
       <c r="Y658" s="1"/>
       <c r="Z658" s="1"/>
+      <c r="AA658" s="1"/>
+      <c r="AB658" s="1"/>
     </row>
     <row r="659">
       <c r="A659" s="1"/>
@@ -21250,6 +22635,8 @@
       <c r="X659" s="1"/>
       <c r="Y659" s="1"/>
       <c r="Z659" s="1"/>
+      <c r="AA659" s="1"/>
+      <c r="AB659" s="1"/>
     </row>
     <row r="660">
       <c r="A660" s="1"/>
@@ -21278,6 +22665,8 @@
       <c r="X660" s="1"/>
       <c r="Y660" s="1"/>
       <c r="Z660" s="1"/>
+      <c r="AA660" s="1"/>
+      <c r="AB660" s="1"/>
     </row>
     <row r="661">
       <c r="A661" s="1"/>
@@ -21306,6 +22695,8 @@
       <c r="X661" s="1"/>
       <c r="Y661" s="1"/>
       <c r="Z661" s="1"/>
+      <c r="AA661" s="1"/>
+      <c r="AB661" s="1"/>
     </row>
     <row r="662">
       <c r="A662" s="1"/>
@@ -21334,6 +22725,8 @@
       <c r="X662" s="1"/>
       <c r="Y662" s="1"/>
       <c r="Z662" s="1"/>
+      <c r="AA662" s="1"/>
+      <c r="AB662" s="1"/>
     </row>
     <row r="663">
       <c r="A663" s="1"/>
@@ -21362,6 +22755,8 @@
       <c r="X663" s="1"/>
       <c r="Y663" s="1"/>
       <c r="Z663" s="1"/>
+      <c r="AA663" s="1"/>
+      <c r="AB663" s="1"/>
     </row>
     <row r="664">
       <c r="A664" s="1"/>
@@ -21390,6 +22785,8 @@
       <c r="X664" s="1"/>
       <c r="Y664" s="1"/>
       <c r="Z664" s="1"/>
+      <c r="AA664" s="1"/>
+      <c r="AB664" s="1"/>
     </row>
     <row r="665">
       <c r="A665" s="1"/>
@@ -21418,6 +22815,8 @@
       <c r="X665" s="1"/>
       <c r="Y665" s="1"/>
       <c r="Z665" s="1"/>
+      <c r="AA665" s="1"/>
+      <c r="AB665" s="1"/>
     </row>
     <row r="666">
       <c r="A666" s="1"/>
@@ -21446,6 +22845,8 @@
       <c r="X666" s="1"/>
       <c r="Y666" s="1"/>
       <c r="Z666" s="1"/>
+      <c r="AA666" s="1"/>
+      <c r="AB666" s="1"/>
     </row>
     <row r="667">
       <c r="A667" s="1"/>
@@ -21474,6 +22875,8 @@
       <c r="X667" s="1"/>
       <c r="Y667" s="1"/>
       <c r="Z667" s="1"/>
+      <c r="AA667" s="1"/>
+      <c r="AB667" s="1"/>
     </row>
     <row r="668">
       <c r="A668" s="1"/>
@@ -21502,6 +22905,8 @@
       <c r="X668" s="1"/>
       <c r="Y668" s="1"/>
       <c r="Z668" s="1"/>
+      <c r="AA668" s="1"/>
+      <c r="AB668" s="1"/>
     </row>
     <row r="669">
       <c r="A669" s="1"/>
@@ -21530,6 +22935,8 @@
       <c r="X669" s="1"/>
       <c r="Y669" s="1"/>
       <c r="Z669" s="1"/>
+      <c r="AA669" s="1"/>
+      <c r="AB669" s="1"/>
     </row>
     <row r="670">
       <c r="A670" s="1"/>
@@ -21558,6 +22965,8 @@
       <c r="X670" s="1"/>
       <c r="Y670" s="1"/>
       <c r="Z670" s="1"/>
+      <c r="AA670" s="1"/>
+      <c r="AB670" s="1"/>
     </row>
     <row r="671">
       <c r="A671" s="1"/>
@@ -21586,6 +22995,8 @@
       <c r="X671" s="1"/>
       <c r="Y671" s="1"/>
       <c r="Z671" s="1"/>
+      <c r="AA671" s="1"/>
+      <c r="AB671" s="1"/>
     </row>
     <row r="672">
       <c r="A672" s="1"/>
@@ -21614,6 +23025,8 @@
       <c r="X672" s="1"/>
       <c r="Y672" s="1"/>
       <c r="Z672" s="1"/>
+      <c r="AA672" s="1"/>
+      <c r="AB672" s="1"/>
     </row>
     <row r="673">
       <c r="A673" s="1"/>
@@ -21642,6 +23055,8 @@
       <c r="X673" s="1"/>
       <c r="Y673" s="1"/>
       <c r="Z673" s="1"/>
+      <c r="AA673" s="1"/>
+      <c r="AB673" s="1"/>
     </row>
     <row r="674">
       <c r="A674" s="1"/>
@@ -21670,6 +23085,8 @@
       <c r="X674" s="1"/>
       <c r="Y674" s="1"/>
       <c r="Z674" s="1"/>
+      <c r="AA674" s="1"/>
+      <c r="AB674" s="1"/>
     </row>
     <row r="675">
       <c r="A675" s="1"/>
@@ -21698,6 +23115,8 @@
       <c r="X675" s="1"/>
       <c r="Y675" s="1"/>
       <c r="Z675" s="1"/>
+      <c r="AA675" s="1"/>
+      <c r="AB675" s="1"/>
     </row>
     <row r="676">
       <c r="A676" s="1"/>
@@ -21726,6 +23145,8 @@
       <c r="X676" s="1"/>
       <c r="Y676" s="1"/>
       <c r="Z676" s="1"/>
+      <c r="AA676" s="1"/>
+      <c r="AB676" s="1"/>
     </row>
     <row r="677">
       <c r="A677" s="1"/>
@@ -21754,6 +23175,8 @@
       <c r="X677" s="1"/>
       <c r="Y677" s="1"/>
       <c r="Z677" s="1"/>
+      <c r="AA677" s="1"/>
+      <c r="AB677" s="1"/>
     </row>
     <row r="678">
       <c r="A678" s="1"/>
@@ -21782,6 +23205,8 @@
       <c r="X678" s="1"/>
       <c r="Y678" s="1"/>
       <c r="Z678" s="1"/>
+      <c r="AA678" s="1"/>
+      <c r="AB678" s="1"/>
     </row>
     <row r="679">
       <c r="A679" s="1"/>
@@ -21810,6 +23235,8 @@
       <c r="X679" s="1"/>
       <c r="Y679" s="1"/>
       <c r="Z679" s="1"/>
+      <c r="AA679" s="1"/>
+      <c r="AB679" s="1"/>
     </row>
     <row r="680">
       <c r="A680" s="1"/>
@@ -21838,6 +23265,8 @@
       <c r="X680" s="1"/>
       <c r="Y680" s="1"/>
       <c r="Z680" s="1"/>
+      <c r="AA680" s="1"/>
+      <c r="AB680" s="1"/>
     </row>
     <row r="681">
       <c r="A681" s="1"/>
@@ -21866,6 +23295,8 @@
       <c r="X681" s="1"/>
       <c r="Y681" s="1"/>
       <c r="Z681" s="1"/>
+      <c r="AA681" s="1"/>
+      <c r="AB681" s="1"/>
     </row>
     <row r="682">
       <c r="A682" s="1"/>
@@ -21894,6 +23325,8 @@
       <c r="X682" s="1"/>
       <c r="Y682" s="1"/>
       <c r="Z682" s="1"/>
+      <c r="AA682" s="1"/>
+      <c r="AB682" s="1"/>
     </row>
     <row r="683">
       <c r="A683" s="1"/>
@@ -21922,6 +23355,8 @@
       <c r="X683" s="1"/>
       <c r="Y683" s="1"/>
       <c r="Z683" s="1"/>
+      <c r="AA683" s="1"/>
+      <c r="AB683" s="1"/>
     </row>
     <row r="684">
       <c r="A684" s="1"/>
@@ -21950,6 +23385,8 @@
       <c r="X684" s="1"/>
       <c r="Y684" s="1"/>
       <c r="Z684" s="1"/>
+      <c r="AA684" s="1"/>
+      <c r="AB684" s="1"/>
     </row>
     <row r="685">
       <c r="A685" s="1"/>
@@ -21978,6 +23415,8 @@
       <c r="X685" s="1"/>
       <c r="Y685" s="1"/>
       <c r="Z685" s="1"/>
+      <c r="AA685" s="1"/>
+      <c r="AB685" s="1"/>
     </row>
     <row r="686">
       <c r="A686" s="1"/>
@@ -22006,6 +23445,8 @@
       <c r="X686" s="1"/>
       <c r="Y686" s="1"/>
       <c r="Z686" s="1"/>
+      <c r="AA686" s="1"/>
+      <c r="AB686" s="1"/>
     </row>
     <row r="687">
       <c r="A687" s="1"/>
@@ -22034,6 +23475,8 @@
       <c r="X687" s="1"/>
       <c r="Y687" s="1"/>
       <c r="Z687" s="1"/>
+      <c r="AA687" s="1"/>
+      <c r="AB687" s="1"/>
     </row>
     <row r="688">
       <c r="A688" s="1"/>
@@ -22062,6 +23505,8 @@
       <c r="X688" s="1"/>
       <c r="Y688" s="1"/>
       <c r="Z688" s="1"/>
+      <c r="AA688" s="1"/>
+      <c r="AB688" s="1"/>
     </row>
     <row r="689">
       <c r="A689" s="1"/>
@@ -22090,6 +23535,8 @@
       <c r="X689" s="1"/>
       <c r="Y689" s="1"/>
       <c r="Z689" s="1"/>
+      <c r="AA689" s="1"/>
+      <c r="AB689" s="1"/>
     </row>
     <row r="690">
       <c r="A690" s="1"/>
@@ -22118,6 +23565,8 @@
       <c r="X690" s="1"/>
       <c r="Y690" s="1"/>
       <c r="Z690" s="1"/>
+      <c r="AA690" s="1"/>
+      <c r="AB690" s="1"/>
     </row>
     <row r="691">
       <c r="A691" s="1"/>
@@ -22146,6 +23595,8 @@
       <c r="X691" s="1"/>
       <c r="Y691" s="1"/>
       <c r="Z691" s="1"/>
+      <c r="AA691" s="1"/>
+      <c r="AB691" s="1"/>
     </row>
     <row r="692">
       <c r="A692" s="1"/>
@@ -22174,6 +23625,8 @@
       <c r="X692" s="1"/>
       <c r="Y692" s="1"/>
       <c r="Z692" s="1"/>
+      <c r="AA692" s="1"/>
+      <c r="AB692" s="1"/>
     </row>
     <row r="693">
       <c r="A693" s="1"/>
@@ -22202,6 +23655,8 @@
       <c r="X693" s="1"/>
       <c r="Y693" s="1"/>
       <c r="Z693" s="1"/>
+      <c r="AA693" s="1"/>
+      <c r="AB693" s="1"/>
     </row>
     <row r="694">
       <c r="A694" s="1"/>
@@ -22230,6 +23685,8 @@
       <c r="X694" s="1"/>
       <c r="Y694" s="1"/>
       <c r="Z694" s="1"/>
+      <c r="AA694" s="1"/>
+      <c r="AB694" s="1"/>
     </row>
     <row r="695">
       <c r="A695" s="1"/>
@@ -22258,6 +23715,8 @@
       <c r="X695" s="1"/>
       <c r="Y695" s="1"/>
       <c r="Z695" s="1"/>
+      <c r="AA695" s="1"/>
+      <c r="AB695" s="1"/>
     </row>
     <row r="696">
       <c r="A696" s="1"/>
@@ -22286,6 +23745,8 @@
       <c r="X696" s="1"/>
       <c r="Y696" s="1"/>
       <c r="Z696" s="1"/>
+      <c r="AA696" s="1"/>
+      <c r="AB696" s="1"/>
     </row>
     <row r="697">
       <c r="A697" s="1"/>
@@ -22314,6 +23775,8 @@
       <c r="X697" s="1"/>
       <c r="Y697" s="1"/>
       <c r="Z697" s="1"/>
+      <c r="AA697" s="1"/>
+      <c r="AB697" s="1"/>
     </row>
     <row r="698">
       <c r="A698" s="1"/>
@@ -22342,6 +23805,8 @@
       <c r="X698" s="1"/>
       <c r="Y698" s="1"/>
       <c r="Z698" s="1"/>
+      <c r="AA698" s="1"/>
+      <c r="AB698" s="1"/>
     </row>
     <row r="699">
       <c r="A699" s="1"/>
@@ -22370,6 +23835,8 @@
       <c r="X699" s="1"/>
       <c r="Y699" s="1"/>
       <c r="Z699" s="1"/>
+      <c r="AA699" s="1"/>
+      <c r="AB699" s="1"/>
     </row>
     <row r="700">
       <c r="A700" s="1"/>
@@ -22398,6 +23865,8 @@
       <c r="X700" s="1"/>
       <c r="Y700" s="1"/>
       <c r="Z700" s="1"/>
+      <c r="AA700" s="1"/>
+      <c r="AB700" s="1"/>
     </row>
     <row r="701">
       <c r="A701" s="1"/>
@@ -22426,6 +23895,8 @@
       <c r="X701" s="1"/>
       <c r="Y701" s="1"/>
       <c r="Z701" s="1"/>
+      <c r="AA701" s="1"/>
+      <c r="AB701" s="1"/>
     </row>
     <row r="702">
       <c r="A702" s="1"/>
@@ -22454,6 +23925,8 @@
       <c r="X702" s="1"/>
       <c r="Y702" s="1"/>
       <c r="Z702" s="1"/>
+      <c r="AA702" s="1"/>
+      <c r="AB702" s="1"/>
     </row>
     <row r="703">
       <c r="A703" s="1"/>
@@ -22482,6 +23955,8 @@
       <c r="X703" s="1"/>
       <c r="Y703" s="1"/>
       <c r="Z703" s="1"/>
+      <c r="AA703" s="1"/>
+      <c r="AB703" s="1"/>
     </row>
     <row r="704">
       <c r="A704" s="1"/>
@@ -22510,6 +23985,8 @@
       <c r="X704" s="1"/>
       <c r="Y704" s="1"/>
       <c r="Z704" s="1"/>
+      <c r="AA704" s="1"/>
+      <c r="AB704" s="1"/>
     </row>
     <row r="705">
       <c r="A705" s="1"/>
@@ -22538,6 +24015,8 @@
       <c r="X705" s="1"/>
       <c r="Y705" s="1"/>
       <c r="Z705" s="1"/>
+      <c r="AA705" s="1"/>
+      <c r="AB705" s="1"/>
     </row>
     <row r="706">
       <c r="A706" s="1"/>
@@ -22566,6 +24045,8 @@
       <c r="X706" s="1"/>
       <c r="Y706" s="1"/>
       <c r="Z706" s="1"/>
+      <c r="AA706" s="1"/>
+      <c r="AB706" s="1"/>
     </row>
     <row r="707">
       <c r="A707" s="1"/>
@@ -22594,6 +24075,8 @@
       <c r="X707" s="1"/>
       <c r="Y707" s="1"/>
       <c r="Z707" s="1"/>
+      <c r="AA707" s="1"/>
+      <c r="AB707" s="1"/>
     </row>
     <row r="708">
       <c r="A708" s="1"/>
@@ -22622,6 +24105,8 @@
       <c r="X708" s="1"/>
       <c r="Y708" s="1"/>
       <c r="Z708" s="1"/>
+      <c r="AA708" s="1"/>
+      <c r="AB708" s="1"/>
     </row>
     <row r="709">
       <c r="A709" s="1"/>
@@ -22650,6 +24135,8 @@
       <c r="X709" s="1"/>
       <c r="Y709" s="1"/>
       <c r="Z709" s="1"/>
+      <c r="AA709" s="1"/>
+      <c r="AB709" s="1"/>
     </row>
     <row r="710">
       <c r="A710" s="1"/>
@@ -22678,6 +24165,8 @@
       <c r="X710" s="1"/>
       <c r="Y710" s="1"/>
       <c r="Z710" s="1"/>
+      <c r="AA710" s="1"/>
+      <c r="AB710" s="1"/>
     </row>
     <row r="711">
       <c r="A711" s="1"/>
@@ -22706,6 +24195,8 @@
       <c r="X711" s="1"/>
       <c r="Y711" s="1"/>
       <c r="Z711" s="1"/>
+      <c r="AA711" s="1"/>
+      <c r="AB711" s="1"/>
     </row>
     <row r="712">
       <c r="A712" s="1"/>
@@ -22734,6 +24225,8 @@
       <c r="X712" s="1"/>
       <c r="Y712" s="1"/>
       <c r="Z712" s="1"/>
+      <c r="AA712" s="1"/>
+      <c r="AB712" s="1"/>
     </row>
     <row r="713">
       <c r="A713" s="1"/>
@@ -22762,6 +24255,8 @@
       <c r="X713" s="1"/>
       <c r="Y713" s="1"/>
       <c r="Z713" s="1"/>
+      <c r="AA713" s="1"/>
+      <c r="AB713" s="1"/>
     </row>
     <row r="714">
       <c r="A714" s="1"/>
@@ -22790,6 +24285,8 @@
       <c r="X714" s="1"/>
       <c r="Y714" s="1"/>
       <c r="Z714" s="1"/>
+      <c r="AA714" s="1"/>
+      <c r="AB714" s="1"/>
     </row>
     <row r="715">
       <c r="A715" s="1"/>
@@ -22818,6 +24315,8 @@
       <c r="X715" s="1"/>
       <c r="Y715" s="1"/>
       <c r="Z715" s="1"/>
+      <c r="AA715" s="1"/>
+      <c r="AB715" s="1"/>
     </row>
     <row r="716">
       <c r="A716" s="1"/>
@@ -22846,6 +24345,8 @@
       <c r="X716" s="1"/>
       <c r="Y716" s="1"/>
       <c r="Z716" s="1"/>
+      <c r="AA716" s="1"/>
+      <c r="AB716" s="1"/>
     </row>
     <row r="717">
       <c r="A717" s="1"/>
@@ -22874,6 +24375,8 @@
       <c r="X717" s="1"/>
       <c r="Y717" s="1"/>
       <c r="Z717" s="1"/>
+      <c r="AA717" s="1"/>
+      <c r="AB717" s="1"/>
     </row>
     <row r="718">
       <c r="A718" s="1"/>
@@ -22902,6 +24405,8 @@
       <c r="X718" s="1"/>
       <c r="Y718" s="1"/>
       <c r="Z718" s="1"/>
+      <c r="AA718" s="1"/>
+      <c r="AB718" s="1"/>
     </row>
     <row r="719">
       <c r="A719" s="1"/>
@@ -22930,6 +24435,8 @@
       <c r="X719" s="1"/>
       <c r="Y719" s="1"/>
       <c r="Z719" s="1"/>
+      <c r="AA719" s="1"/>
+      <c r="AB719" s="1"/>
     </row>
     <row r="720">
       <c r="A720" s="1"/>
@@ -22958,6 +24465,8 @@
       <c r="X720" s="1"/>
       <c r="Y720" s="1"/>
       <c r="Z720" s="1"/>
+      <c r="AA720" s="1"/>
+      <c r="AB720" s="1"/>
     </row>
     <row r="721">
       <c r="A721" s="1"/>
@@ -22986,6 +24495,8 @@
       <c r="X721" s="1"/>
       <c r="Y721" s="1"/>
       <c r="Z721" s="1"/>
+      <c r="AA721" s="1"/>
+      <c r="AB721" s="1"/>
     </row>
     <row r="722">
       <c r="A722" s="1"/>
@@ -23014,6 +24525,8 @@
       <c r="X722" s="1"/>
       <c r="Y722" s="1"/>
       <c r="Z722" s="1"/>
+      <c r="AA722" s="1"/>
+      <c r="AB722" s="1"/>
     </row>
     <row r="723">
       <c r="A723" s="1"/>
@@ -23042,6 +24555,8 @@
       <c r="X723" s="1"/>
       <c r="Y723" s="1"/>
       <c r="Z723" s="1"/>
+      <c r="AA723" s="1"/>
+      <c r="AB723" s="1"/>
     </row>
     <row r="724">
       <c r="A724" s="1"/>
@@ -23070,6 +24585,8 @@
       <c r="X724" s="1"/>
       <c r="Y724" s="1"/>
       <c r="Z724" s="1"/>
+      <c r="AA724" s="1"/>
+      <c r="AB724" s="1"/>
     </row>
     <row r="725">
       <c r="A725" s="1"/>
@@ -23098,6 +24615,8 @@
       <c r="X725" s="1"/>
       <c r="Y725" s="1"/>
       <c r="Z725" s="1"/>
+      <c r="AA725" s="1"/>
+      <c r="AB725" s="1"/>
     </row>
     <row r="726">
       <c r="A726" s="1"/>
@@ -23126,6 +24645,8 @@
       <c r="X726" s="1"/>
       <c r="Y726" s="1"/>
       <c r="Z726" s="1"/>
+      <c r="AA726" s="1"/>
+      <c r="AB726" s="1"/>
     </row>
     <row r="727">
       <c r="A727" s="1"/>
@@ -23154,6 +24675,8 @@
       <c r="X727" s="1"/>
       <c r="Y727" s="1"/>
       <c r="Z727" s="1"/>
+      <c r="AA727" s="1"/>
+      <c r="AB727" s="1"/>
     </row>
     <row r="728">
       <c r="A728" s="1"/>
@@ -23182,6 +24705,8 @@
       <c r="X728" s="1"/>
       <c r="Y728" s="1"/>
       <c r="Z728" s="1"/>
+      <c r="AA728" s="1"/>
+      <c r="AB728" s="1"/>
     </row>
     <row r="729">
       <c r="A729" s="1"/>
@@ -23210,6 +24735,8 @@
       <c r="X729" s="1"/>
       <c r="Y729" s="1"/>
       <c r="Z729" s="1"/>
+      <c r="AA729" s="1"/>
+      <c r="AB729" s="1"/>
     </row>
     <row r="730">
       <c r="A730" s="1"/>
@@ -23238,6 +24765,8 @@
       <c r="X730" s="1"/>
       <c r="Y730" s="1"/>
       <c r="Z730" s="1"/>
+      <c r="AA730" s="1"/>
+      <c r="AB730" s="1"/>
     </row>
     <row r="731">
       <c r="A731" s="1"/>
@@ -23266,6 +24795,8 @@
       <c r="X731" s="1"/>
       <c r="Y731" s="1"/>
       <c r="Z731" s="1"/>
+      <c r="AA731" s="1"/>
+      <c r="AB731" s="1"/>
     </row>
     <row r="732">
       <c r="A732" s="1"/>
@@ -23294,6 +24825,8 @@
       <c r="X732" s="1"/>
       <c r="Y732" s="1"/>
       <c r="Z732" s="1"/>
+      <c r="AA732" s="1"/>
+      <c r="AB732" s="1"/>
     </row>
     <row r="733">
       <c r="A733" s="1"/>
@@ -23322,6 +24855,8 @@
       <c r="X733" s="1"/>
       <c r="Y733" s="1"/>
       <c r="Z733" s="1"/>
+      <c r="AA733" s="1"/>
+      <c r="AB733" s="1"/>
     </row>
     <row r="734">
       <c r="A734" s="1"/>
@@ -23350,6 +24885,8 @@
       <c r="X734" s="1"/>
       <c r="Y734" s="1"/>
       <c r="Z734" s="1"/>
+      <c r="AA734" s="1"/>
+      <c r="AB734" s="1"/>
     </row>
     <row r="735">
       <c r="A735" s="1"/>
@@ -23378,6 +24915,8 @@
       <c r="X735" s="1"/>
       <c r="Y735" s="1"/>
       <c r="Z735" s="1"/>
+      <c r="AA735" s="1"/>
+      <c r="AB735" s="1"/>
     </row>
     <row r="736">
       <c r="A736" s="1"/>
@@ -23406,6 +24945,8 @@
       <c r="X736" s="1"/>
       <c r="Y736" s="1"/>
       <c r="Z736" s="1"/>
+      <c r="AA736" s="1"/>
+      <c r="AB736" s="1"/>
     </row>
     <row r="737">
       <c r="A737" s="1"/>
@@ -23434,6 +24975,8 @@
       <c r="X737" s="1"/>
       <c r="Y737" s="1"/>
       <c r="Z737" s="1"/>
+      <c r="AA737" s="1"/>
+      <c r="AB737" s="1"/>
     </row>
     <row r="738">
       <c r="A738" s="1"/>
@@ -23462,6 +25005,8 @@
       <c r="X738" s="1"/>
       <c r="Y738" s="1"/>
       <c r="Z738" s="1"/>
+      <c r="AA738" s="1"/>
+      <c r="AB738" s="1"/>
     </row>
     <row r="739">
       <c r="A739" s="1"/>
@@ -23490,6 +25035,8 @@
       <c r="X739" s="1"/>
       <c r="Y739" s="1"/>
       <c r="Z739" s="1"/>
+      <c r="AA739" s="1"/>
+      <c r="AB739" s="1"/>
     </row>
     <row r="740">
       <c r="A740" s="1"/>
@@ -23518,6 +25065,8 @@
       <c r="X740" s="1"/>
       <c r="Y740" s="1"/>
       <c r="Z740" s="1"/>
+      <c r="AA740" s="1"/>
+      <c r="AB740" s="1"/>
     </row>
     <row r="741">
       <c r="A741" s="1"/>
@@ -23546,6 +25095,8 @@
       <c r="X741" s="1"/>
       <c r="Y741" s="1"/>
       <c r="Z741" s="1"/>
+      <c r="AA741" s="1"/>
+      <c r="AB741" s="1"/>
     </row>
     <row r="742">
       <c r="A742" s="1"/>
@@ -23574,6 +25125,8 @@
       <c r="X742" s="1"/>
       <c r="Y742" s="1"/>
       <c r="Z742" s="1"/>
+      <c r="AA742" s="1"/>
+      <c r="AB742" s="1"/>
     </row>
     <row r="743">
       <c r="A743" s="1"/>
@@ -23602,6 +25155,8 @@
       <c r="X743" s="1"/>
       <c r="Y743" s="1"/>
       <c r="Z743" s="1"/>
+      <c r="AA743" s="1"/>
+      <c r="AB743" s="1"/>
     </row>
     <row r="744">
       <c r="A744" s="1"/>
@@ -23630,6 +25185,8 @@
       <c r="X744" s="1"/>
       <c r="Y744" s="1"/>
       <c r="Z744" s="1"/>
+      <c r="AA744" s="1"/>
+      <c r="AB744" s="1"/>
     </row>
     <row r="745">
       <c r="A745" s="1"/>
@@ -23658,6 +25215,8 @@
       <c r="X745" s="1"/>
       <c r="Y745" s="1"/>
       <c r="Z745" s="1"/>
+      <c r="AA745" s="1"/>
+      <c r="AB745" s="1"/>
     </row>
     <row r="746">
       <c r="A746" s="1"/>
@@ -23686,6 +25245,8 @@
       <c r="X746" s="1"/>
       <c r="Y746" s="1"/>
       <c r="Z746" s="1"/>
+      <c r="AA746" s="1"/>
+      <c r="AB746" s="1"/>
     </row>
     <row r="747">
       <c r="A747" s="1"/>
@@ -23714,6 +25275,8 @@
       <c r="X747" s="1"/>
       <c r="Y747" s="1"/>
       <c r="Z747" s="1"/>
+      <c r="AA747" s="1"/>
+      <c r="AB747" s="1"/>
     </row>
     <row r="748">
       <c r="A748" s="1"/>
@@ -23742,6 +25305,8 @@
       <c r="X748" s="1"/>
       <c r="Y748" s="1"/>
       <c r="Z748" s="1"/>
+      <c r="AA748" s="1"/>
+      <c r="AB748" s="1"/>
     </row>
     <row r="749">
       <c r="A749" s="1"/>
@@ -23770,6 +25335,8 @@
       <c r="X749" s="1"/>
       <c r="Y749" s="1"/>
       <c r="Z749" s="1"/>
+      <c r="AA749" s="1"/>
+      <c r="AB749" s="1"/>
     </row>
     <row r="750">
       <c r="A750" s="1"/>
@@ -23798,6 +25365,8 @@
       <c r="X750" s="1"/>
       <c r="Y750" s="1"/>
       <c r="Z750" s="1"/>
+      <c r="AA750" s="1"/>
+      <c r="AB750" s="1"/>
     </row>
     <row r="751">
       <c r="A751" s="1"/>
@@ -23826,6 +25395,8 @@
       <c r="X751" s="1"/>
       <c r="Y751" s="1"/>
       <c r="Z751" s="1"/>
+      <c r="AA751" s="1"/>
+      <c r="AB751" s="1"/>
     </row>
     <row r="752">
       <c r="A752" s="1"/>
@@ -23854,6 +25425,8 @@
       <c r="X752" s="1"/>
       <c r="Y752" s="1"/>
       <c r="Z752" s="1"/>
+      <c r="AA752" s="1"/>
+      <c r="AB752" s="1"/>
     </row>
     <row r="753">
       <c r="A753" s="1"/>
@@ -23882,6 +25455,8 @@
       <c r="X753" s="1"/>
       <c r="Y753" s="1"/>
       <c r="Z753" s="1"/>
+      <c r="AA753" s="1"/>
+      <c r="AB753" s="1"/>
     </row>
     <row r="754">
       <c r="A754" s="1"/>
@@ -23910,6 +25485,8 @@
       <c r="X754" s="1"/>
       <c r="Y754" s="1"/>
       <c r="Z754" s="1"/>
+      <c r="AA754" s="1"/>
+      <c r="AB754" s="1"/>
     </row>
     <row r="755">
       <c r="A755" s="1"/>
@@ -23938,6 +25515,8 @@
       <c r="X755" s="1"/>
       <c r="Y755" s="1"/>
       <c r="Z755" s="1"/>
+      <c r="AA755" s="1"/>
+      <c r="AB755" s="1"/>
     </row>
     <row r="756">
       <c r="A756" s="1"/>
@@ -23966,6 +25545,8 @@
       <c r="X756" s="1"/>
       <c r="Y756" s="1"/>
       <c r="Z756" s="1"/>
+      <c r="AA756" s="1"/>
+      <c r="AB756" s="1"/>
     </row>
     <row r="757">
       <c r="A757" s="1"/>
@@ -23994,6 +25575,8 @@
       <c r="X757" s="1"/>
       <c r="Y757" s="1"/>
       <c r="Z757" s="1"/>
+      <c r="AA757" s="1"/>
+      <c r="AB757" s="1"/>
     </row>
     <row r="758">
       <c r="A758" s="1"/>
@@ -24022,6 +25605,8 @@
       <c r="X758" s="1"/>
       <c r="Y758" s="1"/>
       <c r="Z758" s="1"/>
+      <c r="AA758" s="1"/>
+      <c r="AB758" s="1"/>
     </row>
     <row r="759">
       <c r="A759" s="1"/>
@@ -24050,6 +25635,8 @@
       <c r="X759" s="1"/>
       <c r="Y759" s="1"/>
       <c r="Z759" s="1"/>
+      <c r="AA759" s="1"/>
+      <c r="AB759" s="1"/>
     </row>
     <row r="760">
       <c r="A760" s="1"/>
@@ -24078,6 +25665,8 @@
       <c r="X760" s="1"/>
       <c r="Y760" s="1"/>
       <c r="Z760" s="1"/>
+      <c r="AA760" s="1"/>
+      <c r="AB760" s="1"/>
     </row>
     <row r="761">
       <c r="A761" s="1"/>
@@ -24106,6 +25695,8 @@
       <c r="X761" s="1"/>
       <c r="Y761" s="1"/>
       <c r="Z761" s="1"/>
+      <c r="AA761" s="1"/>
+      <c r="AB761" s="1"/>
     </row>
     <row r="762">
       <c r="A762" s="1"/>
@@ -24134,6 +25725,8 @@
       <c r="X762" s="1"/>
       <c r="Y762" s="1"/>
       <c r="Z762" s="1"/>
+      <c r="AA762" s="1"/>
+      <c r="AB762" s="1"/>
     </row>
     <row r="763">
       <c r="A763" s="1"/>
@@ -24162,6 +25755,8 @@
       <c r="X763" s="1"/>
       <c r="Y763" s="1"/>
       <c r="Z763" s="1"/>
+      <c r="AA763" s="1"/>
+      <c r="AB763" s="1"/>
     </row>
     <row r="764">
       <c r="A764" s="1"/>
@@ -24190,6 +25785,8 @@
       <c r="X764" s="1"/>
       <c r="Y764" s="1"/>
       <c r="Z764" s="1"/>
+      <c r="AA764" s="1"/>
+      <c r="AB764" s="1"/>
     </row>
     <row r="765">
       <c r="A765" s="1"/>
@@ -24218,6 +25815,8 @@
       <c r="X765" s="1"/>
       <c r="Y765" s="1"/>
       <c r="Z765" s="1"/>
+      <c r="AA765" s="1"/>
+      <c r="AB765" s="1"/>
     </row>
     <row r="766">
       <c r="A766" s="1"/>
@@ -24246,6 +25845,8 @@
       <c r="X766" s="1"/>
       <c r="Y766" s="1"/>
       <c r="Z766" s="1"/>
+      <c r="AA766" s="1"/>
+      <c r="AB766" s="1"/>
     </row>
     <row r="767">
       <c r="A767" s="1"/>
@@ -24274,6 +25875,8 @@
       <c r="X767" s="1"/>
       <c r="Y767" s="1"/>
       <c r="Z767" s="1"/>
+      <c r="AA767" s="1"/>
+      <c r="AB767" s="1"/>
     </row>
     <row r="768">
       <c r="A768" s="1"/>
@@ -24302,6 +25905,8 @@
       <c r="X768" s="1"/>
       <c r="Y768" s="1"/>
       <c r="Z768" s="1"/>
+      <c r="AA768" s="1"/>
+      <c r="AB768" s="1"/>
     </row>
     <row r="769">
       <c r="A769" s="1"/>
@@ -24330,6 +25935,8 @@
       <c r="X769" s="1"/>
       <c r="Y769" s="1"/>
       <c r="Z769" s="1"/>
+      <c r="AA769" s="1"/>
+      <c r="AB769" s="1"/>
     </row>
     <row r="770">
       <c r="A770" s="1"/>
@@ -24358,6 +25965,8 @@
       <c r="X770" s="1"/>
       <c r="Y770" s="1"/>
       <c r="Z770" s="1"/>
+      <c r="AA770" s="1"/>
+      <c r="AB770" s="1"/>
     </row>
     <row r="771">
       <c r="A771" s="1"/>
@@ -24386,6 +25995,8 @@
       <c r="X771" s="1"/>
       <c r="Y771" s="1"/>
       <c r="Z771" s="1"/>
+      <c r="AA771" s="1"/>
+      <c r="AB771" s="1"/>
     </row>
     <row r="772">
       <c r="A772" s="1"/>
@@ -24414,6 +26025,8 @@
       <c r="X772" s="1"/>
       <c r="Y772" s="1"/>
       <c r="Z772" s="1"/>
+      <c r="AA772" s="1"/>
+      <c r="AB772" s="1"/>
     </row>
     <row r="773">
       <c r="A773" s="1"/>
@@ -24442,6 +26055,8 @@
       <c r="X773" s="1"/>
       <c r="Y773" s="1"/>
       <c r="Z773" s="1"/>
+      <c r="AA773" s="1"/>
+      <c r="AB773" s="1"/>
     </row>
     <row r="774">
       <c r="A774" s="1"/>
@@ -24470,6 +26085,8 @@
       <c r="X774" s="1"/>
       <c r="Y774" s="1"/>
       <c r="Z774" s="1"/>
+      <c r="AA774" s="1"/>
+      <c r="AB774" s="1"/>
     </row>
     <row r="775">
       <c r="A775" s="1"/>
@@ -24498,6 +26115,8 @@
       <c r="X775" s="1"/>
       <c r="Y775" s="1"/>
       <c r="Z775" s="1"/>
+      <c r="AA775" s="1"/>
+      <c r="AB775" s="1"/>
     </row>
     <row r="776">
       <c r="A776" s="1"/>
@@ -24526,6 +26145,8 @@
       <c r="X776" s="1"/>
       <c r="Y776" s="1"/>
       <c r="Z776" s="1"/>
+      <c r="AA776" s="1"/>
+      <c r="AB776" s="1"/>
     </row>
     <row r="777">
       <c r="A777" s="1"/>
@@ -24554,6 +26175,8 @@
       <c r="X777" s="1"/>
       <c r="Y777" s="1"/>
       <c r="Z777" s="1"/>
+      <c r="AA777" s="1"/>
+      <c r="AB777" s="1"/>
     </row>
     <row r="778">
       <c r="A778" s="1"/>
@@ -24582,6 +26205,8 @@
       <c r="X778" s="1"/>
       <c r="Y778" s="1"/>
       <c r="Z778" s="1"/>
+      <c r="AA778" s="1"/>
+      <c r="AB778" s="1"/>
     </row>
     <row r="779">
       <c r="A779" s="1"/>
@@ -24610,6 +26235,8 @@
       <c r="X779" s="1"/>
       <c r="Y779" s="1"/>
       <c r="Z779" s="1"/>
+      <c r="AA779" s="1"/>
+      <c r="AB779" s="1"/>
     </row>
     <row r="780">
       <c r="A780" s="1"/>
@@ -24638,6 +26265,8 @@
       <c r="X780" s="1"/>
       <c r="Y780" s="1"/>
       <c r="Z780" s="1"/>
+      <c r="AA780" s="1"/>
+      <c r="AB780" s="1"/>
     </row>
     <row r="781">
       <c r="A781" s="1"/>
@@ -24666,6 +26295,8 @@
       <c r="X781" s="1"/>
       <c r="Y781" s="1"/>
       <c r="Z781" s="1"/>
+      <c r="AA781" s="1"/>
+      <c r="AB781" s="1"/>
     </row>
     <row r="782">
       <c r="A782" s="1"/>
@@ -24694,6 +26325,8 @@
       <c r="X782" s="1"/>
       <c r="Y782" s="1"/>
       <c r="Z782" s="1"/>
+      <c r="AA782" s="1"/>
+      <c r="AB782" s="1"/>
     </row>
     <row r="783">
       <c r="A783" s="1"/>
@@ -24722,6 +26355,8 @@
       <c r="X783" s="1"/>
       <c r="Y783" s="1"/>
       <c r="Z783" s="1"/>
+      <c r="AA783" s="1"/>
+      <c r="AB783" s="1"/>
     </row>
     <row r="784">
       <c r="A784" s="1"/>
@@ -24750,6 +26385,8 @@
       <c r="X784" s="1"/>
       <c r="Y784" s="1"/>
       <c r="Z784" s="1"/>
+      <c r="AA784" s="1"/>
+      <c r="AB784" s="1"/>
     </row>
     <row r="785">
       <c r="A785" s="1"/>
@@ -24778,6 +26415,8 @@
       <c r="X785" s="1"/>
       <c r="Y785" s="1"/>
       <c r="Z785" s="1"/>
+      <c r="AA785" s="1"/>
+      <c r="AB785" s="1"/>
     </row>
     <row r="786">
       <c r="A786" s="1"/>
@@ -24806,6 +26445,8 @@
       <c r="X786" s="1"/>
       <c r="Y786" s="1"/>
       <c r="Z786" s="1"/>
+      <c r="AA786" s="1"/>
+      <c r="AB786" s="1"/>
     </row>
     <row r="787">
       <c r="A787" s="1"/>
@@ -24834,6 +26475,8 @@
       <c r="X787" s="1"/>
       <c r="Y787" s="1"/>
       <c r="Z787" s="1"/>
+      <c r="AA787" s="1"/>
+      <c r="AB787" s="1"/>
     </row>
     <row r="788">
       <c r="A788" s="1"/>
@@ -24862,6 +26505,8 @@
       <c r="X788" s="1"/>
       <c r="Y788" s="1"/>
       <c r="Z788" s="1"/>
+      <c r="AA788" s="1"/>
+      <c r="AB788" s="1"/>
     </row>
     <row r="789">
       <c r="A789" s="1"/>
@@ -24890,6 +26535,8 @@
       <c r="X789" s="1"/>
       <c r="Y789" s="1"/>
       <c r="Z789" s="1"/>
+      <c r="AA789" s="1"/>
+      <c r="AB789" s="1"/>
     </row>
     <row r="790">
       <c r="A790" s="1"/>
@@ -24918,6 +26565,8 @@
       <c r="X790" s="1"/>
       <c r="Y790" s="1"/>
       <c r="Z790" s="1"/>
+      <c r="AA790" s="1"/>
+      <c r="AB790" s="1"/>
     </row>
     <row r="791">
       <c r="A791" s="1"/>
@@ -24946,6 +26595,8 @@
       <c r="X791" s="1"/>
       <c r="Y791" s="1"/>
       <c r="Z791" s="1"/>
+      <c r="AA791" s="1"/>
+      <c r="AB791" s="1"/>
     </row>
     <row r="792">
       <c r="A792" s="1"/>
@@ -24974,6 +26625,8 @@
       <c r="X792" s="1"/>
       <c r="Y792" s="1"/>
       <c r="Z792" s="1"/>
+      <c r="AA792" s="1"/>
+      <c r="AB792" s="1"/>
     </row>
     <row r="793">
       <c r="A793" s="1"/>
@@ -25002,6 +26655,8 @@
       <c r="X793" s="1"/>
       <c r="Y793" s="1"/>
       <c r="Z793" s="1"/>
+      <c r="AA793" s="1"/>
+      <c r="AB793" s="1"/>
     </row>
     <row r="794">
       <c r="A794" s="1"/>
@@ -25030,6 +26685,8 @@
       <c r="X794" s="1"/>
       <c r="Y794" s="1"/>
       <c r="Z794" s="1"/>
+      <c r="AA794" s="1"/>
+      <c r="AB794" s="1"/>
     </row>
     <row r="795">
       <c r="A795" s="1"/>
@@ -25058,6 +26715,8 @@
       <c r="X795" s="1"/>
       <c r="Y795" s="1"/>
       <c r="Z795" s="1"/>
+      <c r="AA795" s="1"/>
+      <c r="AB795" s="1"/>
     </row>
     <row r="796">
       <c r="A796" s="1"/>
@@ -25086,6 +26745,8 @@
       <c r="X796" s="1"/>
       <c r="Y796" s="1"/>
       <c r="Z796" s="1"/>
+      <c r="AA796" s="1"/>
+      <c r="AB796" s="1"/>
     </row>
     <row r="797">
       <c r="A797" s="1"/>
@@ -25114,6 +26775,8 @@
       <c r="X797" s="1"/>
       <c r="Y797" s="1"/>
       <c r="Z797" s="1"/>
+      <c r="AA797" s="1"/>
+      <c r="AB797" s="1"/>
     </row>
     <row r="798">
       <c r="A798" s="1"/>
@@ -25142,6 +26805,8 @@
       <c r="X798" s="1"/>
       <c r="Y798" s="1"/>
       <c r="Z798" s="1"/>
+      <c r="AA798" s="1"/>
+      <c r="AB798" s="1"/>
     </row>
     <row r="799">
       <c r="A799" s="1"/>
@@ -25170,6 +26835,8 @@
       <c r="X799" s="1"/>
       <c r="Y799" s="1"/>
       <c r="Z799" s="1"/>
+      <c r="AA799" s="1"/>
+      <c r="AB799" s="1"/>
     </row>
     <row r="800">
       <c r="A800" s="1"/>
@@ -25198,6 +26865,8 @@
       <c r="X800" s="1"/>
       <c r="Y800" s="1"/>
       <c r="Z800" s="1"/>
+      <c r="AA800" s="1"/>
+      <c r="AB800" s="1"/>
     </row>
     <row r="801">
       <c r="A801" s="1"/>
@@ -25226,6 +26895,8 @@
       <c r="X801" s="1"/>
       <c r="Y801" s="1"/>
       <c r="Z801" s="1"/>
+      <c r="AA801" s="1"/>
+      <c r="AB801" s="1"/>
     </row>
     <row r="802">
       <c r="A802" s="1"/>
@@ -25254,6 +26925,8 @@
       <c r="X802" s="1"/>
       <c r="Y802" s="1"/>
       <c r="Z802" s="1"/>
+      <c r="AA802" s="1"/>
+      <c r="AB802" s="1"/>
     </row>
     <row r="803">
       <c r="A803" s="1"/>
@@ -25282,6 +26955,8 @@
       <c r="X803" s="1"/>
       <c r="Y803" s="1"/>
       <c r="Z803" s="1"/>
+      <c r="AA803" s="1"/>
+      <c r="AB803" s="1"/>
     </row>
     <row r="804">
       <c r="A804" s="1"/>
@@ -25310,6 +26985,8 @@
       <c r="X804" s="1"/>
       <c r="Y804" s="1"/>
       <c r="Z804" s="1"/>
+      <c r="AA804" s="1"/>
+      <c r="AB804" s="1"/>
     </row>
     <row r="805">
       <c r="A805" s="1"/>
@@ -25338,6 +27015,8 @@
       <c r="X805" s="1"/>
       <c r="Y805" s="1"/>
       <c r="Z805" s="1"/>
+      <c r="AA805" s="1"/>
+      <c r="AB805" s="1"/>
     </row>
     <row r="806">
       <c r="A806" s="1"/>
@@ -25366,6 +27045,8 @@
       <c r="X806" s="1"/>
       <c r="Y806" s="1"/>
       <c r="Z806" s="1"/>
+      <c r="AA806" s="1"/>
+      <c r="AB806" s="1"/>
     </row>
     <row r="807">
       <c r="A807" s="1"/>
@@ -25394,6 +27075,8 @@
       <c r="X807" s="1"/>
       <c r="Y807" s="1"/>
       <c r="Z807" s="1"/>
+      <c r="AA807" s="1"/>
+      <c r="AB807" s="1"/>
     </row>
     <row r="808">
       <c r="A808" s="1"/>
@@ -25422,6 +27105,8 @@
       <c r="X808" s="1"/>
       <c r="Y808" s="1"/>
       <c r="Z808" s="1"/>
+      <c r="AA808" s="1"/>
+      <c r="AB808" s="1"/>
     </row>
     <row r="809">
       <c r="A809" s="1"/>
@@ -25450,6 +27135,8 @@
       <c r="X809" s="1"/>
       <c r="Y809" s="1"/>
       <c r="Z809" s="1"/>
+      <c r="AA809" s="1"/>
+      <c r="AB809" s="1"/>
     </row>
     <row r="810">
       <c r="A810" s="1"/>
@@ -25478,6 +27165,8 @@
       <c r="X810" s="1"/>
       <c r="Y810" s="1"/>
       <c r="Z810" s="1"/>
+      <c r="AA810" s="1"/>
+      <c r="AB810" s="1"/>
     </row>
     <row r="811">
       <c r="A811" s="1"/>
@@ -25506,6 +27195,8 @@
       <c r="X811" s="1"/>
       <c r="Y811" s="1"/>
       <c r="Z811" s="1"/>
+      <c r="AA811" s="1"/>
+      <c r="AB811" s="1"/>
     </row>
     <row r="812">
       <c r="A812" s="1"/>
@@ -25534,6 +27225,8 @@
       <c r="X812" s="1"/>
       <c r="Y812" s="1"/>
       <c r="Z812" s="1"/>
+      <c r="AA812" s="1"/>
+      <c r="AB812" s="1"/>
     </row>
     <row r="813">
       <c r="A813" s="1"/>
@@ -25562,6 +27255,8 @@
       <c r="X813" s="1"/>
       <c r="Y813" s="1"/>
       <c r="Z813" s="1"/>
+      <c r="AA813" s="1"/>
+      <c r="AB813" s="1"/>
     </row>
     <row r="814">
       <c r="A814" s="1"/>
@@ -25590,6 +27285,8 @@
       <c r="X814" s="1"/>
       <c r="Y814" s="1"/>
       <c r="Z814" s="1"/>
+      <c r="AA814" s="1"/>
+      <c r="AB814" s="1"/>
     </row>
     <row r="815">
       <c r="A815" s="1"/>
@@ -25618,6 +27315,8 @@
       <c r="X815" s="1"/>
       <c r="Y815" s="1"/>
       <c r="Z815" s="1"/>
+      <c r="AA815" s="1"/>
+      <c r="AB815" s="1"/>
     </row>
     <row r="816">
       <c r="A816" s="1"/>
@@ -25646,6 +27345,8 @@
       <c r="X816" s="1"/>
       <c r="Y816" s="1"/>
       <c r="Z816" s="1"/>
+      <c r="AA816" s="1"/>
+      <c r="AB816" s="1"/>
     </row>
     <row r="817">
       <c r="A817" s="1"/>
@@ -25674,6 +27375,8 @@
       <c r="X817" s="1"/>
       <c r="Y817" s="1"/>
       <c r="Z817" s="1"/>
+      <c r="AA817" s="1"/>
+      <c r="AB817" s="1"/>
     </row>
     <row r="818">
       <c r="A818" s="1"/>
@@ -25702,6 +27405,8 @@
       <c r="X818" s="1"/>
       <c r="Y818" s="1"/>
       <c r="Z818" s="1"/>
+      <c r="AA818" s="1"/>
+      <c r="AB818" s="1"/>
     </row>
     <row r="819">
       <c r="A819" s="1"/>
@@ -25730,6 +27435,8 @@
       <c r="X819" s="1"/>
       <c r="Y819" s="1"/>
       <c r="Z819" s="1"/>
+      <c r="AA819" s="1"/>
+      <c r="AB819" s="1"/>
     </row>
     <row r="820">
       <c r="A820" s="1"/>
@@ -25758,6 +27465,8 @@
       <c r="X820" s="1"/>
       <c r="Y820" s="1"/>
       <c r="Z820" s="1"/>
+      <c r="AA820" s="1"/>
+      <c r="AB820" s="1"/>
     </row>
     <row r="821">
       <c r="A821" s="1"/>
@@ -25786,6 +27495,8 @@
       <c r="X821" s="1"/>
       <c r="Y821" s="1"/>
       <c r="Z821" s="1"/>
+      <c r="AA821" s="1"/>
+      <c r="AB821" s="1"/>
     </row>
     <row r="822">
       <c r="A822" s="1"/>
@@ -25814,6 +27525,8 @@
       <c r="X822" s="1"/>
       <c r="Y822" s="1"/>
       <c r="Z822" s="1"/>
+      <c r="AA822" s="1"/>
+      <c r="AB822" s="1"/>
     </row>
     <row r="823">
       <c r="A823" s="1"/>
@@ -25842,6 +27555,8 @@
       <c r="X823" s="1"/>
       <c r="Y823" s="1"/>
       <c r="Z823" s="1"/>
+      <c r="AA823" s="1"/>
+      <c r="AB823" s="1"/>
     </row>
     <row r="824">
       <c r="A824" s="1"/>
@@ -25870,6 +27585,8 @@
       <c r="X824" s="1"/>
       <c r="Y824" s="1"/>
       <c r="Z824" s="1"/>
+      <c r="AA824" s="1"/>
+      <c r="AB824" s="1"/>
     </row>
     <row r="825">
       <c r="A825" s="1"/>
@@ -25898,6 +27615,8 @@
       <c r="X825" s="1"/>
       <c r="Y825" s="1"/>
       <c r="Z825" s="1"/>
+      <c r="AA825" s="1"/>
+      <c r="AB825" s="1"/>
     </row>
     <row r="826">
       <c r="A826" s="1"/>
@@ -25926,6 +27645,8 @@
       <c r="X826" s="1"/>
       <c r="Y826" s="1"/>
       <c r="Z826" s="1"/>
+      <c r="AA826" s="1"/>
+      <c r="AB826" s="1"/>
     </row>
     <row r="827">
       <c r="A827" s="1"/>
@@ -25954,6 +27675,8 @@
       <c r="X827" s="1"/>
       <c r="Y827" s="1"/>
       <c r="Z827" s="1"/>
+      <c r="AA827" s="1"/>
+      <c r="AB827" s="1"/>
     </row>
     <row r="828">
       <c r="A828" s="1"/>
@@ -25982,6 +27705,8 @@
       <c r="X828" s="1"/>
       <c r="Y828" s="1"/>
       <c r="Z828" s="1"/>
+      <c r="AA828" s="1"/>
+      <c r="AB828" s="1"/>
     </row>
     <row r="829">
       <c r="A829" s="1"/>
@@ -26010,6 +27735,8 @@
       <c r="X829" s="1"/>
       <c r="Y829" s="1"/>
       <c r="Z829" s="1"/>
+      <c r="AA829" s="1"/>
+      <c r="AB829" s="1"/>
     </row>
     <row r="830">
       <c r="A830" s="1"/>
@@ -26038,6 +27765,8 @@
       <c r="X830" s="1"/>
       <c r="Y830" s="1"/>
       <c r="Z830" s="1"/>
+      <c r="AA830" s="1"/>
+      <c r="AB830" s="1"/>
     </row>
     <row r="831">
       <c r="A831" s="1"/>
@@ -26066,6 +27795,8 @@
       <c r="X831" s="1"/>
       <c r="Y831" s="1"/>
       <c r="Z831" s="1"/>
+      <c r="AA831" s="1"/>
+      <c r="AB831" s="1"/>
     </row>
     <row r="832">
       <c r="A832" s="1"/>
@@ -26094,6 +27825,8 @@
       <c r="X832" s="1"/>
       <c r="Y832" s="1"/>
       <c r="Z832" s="1"/>
+      <c r="AA832" s="1"/>
+      <c r="AB832" s="1"/>
     </row>
     <row r="833">
       <c r="A833" s="1"/>
@@ -26122,6 +27855,8 @@
       <c r="X833" s="1"/>
       <c r="Y833" s="1"/>
       <c r="Z833" s="1"/>
+      <c r="AA833" s="1"/>
+      <c r="AB833" s="1"/>
     </row>
     <row r="834">
       <c r="A834" s="1"/>
@@ -26150,6 +27885,8 @@
       <c r="X834" s="1"/>
       <c r="Y834" s="1"/>
       <c r="Z834" s="1"/>
+      <c r="AA834" s="1"/>
+      <c r="AB834" s="1"/>
     </row>
     <row r="835">
       <c r="A835" s="1"/>
@@ -26178,6 +27915,8 @@
       <c r="X835" s="1"/>
       <c r="Y835" s="1"/>
       <c r="Z835" s="1"/>
+      <c r="AA835" s="1"/>
+      <c r="AB835" s="1"/>
     </row>
     <row r="836">
       <c r="A836" s="1"/>
@@ -26206,6 +27945,8 @@
       <c r="X836" s="1"/>
       <c r="Y836" s="1"/>
       <c r="Z836" s="1"/>
+      <c r="AA836" s="1"/>
+      <c r="AB836" s="1"/>
     </row>
     <row r="837">
       <c r="A837" s="1"/>
@@ -26234,6 +27975,8 @@
       <c r="X837" s="1"/>
       <c r="Y837" s="1"/>
       <c r="Z837" s="1"/>
+      <c r="AA837" s="1"/>
+      <c r="AB837" s="1"/>
     </row>
     <row r="838">
       <c r="A838" s="1"/>
@@ -26262,6 +28005,8 @@
       <c r="X838" s="1"/>
       <c r="Y838" s="1"/>
       <c r="Z838" s="1"/>
+      <c r="AA838" s="1"/>
+      <c r="AB838" s="1"/>
     </row>
     <row r="839">
       <c r="A839" s="1"/>
@@ -26290,6 +28035,8 @@
       <c r="X839" s="1"/>
       <c r="Y839" s="1"/>
       <c r="Z839" s="1"/>
+      <c r="AA839" s="1"/>
+      <c r="AB839" s="1"/>
     </row>
     <row r="840">
       <c r="A840" s="1"/>
@@ -26318,6 +28065,8 @@
       <c r="X840" s="1"/>
       <c r="Y840" s="1"/>
       <c r="Z840" s="1"/>
+      <c r="AA840" s="1"/>
+      <c r="AB840" s="1"/>
     </row>
     <row r="841">
       <c r="A841" s="1"/>
@@ -26346,6 +28095,8 @@
       <c r="X841" s="1"/>
       <c r="Y841" s="1"/>
       <c r="Z841" s="1"/>
+      <c r="AA841" s="1"/>
+      <c r="AB841" s="1"/>
     </row>
     <row r="842">
       <c r="A842" s="1"/>
@@ -26374,6 +28125,8 @@
       <c r="X842" s="1"/>
       <c r="Y842" s="1"/>
       <c r="Z842" s="1"/>
+      <c r="AA842" s="1"/>
+      <c r="AB842" s="1"/>
     </row>
     <row r="843">
       <c r="A843" s="1"/>
@@ -26402,6 +28155,8 @@
       <c r="X843" s="1"/>
       <c r="Y843" s="1"/>
       <c r="Z843" s="1"/>
+      <c r="AA843" s="1"/>
+      <c r="AB843" s="1"/>
     </row>
     <row r="844">
       <c r="A844" s="1"/>
@@ -26430,6 +28185,8 @@
       <c r="X844" s="1"/>
       <c r="Y844" s="1"/>
       <c r="Z844" s="1"/>
+      <c r="AA844" s="1"/>
+      <c r="AB844" s="1"/>
     </row>
     <row r="845">
       <c r="A845" s="1"/>
@@ -26458,6 +28215,8 @@
       <c r="X845" s="1"/>
       <c r="Y845" s="1"/>
       <c r="Z845" s="1"/>
+      <c r="AA845" s="1"/>
+      <c r="AB845" s="1"/>
     </row>
     <row r="846">
       <c r="A846" s="1"/>
@@ -26486,6 +28245,8 @@
       <c r="X846" s="1"/>
       <c r="Y846" s="1"/>
       <c r="Z846" s="1"/>
+      <c r="AA846" s="1"/>
+      <c r="AB846" s="1"/>
     </row>
     <row r="847">
       <c r="A847" s="1"/>
@@ -26514,6 +28275,8 @@
       <c r="X847" s="1"/>
       <c r="Y847" s="1"/>
       <c r="Z847" s="1"/>
+      <c r="AA847" s="1"/>
+      <c r="AB847" s="1"/>
     </row>
     <row r="848">
       <c r="A848" s="1"/>
@@ -26542,6 +28305,8 @@
       <c r="X848" s="1"/>
       <c r="Y848" s="1"/>
       <c r="Z848" s="1"/>
+      <c r="AA848" s="1"/>
+      <c r="AB848" s="1"/>
     </row>
     <row r="849">
       <c r="A849" s="1"/>
@@ -26570,6 +28335,8 @@
       <c r="X849" s="1"/>
       <c r="Y849" s="1"/>
       <c r="Z849" s="1"/>
+      <c r="AA849" s="1"/>
+      <c r="AB849" s="1"/>
     </row>
     <row r="850">
       <c r="A850" s="1"/>
@@ -26598,6 +28365,8 @@
       <c r="X850" s="1"/>
       <c r="Y850" s="1"/>
       <c r="Z850" s="1"/>
+      <c r="AA850" s="1"/>
+      <c r="AB850" s="1"/>
     </row>
     <row r="851">
       <c r="A851" s="1"/>
@@ -26626,6 +28395,8 @@
       <c r="X851" s="1"/>
       <c r="Y851" s="1"/>
       <c r="Z851" s="1"/>
+      <c r="AA851" s="1"/>
+      <c r="AB851" s="1"/>
     </row>
     <row r="852">
       <c r="A852" s="1"/>
@@ -26654,6 +28425,8 @@
       <c r="X852" s="1"/>
       <c r="Y852" s="1"/>
       <c r="Z852" s="1"/>
+      <c r="AA852" s="1"/>
+      <c r="AB852" s="1"/>
     </row>
     <row r="853">
       <c r="A853" s="1"/>
@@ -26682,6 +28455,8 @@
       <c r="X853" s="1"/>
       <c r="Y853" s="1"/>
       <c r="Z853" s="1"/>
+      <c r="AA853" s="1"/>
+      <c r="AB853" s="1"/>
     </row>
     <row r="854">
       <c r="A854" s="1"/>
@@ -26710,6 +28485,8 @@
       <c r="X854" s="1"/>
       <c r="Y854" s="1"/>
       <c r="Z854" s="1"/>
+      <c r="AA854" s="1"/>
+      <c r="AB854" s="1"/>
     </row>
     <row r="855">
       <c r="A855" s="1"/>
@@ -26738,6 +28515,8 @@
       <c r="X855" s="1"/>
       <c r="Y855" s="1"/>
       <c r="Z855" s="1"/>
+      <c r="AA855" s="1"/>
+      <c r="AB855" s="1"/>
     </row>
     <row r="856">
       <c r="A856" s="1"/>
@@ -26766,6 +28545,8 @@
       <c r="X856" s="1"/>
       <c r="Y856" s="1"/>
       <c r="Z856" s="1"/>
+      <c r="AA856" s="1"/>
+      <c r="AB856" s="1"/>
     </row>
     <row r="857">
       <c r="A857" s="1"/>
@@ -26794,6 +28575,8 @@
       <c r="X857" s="1"/>
       <c r="Y857" s="1"/>
       <c r="Z857" s="1"/>
+      <c r="AA857" s="1"/>
+      <c r="AB857" s="1"/>
     </row>
     <row r="858">
       <c r="A858" s="1"/>
@@ -26822,6 +28605,8 @@
       <c r="X858" s="1"/>
       <c r="Y858" s="1"/>
       <c r="Z858" s="1"/>
+      <c r="AA858" s="1"/>
+      <c r="AB858" s="1"/>
     </row>
     <row r="859">
       <c r="A859" s="1"/>
@@ -26850,6 +28635,8 @@
       <c r="X859" s="1"/>
       <c r="Y859" s="1"/>
       <c r="Z859" s="1"/>
+      <c r="AA859" s="1"/>
+      <c r="AB859" s="1"/>
     </row>
     <row r="860">
       <c r="A860" s="1"/>
@@ -26878,6 +28665,8 @@
       <c r="X860" s="1"/>
       <c r="Y860" s="1"/>
       <c r="Z860" s="1"/>
+      <c r="AA860" s="1"/>
+      <c r="AB860" s="1"/>
     </row>
     <row r="861">
       <c r="A861" s="1"/>
@@ -26906,6 +28695,8 @@
       <c r="X861" s="1"/>
       <c r="Y861" s="1"/>
       <c r="Z861" s="1"/>
+      <c r="AA861" s="1"/>
+      <c r="AB861" s="1"/>
     </row>
     <row r="862">
       <c r="A862" s="1"/>
@@ -26934,6 +28725,8 @@
       <c r="X862" s="1"/>
       <c r="Y862" s="1"/>
       <c r="Z862" s="1"/>
+      <c r="AA862" s="1"/>
+      <c r="AB862" s="1"/>
     </row>
     <row r="863">
       <c r="A863" s="1"/>
@@ -26962,6 +28755,8 @@
       <c r="X863" s="1"/>
       <c r="Y863" s="1"/>
       <c r="Z863" s="1"/>
+      <c r="AA863" s="1"/>
+      <c r="AB863" s="1"/>
     </row>
     <row r="864">
       <c r="A864" s="1"/>
@@ -26990,6 +28785,8 @@
       <c r="X864" s="1"/>
       <c r="Y864" s="1"/>
       <c r="Z864" s="1"/>
+      <c r="AA864" s="1"/>
+      <c r="AB864" s="1"/>
     </row>
     <row r="865">
       <c r="A865" s="1"/>
@@ -27018,6 +28815,8 @@
       <c r="X865" s="1"/>
       <c r="Y865" s="1"/>
       <c r="Z865" s="1"/>
+      <c r="AA865" s="1"/>
+      <c r="AB865" s="1"/>
     </row>
     <row r="866">
       <c r="A866" s="1"/>
@@ -27046,6 +28845,8 @@
       <c r="X866" s="1"/>
       <c r="Y866" s="1"/>
       <c r="Z866" s="1"/>
+      <c r="AA866" s="1"/>
+      <c r="AB866" s="1"/>
     </row>
     <row r="867">
       <c r="A867" s="1"/>
@@ -27074,6 +28875,8 @@
       <c r="X867" s="1"/>
       <c r="Y867" s="1"/>
       <c r="Z867" s="1"/>
+      <c r="AA867" s="1"/>
+      <c r="AB867" s="1"/>
     </row>
     <row r="868">
       <c r="A868" s="1"/>
@@ -27102,6 +28905,8 @@
       <c r="X868" s="1"/>
       <c r="Y868" s="1"/>
       <c r="Z868" s="1"/>
+      <c r="AA868" s="1"/>
+      <c r="AB868" s="1"/>
     </row>
     <row r="869">
       <c r="A869" s="1"/>
@@ -27130,6 +28935,8 @@
       <c r="X869" s="1"/>
       <c r="Y869" s="1"/>
       <c r="Z869" s="1"/>
+      <c r="AA869" s="1"/>
+      <c r="AB869" s="1"/>
     </row>
     <row r="870">
       <c r="A870" s="1"/>
@@ -27158,6 +28965,8 @@
       <c r="X870" s="1"/>
       <c r="Y870" s="1"/>
       <c r="Z870" s="1"/>
+      <c r="AA870" s="1"/>
+      <c r="AB870" s="1"/>
     </row>
     <row r="871">
       <c r="A871" s="1"/>
@@ -27186,6 +28995,8 @@
       <c r="X871" s="1"/>
       <c r="Y871" s="1"/>
       <c r="Z871" s="1"/>
+      <c r="AA871" s="1"/>
+      <c r="AB871" s="1"/>
     </row>
     <row r="872">
       <c r="A872" s="1"/>
@@ -27214,6 +29025,8 @@
       <c r="X872" s="1"/>
       <c r="Y872" s="1"/>
       <c r="Z872" s="1"/>
+      <c r="AA872" s="1"/>
+      <c r="AB872" s="1"/>
     </row>
     <row r="873">
       <c r="A873" s="1"/>
@@ -27242,6 +29055,8 @@
       <c r="X873" s="1"/>
       <c r="Y873" s="1"/>
       <c r="Z873" s="1"/>
+      <c r="AA873" s="1"/>
+      <c r="AB873" s="1"/>
     </row>
     <row r="874">
       <c r="A874" s="1"/>
@@ -27270,6 +29085,8 @@
       <c r="X874" s="1"/>
       <c r="Y874" s="1"/>
       <c r="Z874" s="1"/>
+      <c r="AA874" s="1"/>
+      <c r="AB874" s="1"/>
     </row>
     <row r="875">
       <c r="A875" s="1"/>
@@ -27298,6 +29115,8 @@
       <c r="X875" s="1"/>
       <c r="Y875" s="1"/>
       <c r="Z875" s="1"/>
+      <c r="AA875" s="1"/>
+      <c r="AB875" s="1"/>
     </row>
     <row r="876">
       <c r="A876" s="1"/>
@@ -27326,6 +29145,8 @@
       <c r="X876" s="1"/>
       <c r="Y876" s="1"/>
       <c r="Z876" s="1"/>
+      <c r="AA876" s="1"/>
+      <c r="AB876" s="1"/>
     </row>
     <row r="877">
       <c r="A877" s="1"/>
@@ -27354,6 +29175,8 @@
       <c r="X877" s="1"/>
       <c r="Y877" s="1"/>
       <c r="Z877" s="1"/>
+      <c r="AA877" s="1"/>
+      <c r="AB877" s="1"/>
     </row>
     <row r="878">
       <c r="A878" s="1"/>
@@ -27382,6 +29205,8 @@
       <c r="X878" s="1"/>
       <c r="Y878" s="1"/>
       <c r="Z878" s="1"/>
+      <c r="AA878" s="1"/>
+      <c r="AB878" s="1"/>
     </row>
     <row r="879">
       <c r="A879" s="1"/>
@@ -27410,6 +29235,8 @@
       <c r="X879" s="1"/>
       <c r="Y879" s="1"/>
       <c r="Z879" s="1"/>
+      <c r="AA879" s="1"/>
+      <c r="AB879" s="1"/>
     </row>
     <row r="880">
       <c r="A880" s="1"/>
@@ -27438,6 +29265,8 @@
       <c r="X880" s="1"/>
       <c r="Y880" s="1"/>
       <c r="Z880" s="1"/>
+      <c r="AA880" s="1"/>
+      <c r="AB880" s="1"/>
     </row>
     <row r="881">
       <c r="A881" s="1"/>
@@ -27466,6 +29295,8 @@
       <c r="X881" s="1"/>
       <c r="Y881" s="1"/>
       <c r="Z881" s="1"/>
+      <c r="AA881" s="1"/>
+      <c r="AB881" s="1"/>
     </row>
     <row r="882">
       <c r="A882" s="1"/>
@@ -27494,6 +29325,8 @@
       <c r="X882" s="1"/>
       <c r="Y882" s="1"/>
       <c r="Z882" s="1"/>
+      <c r="AA882" s="1"/>
+      <c r="AB882" s="1"/>
     </row>
     <row r="883">
       <c r="A883" s="1"/>
@@ -27522,6 +29355,8 @@
       <c r="X883" s="1"/>
       <c r="Y883" s="1"/>
       <c r="Z883" s="1"/>
+      <c r="AA883" s="1"/>
+      <c r="AB883" s="1"/>
     </row>
     <row r="884">
       <c r="A884" s="1"/>
@@ -27550,6 +29385,8 @@
       <c r="X884" s="1"/>
       <c r="Y884" s="1"/>
       <c r="Z884" s="1"/>
+      <c r="AA884" s="1"/>
+      <c r="AB884" s="1"/>
     </row>
     <row r="885">
       <c r="A885" s="1"/>
@@ -27578,6 +29415,8 @@
       <c r="X885" s="1"/>
       <c r="Y885" s="1"/>
       <c r="Z885" s="1"/>
+      <c r="AA885" s="1"/>
+      <c r="AB885" s="1"/>
     </row>
     <row r="886">
       <c r="A886" s="1"/>
@@ -27606,6 +29445,8 @@
       <c r="X886" s="1"/>
       <c r="Y886" s="1"/>
       <c r="Z886" s="1"/>
+      <c r="AA886" s="1"/>
+      <c r="AB886" s="1"/>
     </row>
     <row r="887">
       <c r="A887" s="1"/>
@@ -27634,6 +29475,8 @@
       <c r="X887" s="1"/>
       <c r="Y887" s="1"/>
       <c r="Z887" s="1"/>
+      <c r="AA887" s="1"/>
+      <c r="AB887" s="1"/>
     </row>
     <row r="888">
       <c r="A888" s="1"/>
@@ -27662,6 +29505,8 @@
       <c r="X888" s="1"/>
       <c r="Y888" s="1"/>
       <c r="Z888" s="1"/>
+      <c r="AA888" s="1"/>
+      <c r="AB888" s="1"/>
     </row>
     <row r="889">
       <c r="A889" s="1"/>
@@ -27690,6 +29535,8 @@
       <c r="X889" s="1"/>
       <c r="Y889" s="1"/>
       <c r="Z889" s="1"/>
+      <c r="AA889" s="1"/>
+      <c r="AB889" s="1"/>
     </row>
     <row r="890">
       <c r="A890" s="1"/>
@@ -27718,6 +29565,8 @@
       <c r="X890" s="1"/>
       <c r="Y890" s="1"/>
       <c r="Z890" s="1"/>
+      <c r="AA890" s="1"/>
+      <c r="AB890" s="1"/>
     </row>
     <row r="891">
       <c r="A891" s="1"/>
@@ -27746,6 +29595,8 @@
       <c r="X891" s="1"/>
       <c r="Y891" s="1"/>
       <c r="Z891" s="1"/>
+      <c r="AA891" s="1"/>
+      <c r="AB891" s="1"/>
     </row>
     <row r="892">
       <c r="A892" s="1"/>
@@ -27774,6 +29625,8 @@
       <c r="X892" s="1"/>
       <c r="Y892" s="1"/>
       <c r="Z892" s="1"/>
+      <c r="AA892" s="1"/>
+      <c r="AB892" s="1"/>
     </row>
     <row r="893">
       <c r="A893" s="1"/>
@@ -27802,6 +29655,8 @@
       <c r="X893" s="1"/>
       <c r="Y893" s="1"/>
       <c r="Z893" s="1"/>
+      <c r="AA893" s="1"/>
+      <c r="AB893" s="1"/>
     </row>
     <row r="894">
       <c r="A894" s="1"/>
@@ -27830,6 +29685,8 @@
       <c r="X894" s="1"/>
       <c r="Y894" s="1"/>
       <c r="Z894" s="1"/>
+      <c r="AA894" s="1"/>
+      <c r="AB894" s="1"/>
     </row>
     <row r="895">
       <c r="A895" s="1"/>
@@ -27858,6 +29715,8 @@
       <c r="X895" s="1"/>
       <c r="Y895" s="1"/>
       <c r="Z895" s="1"/>
+      <c r="AA895" s="1"/>
+      <c r="AB895" s="1"/>
     </row>
     <row r="896">
       <c r="A896" s="1"/>
@@ -27886,6 +29745,8 @@
       <c r="X896" s="1"/>
       <c r="Y896" s="1"/>
       <c r="Z896" s="1"/>
+      <c r="AA896" s="1"/>
+      <c r="AB896" s="1"/>
     </row>
     <row r="897">
       <c r="A897" s="1"/>
@@ -27914,6 +29775,8 @@
       <c r="X897" s="1"/>
       <c r="Y897" s="1"/>
       <c r="Z897" s="1"/>
+      <c r="AA897" s="1"/>
+      <c r="AB897" s="1"/>
     </row>
     <row r="898">
       <c r="A898" s="1"/>
@@ -27942,6 +29805,8 @@
       <c r="X898" s="1"/>
       <c r="Y898" s="1"/>
       <c r="Z898" s="1"/>
+      <c r="AA898" s="1"/>
+      <c r="AB898" s="1"/>
     </row>
     <row r="899">
       <c r="A899" s="1"/>
@@ -27970,6 +29835,8 @@
       <c r="X899" s="1"/>
       <c r="Y899" s="1"/>
       <c r="Z899" s="1"/>
+      <c r="AA899" s="1"/>
+      <c r="AB899" s="1"/>
     </row>
     <row r="900">
       <c r="A900" s="1"/>
@@ -27998,6 +29865,8 @@
       <c r="X900" s="1"/>
       <c r="Y900" s="1"/>
       <c r="Z900" s="1"/>
+      <c r="AA900" s="1"/>
+      <c r="AB900" s="1"/>
     </row>
     <row r="901">
       <c r="A901" s="1"/>
@@ -28026,6 +29895,8 @@
       <c r="X901" s="1"/>
       <c r="Y901" s="1"/>
       <c r="Z901" s="1"/>
+      <c r="AA901" s="1"/>
+      <c r="AB901" s="1"/>
     </row>
     <row r="902">
       <c r="A902" s="1"/>
@@ -28054,6 +29925,8 @@
       <c r="X902" s="1"/>
       <c r="Y902" s="1"/>
       <c r="Z902" s="1"/>
+      <c r="AA902" s="1"/>
+      <c r="AB902" s="1"/>
     </row>
     <row r="903">
       <c r="A903" s="1"/>
@@ -28082,6 +29955,8 @@
       <c r="X903" s="1"/>
       <c r="Y903" s="1"/>
       <c r="Z903" s="1"/>
+      <c r="AA903" s="1"/>
+      <c r="AB903" s="1"/>
     </row>
     <row r="904">
       <c r="A904" s="1"/>
@@ -28110,6 +29985,8 @@
       <c r="X904" s="1"/>
       <c r="Y904" s="1"/>
       <c r="Z904" s="1"/>
+      <c r="AA904" s="1"/>
+      <c r="AB904" s="1"/>
     </row>
     <row r="905">
       <c r="A905" s="1"/>
@@ -28138,6 +30015,8 @@
       <c r="X905" s="1"/>
       <c r="Y905" s="1"/>
       <c r="Z905" s="1"/>
+      <c r="AA905" s="1"/>
+      <c r="AB905" s="1"/>
     </row>
     <row r="906">
       <c r="A906" s="1"/>
@@ -28166,6 +30045,8 @@
       <c r="X906" s="1"/>
       <c r="Y906" s="1"/>
       <c r="Z906" s="1"/>
+      <c r="AA906" s="1"/>
+      <c r="AB906" s="1"/>
     </row>
     <row r="907">
       <c r="A907" s="1"/>
@@ -28194,6 +30075,8 @@
       <c r="X907" s="1"/>
       <c r="Y907" s="1"/>
       <c r="Z907" s="1"/>
+      <c r="AA907" s="1"/>
+      <c r="AB907" s="1"/>
     </row>
     <row r="908">
       <c r="A908" s="1"/>
@@ -28222,6 +30105,8 @@
       <c r="X908" s="1"/>
       <c r="Y908" s="1"/>
       <c r="Z908" s="1"/>
+      <c r="AA908" s="1"/>
+      <c r="AB908" s="1"/>
     </row>
     <row r="909">
       <c r="A909" s="1"/>
@@ -28250,6 +30135,8 @@
       <c r="X909" s="1"/>
       <c r="Y909" s="1"/>
       <c r="Z909" s="1"/>
+      <c r="AA909" s="1"/>
+      <c r="AB909" s="1"/>
     </row>
     <row r="910">
       <c r="A910" s="1"/>
@@ -28278,6 +30165,8 @@
       <c r="X910" s="1"/>
       <c r="Y910" s="1"/>
       <c r="Z910" s="1"/>
+      <c r="AA910" s="1"/>
+      <c r="AB910" s="1"/>
     </row>
     <row r="911">
       <c r="A911" s="1"/>
@@ -28306,6 +30195,8 @@
       <c r="X911" s="1"/>
       <c r="Y911" s="1"/>
       <c r="Z911" s="1"/>
+      <c r="AA911" s="1"/>
+      <c r="AB911" s="1"/>
     </row>
     <row r="912">
       <c r="A912" s="1"/>
@@ -28334,6 +30225,8 @@
       <c r="X912" s="1"/>
       <c r="Y912" s="1"/>
       <c r="Z912" s="1"/>
+      <c r="AA912" s="1"/>
+      <c r="AB912" s="1"/>
     </row>
     <row r="913">
       <c r="A913" s="1"/>
@@ -28362,6 +30255,8 @@
       <c r="X913" s="1"/>
       <c r="Y913" s="1"/>
       <c r="Z913" s="1"/>
+      <c r="AA913" s="1"/>
+      <c r="AB913" s="1"/>
     </row>
     <row r="914">
       <c r="A914" s="1"/>
@@ -28390,6 +30285,8 @@
       <c r="X914" s="1"/>
       <c r="Y914" s="1"/>
       <c r="Z914" s="1"/>
+      <c r="AA914" s="1"/>
+      <c r="AB914" s="1"/>
     </row>
     <row r="915">
       <c r="A915" s="1"/>
@@ -28418,6 +30315,8 @@
       <c r="X915" s="1"/>
       <c r="Y915" s="1"/>
       <c r="Z915" s="1"/>
+      <c r="AA915" s="1"/>
+      <c r="AB915" s="1"/>
     </row>
     <row r="916">
       <c r="A916" s="1"/>
@@ -28446,6 +30345,8 @@
       <c r="X916" s="1"/>
       <c r="Y916" s="1"/>
       <c r="Z916" s="1"/>
+      <c r="AA916" s="1"/>
+      <c r="AB916" s="1"/>
     </row>
     <row r="917">
       <c r="A917" s="1"/>
@@ -28474,6 +30375,8 @@
       <c r="X917" s="1"/>
       <c r="Y917" s="1"/>
       <c r="Z917" s="1"/>
+      <c r="AA917" s="1"/>
+      <c r="AB917" s="1"/>
     </row>
     <row r="918">
       <c r="A918" s="1"/>
@@ -28502,6 +30405,8 @@
       <c r="X918" s="1"/>
       <c r="Y918" s="1"/>
       <c r="Z918" s="1"/>
+      <c r="AA918" s="1"/>
+      <c r="AB918" s="1"/>
     </row>
     <row r="919">
       <c r="A919" s="1"/>
@@ -28530,6 +30435,8 @@
       <c r="X919" s="1"/>
       <c r="Y919" s="1"/>
       <c r="Z919" s="1"/>
+      <c r="AA919" s="1"/>
+      <c r="AB919" s="1"/>
     </row>
     <row r="920">
       <c r="A920" s="1"/>
@@ -28558,6 +30465,8 @@
       <c r="X920" s="1"/>
       <c r="Y920" s="1"/>
       <c r="Z920" s="1"/>
+      <c r="AA920" s="1"/>
+      <c r="AB920" s="1"/>
     </row>
     <row r="921">
       <c r="A921" s="1"/>
@@ -28586,6 +30495,8 @@
       <c r="X921" s="1"/>
       <c r="Y921" s="1"/>
       <c r="Z921" s="1"/>
+      <c r="AA921" s="1"/>
+      <c r="AB921" s="1"/>
     </row>
     <row r="922">
       <c r="A922" s="1"/>
@@ -28614,6 +30525,8 @@
       <c r="X922" s="1"/>
       <c r="Y922" s="1"/>
       <c r="Z922" s="1"/>
+      <c r="AA922" s="1"/>
+      <c r="AB922" s="1"/>
     </row>
     <row r="923">
       <c r="A923" s="1"/>
@@ -28642,6 +30555,8 @@
       <c r="X923" s="1"/>
       <c r="Y923" s="1"/>
       <c r="Z923" s="1"/>
+      <c r="AA923" s="1"/>
+      <c r="AB923" s="1"/>
     </row>
     <row r="924">
       <c r="A924" s="1"/>
@@ -28670,6 +30585,8 @@
       <c r="X924" s="1"/>
       <c r="Y924" s="1"/>
       <c r="Z924" s="1"/>
+      <c r="AA924" s="1"/>
+      <c r="AB924" s="1"/>
     </row>
     <row r="925">
       <c r="A925" s="1"/>
@@ -28698,6 +30615,8 @@
       <c r="X925" s="1"/>
       <c r="Y925" s="1"/>
       <c r="Z925" s="1"/>
+      <c r="AA925" s="1"/>
+      <c r="AB925" s="1"/>
     </row>
     <row r="926">
       <c r="A926" s="1"/>
@@ -28726,6 +30645,8 @@
       <c r="X926" s="1"/>
       <c r="Y926" s="1"/>
       <c r="Z926" s="1"/>
+      <c r="AA926" s="1"/>
+      <c r="AB926" s="1"/>
     </row>
     <row r="927">
       <c r="A927" s="1"/>
@@ -28754,6 +30675,8 @@
       <c r="X927" s="1"/>
       <c r="Y927" s="1"/>
       <c r="Z927" s="1"/>
+      <c r="AA927" s="1"/>
+      <c r="AB927" s="1"/>
     </row>
     <row r="928">
       <c r="A928" s="1"/>
@@ -28782,6 +30705,8 @@
       <c r="X928" s="1"/>
       <c r="Y928" s="1"/>
       <c r="Z928" s="1"/>
+      <c r="AA928" s="1"/>
+      <c r="AB928" s="1"/>
     </row>
     <row r="929">
       <c r="A929" s="1"/>
@@ -28810,6 +30735,8 @@
       <c r="X929" s="1"/>
       <c r="Y929" s="1"/>
       <c r="Z929" s="1"/>
+      <c r="AA929" s="1"/>
+      <c r="AB929" s="1"/>
     </row>
     <row r="930">
       <c r="A930" s="1"/>
@@ -28838,6 +30765,8 @@
       <c r="X930" s="1"/>
       <c r="Y930" s="1"/>
       <c r="Z930" s="1"/>
+      <c r="AA930" s="1"/>
+      <c r="AB930" s="1"/>
     </row>
     <row r="931">
       <c r="A931" s="1"/>
@@ -28866,6 +30795,8 @@
       <c r="X931" s="1"/>
       <c r="Y931" s="1"/>
       <c r="Z931" s="1"/>
+      <c r="AA931" s="1"/>
+      <c r="AB931" s="1"/>
     </row>
     <row r="932">
       <c r="A932" s="1"/>
@@ -28894,6 +30825,8 @@
       <c r="X932" s="1"/>
       <c r="Y932" s="1"/>
       <c r="Z932" s="1"/>
+      <c r="AA932" s="1"/>
+      <c r="AB932" s="1"/>
     </row>
     <row r="933">
       <c r="A933" s="1"/>
@@ -28922,6 +30855,8 @@
       <c r="X933" s="1"/>
       <c r="Y933" s="1"/>
       <c r="Z933" s="1"/>
+      <c r="AA933" s="1"/>
+      <c r="AB933" s="1"/>
     </row>
     <row r="934">
       <c r="A934" s="1"/>
@@ -28950,6 +30885,8 @@
       <c r="X934" s="1"/>
       <c r="Y934" s="1"/>
       <c r="Z934" s="1"/>
+      <c r="AA934" s="1"/>
+      <c r="AB934" s="1"/>
     </row>
     <row r="935">
       <c r="A935" s="1"/>
@@ -28978,6 +30915,8 @@
       <c r="X935" s="1"/>
       <c r="Y935" s="1"/>
       <c r="Z935" s="1"/>
+      <c r="AA935" s="1"/>
+      <c r="AB935" s="1"/>
     </row>
     <row r="936">
       <c r="A936" s="1"/>
@@ -29006,6 +30945,8 @@
       <c r="X936" s="1"/>
       <c r="Y936" s="1"/>
       <c r="Z936" s="1"/>
+      <c r="AA936" s="1"/>
+      <c r="AB936" s="1"/>
     </row>
     <row r="937">
       <c r="A937" s="1"/>
@@ -29034,6 +30975,8 @@
       <c r="X937" s="1"/>
       <c r="Y937" s="1"/>
       <c r="Z937" s="1"/>
+      <c r="AA937" s="1"/>
+      <c r="AB937" s="1"/>
     </row>
     <row r="938">
       <c r="A938" s="1"/>
@@ -29062,6 +31005,8 @@
       <c r="X938" s="1"/>
       <c r="Y938" s="1"/>
       <c r="Z938" s="1"/>
+      <c r="AA938" s="1"/>
+      <c r="AB938" s="1"/>
     </row>
     <row r="939">
       <c r="A939" s="1"/>
@@ -29090,6 +31035,8 @@
       <c r="X939" s="1"/>
       <c r="Y939" s="1"/>
       <c r="Z939" s="1"/>
+      <c r="AA939" s="1"/>
+      <c r="AB939" s="1"/>
     </row>
     <row r="940">
       <c r="A940" s="1"/>
@@ -29118,6 +31065,8 @@
       <c r="X940" s="1"/>
       <c r="Y940" s="1"/>
       <c r="Z940" s="1"/>
+      <c r="AA940" s="1"/>
+      <c r="AB940" s="1"/>
     </row>
     <row r="941">
       <c r="A941" s="1"/>
@@ -29146,6 +31095,8 @@
       <c r="X941" s="1"/>
       <c r="Y941" s="1"/>
       <c r="Z941" s="1"/>
+      <c r="AA941" s="1"/>
+      <c r="AB941" s="1"/>
     </row>
     <row r="942">
       <c r="A942" s="1"/>
@@ -29174,6 +31125,8 @@
       <c r="X942" s="1"/>
       <c r="Y942" s="1"/>
       <c r="Z942" s="1"/>
+      <c r="AA942" s="1"/>
+      <c r="AB942" s="1"/>
     </row>
     <row r="943">
       <c r="A943" s="1"/>
@@ -29202,6 +31155,8 @@
       <c r="X943" s="1"/>
       <c r="Y943" s="1"/>
       <c r="Z943" s="1"/>
+      <c r="AA943" s="1"/>
+      <c r="AB943" s="1"/>
     </row>
     <row r="944">
       <c r="A944" s="1"/>
@@ -29230,6 +31185,8 @@
       <c r="X944" s="1"/>
       <c r="Y944" s="1"/>
       <c r="Z944" s="1"/>
+      <c r="AA944" s="1"/>
+      <c r="AB944" s="1"/>
     </row>
     <row r="945">
       <c r="A945" s="1"/>
@@ -29258,6 +31215,8 @@
       <c r="X945" s="1"/>
       <c r="Y945" s="1"/>
       <c r="Z945" s="1"/>
+      <c r="AA945" s="1"/>
+      <c r="AB945" s="1"/>
     </row>
     <row r="946">
       <c r="A946" s="1"/>
@@ -29286,6 +31245,8 @@
       <c r="X946" s="1"/>
       <c r="Y946" s="1"/>
       <c r="Z946" s="1"/>
+      <c r="AA946" s="1"/>
+      <c r="AB946" s="1"/>
     </row>
     <row r="947">
       <c r="A947" s="1"/>
@@ -29314,6 +31275,8 @@
       <c r="X947" s="1"/>
       <c r="Y947" s="1"/>
       <c r="Z947" s="1"/>
+      <c r="AA947" s="1"/>
+      <c r="AB947" s="1"/>
     </row>
     <row r="948">
       <c r="A948" s="1"/>
@@ -29342,6 +31305,8 @@
       <c r="X948" s="1"/>
       <c r="Y948" s="1"/>
       <c r="Z948" s="1"/>
+      <c r="AA948" s="1"/>
+      <c r="AB948" s="1"/>
     </row>
     <row r="949">
       <c r="A949" s="1"/>
@@ -29370,6 +31335,8 @@
       <c r="X949" s="1"/>
       <c r="Y949" s="1"/>
       <c r="Z949" s="1"/>
+      <c r="AA949" s="1"/>
+      <c r="AB949" s="1"/>
     </row>
     <row r="950">
       <c r="A950" s="1"/>
@@ -29398,6 +31365,8 @@
       <c r="X950" s="1"/>
       <c r="Y950" s="1"/>
       <c r="Z950" s="1"/>
+      <c r="AA950" s="1"/>
+      <c r="AB950" s="1"/>
     </row>
     <row r="951">
       <c r="A951" s="1"/>
@@ -29426,6 +31395,8 @@
       <c r="X951" s="1"/>
       <c r="Y951" s="1"/>
       <c r="Z951" s="1"/>
+      <c r="AA951" s="1"/>
+      <c r="AB951" s="1"/>
     </row>
     <row r="952">
       <c r="A952" s="1"/>
@@ -29454,6 +31425,8 @@
       <c r="X952" s="1"/>
       <c r="Y952" s="1"/>
       <c r="Z952" s="1"/>
+      <c r="AA952" s="1"/>
+      <c r="AB952" s="1"/>
     </row>
     <row r="953">
       <c r="A953" s="1"/>
@@ -29482,6 +31455,8 @@
       <c r="X953" s="1"/>
       <c r="Y953" s="1"/>
       <c r="Z953" s="1"/>
+      <c r="AA953" s="1"/>
+      <c r="AB953" s="1"/>
     </row>
     <row r="954">
       <c r="A954" s="1"/>
@@ -29510,6 +31485,8 @@
       <c r="X954" s="1"/>
       <c r="Y954" s="1"/>
       <c r="Z954" s="1"/>
+      <c r="AA954" s="1"/>
+      <c r="AB954" s="1"/>
     </row>
     <row r="955">
       <c r="A955" s="1"/>
@@ -29538,6 +31515,8 @@
       <c r="X955" s="1"/>
       <c r="Y955" s="1"/>
       <c r="Z955" s="1"/>
+      <c r="AA955" s="1"/>
+      <c r="AB955" s="1"/>
     </row>
     <row r="956">
       <c r="A956" s="1"/>
@@ -29566,6 +31545,8 @@
       <c r="X956" s="1"/>
       <c r="Y956" s="1"/>
       <c r="Z956" s="1"/>
+      <c r="AA956" s="1"/>
+      <c r="AB956" s="1"/>
     </row>
     <row r="957">
       <c r="A957" s="1"/>
@@ -29594,6 +31575,8 @@
       <c r="X957" s="1"/>
       <c r="Y957" s="1"/>
       <c r="Z957" s="1"/>
+      <c r="AA957" s="1"/>
+      <c r="AB957" s="1"/>
     </row>
     <row r="958">
       <c r="A958" s="1"/>
@@ -29622,6 +31605,8 @@
       <c r="X958" s="1"/>
       <c r="Y958" s="1"/>
       <c r="Z958" s="1"/>
+      <c r="AA958" s="1"/>
+      <c r="AB958" s="1"/>
     </row>
     <row r="959">
       <c r="A959" s="1"/>
@@ -29650,6 +31635,8 @@
       <c r="X959" s="1"/>
       <c r="Y959" s="1"/>
       <c r="Z959" s="1"/>
+      <c r="AA959" s="1"/>
+      <c r="AB959" s="1"/>
     </row>
     <row r="960">
       <c r="A960" s="1"/>
@@ -29678,6 +31665,8 @@
       <c r="X960" s="1"/>
       <c r="Y960" s="1"/>
       <c r="Z960" s="1"/>
+      <c r="AA960" s="1"/>
+      <c r="AB960" s="1"/>
     </row>
     <row r="961">
       <c r="A961" s="1"/>
@@ -29706,6 +31695,8 @@
       <c r="X961" s="1"/>
       <c r="Y961" s="1"/>
       <c r="Z961" s="1"/>
+      <c r="AA961" s="1"/>
+      <c r="AB961" s="1"/>
     </row>
     <row r="962">
       <c r="A962" s="1"/>
@@ -29734,6 +31725,8 @@
       <c r="X962" s="1"/>
       <c r="Y962" s="1"/>
       <c r="Z962" s="1"/>
+      <c r="AA962" s="1"/>
+      <c r="AB962" s="1"/>
     </row>
     <row r="963">
       <c r="A963" s="1"/>
@@ -29762,6 +31755,8 @@
       <c r="X963" s="1"/>
       <c r="Y963" s="1"/>
       <c r="Z963" s="1"/>
+      <c r="AA963" s="1"/>
+      <c r="AB963" s="1"/>
     </row>
     <row r="964">
       <c r="A964" s="1"/>
@@ -29790,6 +31785,8 @@
       <c r="X964" s="1"/>
       <c r="Y964" s="1"/>
       <c r="Z964" s="1"/>
+      <c r="AA964" s="1"/>
+      <c r="AB964" s="1"/>
     </row>
     <row r="965">
       <c r="A965" s="1"/>
@@ -29818,6 +31815,8 @@
       <c r="X965" s="1"/>
       <c r="Y965" s="1"/>
       <c r="Z965" s="1"/>
+      <c r="AA965" s="1"/>
+      <c r="AB965" s="1"/>
     </row>
     <row r="966">
       <c r="A966" s="1"/>
@@ -29846,6 +31845,8 @@
       <c r="X966" s="1"/>
       <c r="Y966" s="1"/>
       <c r="Z966" s="1"/>
+      <c r="AA966" s="1"/>
+      <c r="AB966" s="1"/>
     </row>
     <row r="967">
       <c r="A967" s="1"/>
@@ -29874,6 +31875,8 @@
       <c r="X967" s="1"/>
       <c r="Y967" s="1"/>
       <c r="Z967" s="1"/>
+      <c r="AA967" s="1"/>
+      <c r="AB967" s="1"/>
     </row>
     <row r="968">
       <c r="A968" s="1"/>
@@ -29902,6 +31905,8 @@
       <c r="X968" s="1"/>
       <c r="Y968" s="1"/>
       <c r="Z968" s="1"/>
+      <c r="AA968" s="1"/>
+      <c r="AB968" s="1"/>
     </row>
     <row r="969">
       <c r="A969" s="1"/>
@@ -29930,6 +31935,8 @@
       <c r="X969" s="1"/>
       <c r="Y969" s="1"/>
       <c r="Z969" s="1"/>
+      <c r="AA969" s="1"/>
+      <c r="AB969" s="1"/>
     </row>
     <row r="970">
       <c r="A970" s="1"/>
@@ -29958,6 +31965,8 @@
       <c r="X970" s="1"/>
       <c r="Y970" s="1"/>
       <c r="Z970" s="1"/>
+      <c r="AA970" s="1"/>
+      <c r="AB970" s="1"/>
     </row>
     <row r="971">
       <c r="A971" s="1"/>
@@ -29986,6 +31995,8 @@
       <c r="X971" s="1"/>
       <c r="Y971" s="1"/>
       <c r="Z971" s="1"/>
+      <c r="AA971" s="1"/>
+      <c r="AB971" s="1"/>
     </row>
     <row r="972">
       <c r="A972" s="1"/>
@@ -30014,6 +32025,8 @@
       <c r="X972" s="1"/>
       <c r="Y972" s="1"/>
       <c r="Z972" s="1"/>
+      <c r="AA972" s="1"/>
+      <c r="AB972" s="1"/>
     </row>
     <row r="973">
       <c r="A973" s="1"/>
@@ -30042,6 +32055,8 @@
       <c r="X973" s="1"/>
       <c r="Y973" s="1"/>
       <c r="Z973" s="1"/>
+      <c r="AA973" s="1"/>
+      <c r="AB973" s="1"/>
     </row>
     <row r="974">
       <c r="A974" s="1"/>
@@ -30070,6 +32085,8 @@
       <c r="X974" s="1"/>
       <c r="Y974" s="1"/>
       <c r="Z974" s="1"/>
+      <c r="AA974" s="1"/>
+      <c r="AB974" s="1"/>
     </row>
     <row r="975">
       <c r="A975" s="1"/>
@@ -30098,6 +32115,8 @@
       <c r="X975" s="1"/>
       <c r="Y975" s="1"/>
       <c r="Z975" s="1"/>
+      <c r="AA975" s="1"/>
+      <c r="AB975" s="1"/>
     </row>
     <row r="976">
       <c r="A976" s="1"/>
@@ -30126,6 +32145,8 @@
       <c r="X976" s="1"/>
       <c r="Y976" s="1"/>
       <c r="Z976" s="1"/>
+      <c r="AA976" s="1"/>
+      <c r="AB976" s="1"/>
     </row>
     <row r="977">
       <c r="A977" s="1"/>
@@ -30154,6 +32175,8 @@
       <c r="X977" s="1"/>
       <c r="Y977" s="1"/>
       <c r="Z977" s="1"/>
+      <c r="AA977" s="1"/>
+      <c r="AB977" s="1"/>
     </row>
     <row r="978">
       <c r="A978" s="1"/>
@@ -30182,6 +32205,8 @@
       <c r="X978" s="1"/>
       <c r="Y978" s="1"/>
       <c r="Z978" s="1"/>
+      <c r="AA978" s="1"/>
+      <c r="AB978" s="1"/>
     </row>
     <row r="979">
       <c r="A979" s="1"/>
@@ -30210,6 +32235,8 @@
       <c r="X979" s="1"/>
       <c r="Y979" s="1"/>
       <c r="Z979" s="1"/>
+      <c r="AA979" s="1"/>
+      <c r="AB979" s="1"/>
     </row>
     <row r="980">
       <c r="A980" s="1"/>
@@ -30238,6 +32265,8 @@
       <c r="X980" s="1"/>
       <c r="Y980" s="1"/>
       <c r="Z980" s="1"/>
+      <c r="AA980" s="1"/>
+      <c r="AB980" s="1"/>
     </row>
     <row r="981">
       <c r="A981" s="1"/>
@@ -30266,6 +32295,8 @@
       <c r="X981" s="1"/>
       <c r="Y981" s="1"/>
       <c r="Z981" s="1"/>
+      <c r="AA981" s="1"/>
+      <c r="AB981" s="1"/>
     </row>
     <row r="982">
       <c r="A982" s="1"/>
@@ -30294,6 +32325,8 @@
       <c r="X982" s="1"/>
       <c r="Y982" s="1"/>
       <c r="Z982" s="1"/>
+      <c r="AA982" s="1"/>
+      <c r="AB982" s="1"/>
     </row>
     <row r="983">
       <c r="A983" s="1"/>
@@ -30322,6 +32355,8 @@
       <c r="X983" s="1"/>
       <c r="Y983" s="1"/>
       <c r="Z983" s="1"/>
+      <c r="AA983" s="1"/>
+      <c r="AB983" s="1"/>
     </row>
     <row r="984">
       <c r="A984" s="1"/>
@@ -30350,6 +32385,8 @@
       <c r="X984" s="1"/>
       <c r="Y984" s="1"/>
       <c r="Z984" s="1"/>
+      <c r="AA984" s="1"/>
+      <c r="AB984" s="1"/>
     </row>
     <row r="985">
       <c r="A985" s="1"/>
@@ -30378,6 +32415,8 @@
       <c r="X985" s="1"/>
       <c r="Y985" s="1"/>
       <c r="Z985" s="1"/>
+      <c r="AA985" s="1"/>
+      <c r="AB985" s="1"/>
     </row>
     <row r="986">
       <c r="A986" s="1"/>
@@ -30406,6 +32445,8 @@
       <c r="X986" s="1"/>
       <c r="Y986" s="1"/>
       <c r="Z986" s="1"/>
+      <c r="AA986" s="1"/>
+      <c r="AB986" s="1"/>
     </row>
     <row r="987">
       <c r="A987" s="1"/>
@@ -30434,6 +32475,8 @@
       <c r="X987" s="1"/>
       <c r="Y987" s="1"/>
       <c r="Z987" s="1"/>
+      <c r="AA987" s="1"/>
+      <c r="AB987" s="1"/>
     </row>
     <row r="988">
       <c r="A988" s="1"/>
@@ -30462,6 +32505,8 @@
       <c r="X988" s="1"/>
       <c r="Y988" s="1"/>
       <c r="Z988" s="1"/>
+      <c r="AA988" s="1"/>
+      <c r="AB988" s="1"/>
     </row>
     <row r="989">
       <c r="A989" s="1"/>
@@ -30490,6 +32535,8 @@
       <c r="X989" s="1"/>
       <c r="Y989" s="1"/>
       <c r="Z989" s="1"/>
+      <c r="AA989" s="1"/>
+      <c r="AB989" s="1"/>
     </row>
     <row r="990">
       <c r="A990" s="1"/>
@@ -30518,6 +32565,8 @@
       <c r="X990" s="1"/>
       <c r="Y990" s="1"/>
       <c r="Z990" s="1"/>
+      <c r="AA990" s="1"/>
+      <c r="AB990" s="1"/>
     </row>
     <row r="991">
       <c r="A991" s="1"/>
@@ -30546,6 +32595,8 @@
       <c r="X991" s="1"/>
       <c r="Y991" s="1"/>
       <c r="Z991" s="1"/>
+      <c r="AA991" s="1"/>
+      <c r="AB991" s="1"/>
     </row>
     <row r="992">
       <c r="A992" s="1"/>
@@ -30574,6 +32625,8 @@
       <c r="X992" s="1"/>
       <c r="Y992" s="1"/>
       <c r="Z992" s="1"/>
+      <c r="AA992" s="1"/>
+      <c r="AB992" s="1"/>
     </row>
     <row r="993">
       <c r="A993" s="1"/>
@@ -30602,6 +32655,8 @@
       <c r="X993" s="1"/>
       <c r="Y993" s="1"/>
       <c r="Z993" s="1"/>
+      <c r="AA993" s="1"/>
+      <c r="AB993" s="1"/>
     </row>
     <row r="994">
       <c r="A994" s="1"/>
@@ -30630,6 +32685,8 @@
       <c r="X994" s="1"/>
       <c r="Y994" s="1"/>
       <c r="Z994" s="1"/>
+      <c r="AA994" s="1"/>
+      <c r="AB994" s="1"/>
     </row>
     <row r="995">
       <c r="A995" s="1"/>
@@ -30658,6 +32715,8 @@
       <c r="X995" s="1"/>
       <c r="Y995" s="1"/>
       <c r="Z995" s="1"/>
+      <c r="AA995" s="1"/>
+      <c r="AB995" s="1"/>
     </row>
     <row r="996">
       <c r="A996" s="1"/>
@@ -30686,6 +32745,8 @@
       <c r="X996" s="1"/>
       <c r="Y996" s="1"/>
       <c r="Z996" s="1"/>
+      <c r="AA996" s="1"/>
+      <c r="AB996" s="1"/>
     </row>
     <row r="997">
       <c r="A997" s="1"/>
@@ -30714,6 +32775,8 @@
       <c r="X997" s="1"/>
       <c r="Y997" s="1"/>
       <c r="Z997" s="1"/>
+      <c r="AA997" s="1"/>
+      <c r="AB997" s="1"/>
     </row>
     <row r="998">
       <c r="A998" s="1"/>
@@ -30742,6 +32805,8 @@
       <c r="X998" s="1"/>
       <c r="Y998" s="1"/>
       <c r="Z998" s="1"/>
+      <c r="AA998" s="1"/>
+      <c r="AB998" s="1"/>
     </row>
     <row r="999">
       <c r="A999" s="1"/>
@@ -30770,6 +32835,8 @@
       <c r="X999" s="1"/>
       <c r="Y999" s="1"/>
       <c r="Z999" s="1"/>
+      <c r="AA999" s="1"/>
+      <c r="AB999" s="1"/>
     </row>
     <row r="1000">
       <c r="A1000" s="1"/>
@@ -30798,6 +32865,8 @@
       <c r="X1000" s="1"/>
       <c r="Y1000" s="1"/>
       <c r="Z1000" s="1"/>
+      <c r="AA1000" s="1"/>
+      <c r="AB1000" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/umit_files/umit_him.xlsx
+++ b/umit_files/umit_him.xlsx
@@ -5144,12 +5144,12 @@
       <c r="Q81" s="1"/>
       <c r="R81" s="1"/>
       <c r="S81" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Применение фенола")</f>
-        <v>Применение фенола</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Применение формальдегида и ацетальдегида")</f>
+        <v>Применение формальдегида и ацетальдегида</v>
       </c>
       <c r="T81" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),980.0)</f>
-        <v>980</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),981.0)</f>
+        <v>981</v>
       </c>
       <c r="U81" s="1"/>
       <c r="V81" s="1"/>
@@ -5180,12 +5180,12 @@
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
       <c r="S82" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Применение формальдегида и ацетальдегида")</f>
-        <v>Применение формальдегида и ацетальдегида</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Применение уксусной кислоты")</f>
+        <v>Применение уксусной кислоты</v>
       </c>
       <c r="T82" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),981.0)</f>
-        <v>981</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),982.0)</f>
+        <v>982</v>
       </c>
       <c r="U82" s="1"/>
       <c r="V82" s="1"/>
@@ -5216,12 +5216,12 @@
       <c r="Q83" s="1"/>
       <c r="R83" s="1"/>
       <c r="S83" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Применение уксусной кислоты")</f>
-        <v>Применение уксусной кислоты</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Применение сложных эфиров в пищевой и парфюмерной промышленностях")</f>
+        <v>Применение сложных эфиров в пищевой и парфюмерной промышленностях</v>
       </c>
       <c r="T83" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),982.0)</f>
-        <v>982</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),983.0)</f>
+        <v>983</v>
       </c>
       <c r="U83" s="1"/>
       <c r="V83" s="1"/>
@@ -5252,12 +5252,12 @@
       <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
       <c r="S84" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Применение сложных эфиров в пищевой и парфюмерной промышленностях")</f>
-        <v>Применение сложных эфиров в пищевой и парфюмерной промышленностях</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Применение ацетона")</f>
+        <v>Применение ацетона</v>
       </c>
       <c r="T84" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),983.0)</f>
-        <v>983</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),984.0)</f>
+        <v>984</v>
       </c>
       <c r="U84" s="1"/>
       <c r="V84" s="1"/>
@@ -5288,12 +5288,12 @@
       <c r="Q85" s="1"/>
       <c r="R85" s="1"/>
       <c r="S85" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Применение ацетона")</f>
-        <v>Применение ацетона</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Применение метанола и этанола")</f>
+        <v>Применение метанола и этанола</v>
       </c>
       <c r="T85" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),984.0)</f>
-        <v>984</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),985.0)</f>
+        <v>985</v>
       </c>
       <c r="U85" s="1"/>
       <c r="V85" s="1"/>
@@ -5324,12 +5324,12 @@
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
       <c r="S86" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Применение метанола и этанола")</f>
-        <v>Применение метанола и этанола</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение определять ангидриды карбоновых кислот")</f>
+        <v>Умение определять ангидриды карбоновых кислот</v>
       </c>
       <c r="T86" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),985.0)</f>
-        <v>985</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),986.0)</f>
+        <v>986</v>
       </c>
       <c r="U86" s="1"/>
       <c r="V86" s="1"/>
@@ -5360,12 +5360,12 @@
       <c r="Q87" s="1"/>
       <c r="R87" s="1"/>
       <c r="S87" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение определять ангидриды карбоновых кислот")</f>
-        <v>Умение определять ангидриды карбоновых кислот</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химические свойства ангидридов карбоновых кислот")</f>
+        <v>Химические свойства ангидридов карбоновых кислот</v>
       </c>
       <c r="T87" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),986.0)</f>
-        <v>986</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),987.0)</f>
+        <v>987</v>
       </c>
       <c r="U87" s="1"/>
       <c r="V87" s="1"/>
@@ -5396,12 +5396,12 @@
       <c r="Q88" s="1"/>
       <c r="R88" s="1"/>
       <c r="S88" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химические свойства ангидридов карбоновых кислот")</f>
-        <v>Химические свойства ангидридов карбоновых кислот</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение определять галогенопроизводные углеводородов")</f>
+        <v>Умение определять галогенопроизводные углеводородов</v>
       </c>
       <c r="T88" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),987.0)</f>
-        <v>987</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),988.0)</f>
+        <v>988</v>
       </c>
       <c r="U88" s="1"/>
       <c r="V88" s="1"/>
@@ -5432,12 +5432,12 @@
       <c r="Q89" s="1"/>
       <c r="R89" s="1"/>
       <c r="S89" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение определять галогенопроизводные углеводородов")</f>
-        <v>Умение определять галогенопроизводные углеводородов</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химические свойства галогенопроизводных углеводородов")</f>
+        <v>Химические свойства галогенопроизводных углеводородов</v>
       </c>
       <c r="T89" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),988.0)</f>
-        <v>988</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),989.0)</f>
+        <v>989</v>
       </c>
       <c r="U89" s="1"/>
       <c r="V89" s="1"/>
@@ -5468,12 +5468,12 @@
       <c r="Q90" s="1"/>
       <c r="R90" s="1"/>
       <c r="S90" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химические свойства галогенопроизводных углеводородов")</f>
-        <v>Химические свойства галогенопроизводных углеводородов</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Получение ангидридов карбоновых кислот.")</f>
+        <v>Получение ангидридов карбоновых кислот.</v>
       </c>
       <c r="T90" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),989.0)</f>
-        <v>989</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),990.0)</f>
+        <v>990</v>
       </c>
       <c r="U90" s="1"/>
       <c r="V90" s="1"/>
@@ -5504,12 +5504,12 @@
       <c r="Q91" s="1"/>
       <c r="R91" s="1"/>
       <c r="S91" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Получение ангидридов карбоновых кислот.")</f>
-        <v>Получение ангидридов карбоновых кислот.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Получение галогенангидридов карбоновых кислот.")</f>
+        <v>Получение галогенангидридов карбоновых кислот.</v>
       </c>
       <c r="T91" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),990.0)</f>
-        <v>990</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),991.0)</f>
+        <v>991</v>
       </c>
       <c r="U91" s="1"/>
       <c r="V91" s="1"/>
@@ -5540,12 +5540,12 @@
       <c r="Q92" s="1"/>
       <c r="R92" s="1"/>
       <c r="S92" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Получение галогенангидридов карбоновых кислот.")</f>
-        <v>Получение галогенангидридов карбоновых кислот.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химические свойства галогенангидридов карбоновых кислот")</f>
+        <v>Химические свойства галогенангидридов карбоновых кислот</v>
       </c>
       <c r="T92" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),991.0)</f>
-        <v>991</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),992.0)</f>
+        <v>992</v>
       </c>
       <c r="U92" s="1"/>
       <c r="V92" s="1"/>
@@ -5576,12 +5576,12 @@
       <c r="Q93" s="1"/>
       <c r="R93" s="1"/>
       <c r="S93" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химические свойства галогенангидридов карбоновых кислот")</f>
-        <v>Химические свойства галогенангидридов карбоновых кислот</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение определять галогенангидриды карбоновых кислот")</f>
+        <v>Умение определять галогенангидриды карбоновых кислот</v>
       </c>
       <c r="T93" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),992.0)</f>
-        <v>992</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),993.0)</f>
+        <v>993</v>
       </c>
       <c r="U93" s="1"/>
       <c r="V93" s="1"/>
@@ -5612,12 +5612,12 @@
       <c r="Q94" s="1"/>
       <c r="R94" s="1"/>
       <c r="S94" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение определять галогенангидриды карбоновых кислот")</f>
-        <v>Умение определять галогенангидриды карбоновых кислот</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Специфические химические свойства карбоновых кислот")</f>
+        <v>Специфические химические свойства карбоновых кислот</v>
       </c>
       <c r="T94" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),993.0)</f>
-        <v>993</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),994.0)</f>
+        <v>994</v>
       </c>
       <c r="U94" s="1"/>
       <c r="V94" s="1"/>
@@ -5648,12 +5648,12 @@
       <c r="Q95" s="1"/>
       <c r="R95" s="1"/>
       <c r="S95" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Специфические химические свойства карбоновых кислот")</f>
-        <v>Специфические химические свойства карбоновых кислот</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химические свойства солей карбоновых кислот")</f>
+        <v>Химические свойства солей карбоновых кислот</v>
       </c>
       <c r="T95" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),994.0)</f>
-        <v>994</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),995.0)</f>
+        <v>995</v>
       </c>
       <c r="U95" s="1"/>
       <c r="V95" s="1"/>
@@ -5684,12 +5684,12 @@
       <c r="Q96" s="1"/>
       <c r="R96" s="1"/>
       <c r="S96" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химические свойства солей карбоновых кислот")</f>
-        <v>Химические свойства солей карбоновых кислот</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химические свойства альдегидов - реакции полимеризации и поликонденсации")</f>
+        <v>Химические свойства альдегидов - реакции полимеризации и поликонденсации</v>
       </c>
       <c r="T96" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),995.0)</f>
-        <v>995</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),996.0)</f>
+        <v>996</v>
       </c>
       <c r="U96" s="1"/>
       <c r="V96" s="1"/>
@@ -5720,12 +5720,12 @@
       <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
       <c r="S97" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химические свойства альдегидов - реакции полимеризации и поликонденсации")</f>
-        <v>Химические свойства альдегидов - реакции полимеризации и поликонденсации</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Окисление альдегидов")</f>
+        <v>Окисление альдегидов</v>
       </c>
       <c r="T97" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),996.0)</f>
-        <v>996</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),997.0)</f>
+        <v>997</v>
       </c>
       <c r="U97" s="1"/>
       <c r="V97" s="1"/>
@@ -5756,12 +5756,12 @@
       <c r="Q98" s="1"/>
       <c r="R98" s="1"/>
       <c r="S98" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Окисление альдегидов")</f>
-        <v>Окисление альдегидов</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Качественные реакции на альдегиды")</f>
+        <v>Качественные реакции на альдегиды</v>
       </c>
       <c r="T98" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),997.0)</f>
-        <v>997</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),998.0)</f>
+        <v>998</v>
       </c>
       <c r="U98" s="1"/>
       <c r="V98" s="1"/>
@@ -5792,12 +5792,12 @@
       <c r="Q99" s="1"/>
       <c r="R99" s="1"/>
       <c r="S99" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Качественные реакции на альдегиды")</f>
-        <v>Качественные реакции на альдегиды</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Качественные реакции на фенол")</f>
+        <v>Качественные реакции на фенол</v>
       </c>
       <c r="T99" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),998.0)</f>
-        <v>998</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),999.0)</f>
+        <v>999</v>
       </c>
       <c r="U99" s="1"/>
       <c r="V99" s="1"/>
@@ -5828,12 +5828,12 @@
       <c r="Q100" s="1"/>
       <c r="R100" s="1"/>
       <c r="S100" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Качественные реакции на фенол")</f>
-        <v>Качественные реакции на фенол</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Качественные реакции на многоатомные спирты")</f>
+        <v>Качественные реакции на многоатомные спирты</v>
       </c>
       <c r="T100" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),999.0)</f>
-        <v>999</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1301.0)</f>
+        <v>1301</v>
       </c>
       <c r="U100" s="1"/>
       <c r="V100" s="1"/>
@@ -5864,12 +5864,12 @@
       <c r="Q101" s="1"/>
       <c r="R101" s="1"/>
       <c r="S101" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Качественные реакции на многоатомные спирты")</f>
-        <v>Качественные реакции на многоатомные спирты</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химические свойства одноатомных спиртов - реакции с разрывом связи С-О")</f>
+        <v>Химические свойства одноатомных спиртов - реакции с разрывом связи С-О</v>
       </c>
       <c r="T101" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1301.0)</f>
-        <v>1301</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1302.0)</f>
+        <v>1302</v>
       </c>
       <c r="U101" s="1"/>
       <c r="V101" s="1"/>
@@ -5900,12 +5900,12 @@
       <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
       <c r="S102" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химические свойства одноатомных спиртов - реакции с разрывом связи С-О")</f>
-        <v>Химические свойства одноатомных спиртов - реакции с разрывом связи С-О</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Окисление одноатомных спиртов")</f>
+        <v>Окисление одноатомных спиртов</v>
       </c>
       <c r="T102" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1302.0)</f>
-        <v>1302</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1303.0)</f>
+        <v>1303</v>
       </c>
       <c r="U102" s="1"/>
       <c r="V102" s="1"/>
@@ -5936,12 +5936,12 @@
       <c r="Q103" s="1"/>
       <c r="R103" s="1"/>
       <c r="S103" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Окисление одноатомных спиртов")</f>
-        <v>Окисление одноатомных спиртов</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Качественные реакции на одноатомные спирты")</f>
+        <v>Качественные реакции на одноатомные спирты</v>
       </c>
       <c r="T103" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1303.0)</f>
-        <v>1303</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1304.0)</f>
+        <v>1304</v>
       </c>
       <c r="U103" s="1"/>
       <c r="V103" s="1"/>
@@ -5971,14 +5971,8 @@
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
       <c r="R104" s="1"/>
-      <c r="S104" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Качественные реакции на одноатомные спирты")</f>
-        <v>Качественные реакции на одноатомные спирты</v>
-      </c>
-      <c r="T104" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1304.0)</f>
-        <v>1304</v>
-      </c>
+      <c r="S104" s="1"/>
+      <c r="T104" s="1"/>
       <c r="U104" s="1"/>
       <c r="V104" s="1"/>
       <c r="W104" s="1"/>
